--- a/na-service/src/test/resources/func/parser/source/real/Source - Meduza.xlsx
+++ b/na-service/src/test/resources/func/parser/source/real/Source - Meduza.xlsx
@@ -11,10 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="23">
-  <si>
-    <t>page</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="18">
   <si>
     <t>url</t>
   </si>
@@ -35,9 +32,6 @@
   </si>
   <si>
     <t>url_normalisation</t>
-  </si>
-  <si>
-    <t>Meduza</t>
   </si>
   <si>
     <t>https://meduza.io/</t>
@@ -61,19 +55,10 @@
     <t>a:HTML_TAG</t>
   </si>
   <si>
-    <t>Games</t>
-  </si>
-  <si>
     <t>https://meduza.io/games</t>
   </si>
   <si>
-    <t>Razbor</t>
-  </si>
-  <si>
     <t>https://meduza.io/razbor</t>
-  </si>
-  <si>
-    <t>Articles</t>
   </si>
   <si>
     <t>https://meduza.io/articles</t>
@@ -102,10 +87,10 @@
       <name val="Arial"/>
     </font>
     <font>
+      <u/>
       <color rgb="FF000000"/>
     </font>
     <font>
-      <u/>
       <color rgb="FF000000"/>
     </font>
     <font>
@@ -387,12 +372,11 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.29"/>
-    <col customWidth="1" min="2" max="2" width="51.29"/>
-    <col customWidth="1" min="3" max="3" width="20.0"/>
-    <col customWidth="1" min="5" max="5" width="20.86"/>
-    <col customWidth="1" min="6" max="6" width="23.29"/>
-    <col customWidth="1" min="7" max="7" width="21.0"/>
+    <col customWidth="1" min="1" max="1" width="51.29"/>
+    <col customWidth="1" min="2" max="2" width="20.0"/>
+    <col customWidth="1" min="4" max="4" width="20.86"/>
+    <col customWidth="1" min="5" max="5" width="23.29"/>
+    <col customWidth="1" min="6" max="6" width="21.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -412,17 +396,15 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
@@ -439,25 +421,22 @@
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -474,24 +453,23 @@
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="6"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -508,28 +486,25 @@
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -546,24 +521,23 @@
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="6"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -580,28 +554,25 @@
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -618,24 +589,23 @@
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="6"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -652,28 +622,25 @@
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -690,24 +657,23 @@
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="6"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -724,28 +690,25 @@
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -762,24 +725,23 @@
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
     </row>
     <row r="11">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="6"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -796,18 +758,17 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
     </row>
     <row r="12">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="6"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -824,7 +785,6 @@
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
     </row>
     <row r="13">
       <c r="A13" s="6"/>
@@ -833,9 +793,9 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="6"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -852,18 +812,17 @@
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
     </row>
     <row r="14">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="6"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -880,18 +839,17 @@
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="6"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -908,18 +866,17 @@
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="6"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -936,17 +893,16 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="6"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -963,18 +919,17 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="6"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -991,17 +946,16 @@
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="6"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -1018,18 +972,17 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="6"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -1046,16 +999,15 @@
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
     </row>
     <row r="21">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -1074,18 +1026,17 @@
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
     </row>
     <row r="22">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="6"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
@@ -1102,7 +1053,6 @@
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
     </row>
     <row r="23">
       <c r="A23" s="6"/>
@@ -1111,7 +1061,7 @@
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -1130,18 +1080,17 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
     </row>
     <row r="24">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
+      <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="6"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -1158,16 +1107,15 @@
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
     </row>
     <row r="25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+      <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -1186,17 +1134,16 @@
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
     </row>
     <row r="26">
       <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="D26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
@@ -1213,16 +1160,15 @@
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
     </row>
     <row r="27">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+      <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+      <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
@@ -1241,18 +1187,17 @@
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
     </row>
     <row r="28">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="6"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
@@ -1269,7 +1214,6 @@
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
     </row>
     <row r="29">
       <c r="A29" s="6"/>
@@ -1278,7 +1222,7 @@
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
+      <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
@@ -1297,17 +1241,16 @@
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
     </row>
     <row r="30">
       <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="D30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="6"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -1324,16 +1267,15 @@
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
-      <c r="Z30" s="3"/>
     </row>
     <row r="31">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+      <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
+      <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
@@ -1352,17 +1294,16 @@
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
-      <c r="Z31" s="3"/>
     </row>
     <row r="32">
       <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="D32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -1379,16 +1320,15 @@
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
-      <c r="Z32" s="3"/>
     </row>
     <row r="33">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
+      <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
+      <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
@@ -1407,17 +1347,16 @@
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
     </row>
     <row r="34">
       <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
       <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="6"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
@@ -1434,15 +1373,14 @@
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
-      <c r="Z34" s="3"/>
     </row>
     <row r="35">
       <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
+      <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
@@ -1461,18 +1399,17 @@
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
-      <c r="Z35" s="3"/>
     </row>
     <row r="36">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
+      <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="6"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
@@ -1489,16 +1426,15 @@
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
-      <c r="Z36" s="3"/>
     </row>
     <row r="37">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
+      <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
+      <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
@@ -1517,17 +1453,16 @@
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
-      <c r="Z37" s="3"/>
     </row>
     <row r="38">
       <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="D38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
@@ -1544,18 +1479,17 @@
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
-      <c r="Z38" s="3"/>
     </row>
     <row r="39">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
+      <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="6"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -1572,18 +1506,17 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-      <c r="Z39" s="3"/>
     </row>
     <row r="40">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="6"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -1600,17 +1533,16 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-      <c r="Z40" s="3"/>
     </row>
     <row r="41">
       <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="6"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -1627,17 +1559,16 @@
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
       <c r="Y41" s="3"/>
-      <c r="Z41" s="3"/>
     </row>
     <row r="42">
       <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="D42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -1654,16 +1585,15 @@
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
-      <c r="Z42" s="3"/>
     </row>
     <row r="43">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
+      <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
+      <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
@@ -1682,17 +1612,16 @@
       <c r="W43" s="3"/>
       <c r="X43" s="3"/>
       <c r="Y43" s="3"/>
-      <c r="Z43" s="3"/>
     </row>
     <row r="44">
       <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
       <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="6"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
@@ -1709,15 +1638,14 @@
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
-      <c r="Z44" s="3"/>
     </row>
     <row r="45">
       <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
+      <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
@@ -1736,18 +1664,17 @@
       <c r="W45" s="3"/>
       <c r="X45" s="3"/>
       <c r="Y45" s="3"/>
-      <c r="Z45" s="3"/>
     </row>
     <row r="46">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
+      <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="6"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
@@ -1764,16 +1691,15 @@
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
-      <c r="Z46" s="3"/>
     </row>
     <row r="47">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
+      <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
+      <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
@@ -1792,18 +1718,17 @@
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
       <c r="Y47" s="3"/>
-      <c r="Z47" s="3"/>
     </row>
     <row r="48">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
+      <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
@@ -1820,16 +1745,15 @@
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
-      <c r="Z48" s="3"/>
     </row>
     <row r="49">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
+      <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
+      <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
@@ -1848,17 +1772,16 @@
       <c r="W49" s="3"/>
       <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
-      <c r="Z49" s="3"/>
     </row>
     <row r="50">
       <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
       <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="6"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="3"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
@@ -1875,17 +1798,16 @@
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
-      <c r="Z50" s="3"/>
     </row>
     <row r="51">
       <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="6"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
@@ -1902,18 +1824,17 @@
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
       <c r="Y51" s="3"/>
-      <c r="Z51" s="3"/>
     </row>
     <row r="52">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
+      <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="6"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
@@ -1930,7 +1851,6 @@
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
-      <c r="Z52" s="3"/>
     </row>
     <row r="53">
       <c r="A53" s="6"/>
@@ -1939,9 +1859,9 @@
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="6"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="3"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
@@ -1958,17 +1878,16 @@
       <c r="W53" s="3"/>
       <c r="X53" s="3"/>
       <c r="Y53" s="3"/>
-      <c r="Z53" s="3"/>
     </row>
     <row r="54">
       <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
-      <c r="D54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="6"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
@@ -1985,7 +1904,6 @@
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
-      <c r="Z54" s="3"/>
     </row>
     <row r="55">
       <c r="A55" s="6"/>
@@ -1994,9 +1912,9 @@
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="6"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
@@ -2013,18 +1931,17 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-      <c r="Z55" s="3"/>
     </row>
     <row r="56">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
+      <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="6"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
@@ -2041,7 +1958,6 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-      <c r="Z56" s="3"/>
     </row>
     <row r="57">
       <c r="A57" s="6"/>
@@ -2050,9 +1966,9 @@
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="6"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
@@ -2069,18 +1985,17 @@
       <c r="W57" s="3"/>
       <c r="X57" s="3"/>
       <c r="Y57" s="3"/>
-      <c r="Z57" s="3"/>
     </row>
     <row r="58">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
+      <c r="D58" s="7"/>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="6"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
@@ -2097,17 +2012,16 @@
       <c r="W58" s="3"/>
       <c r="X58" s="3"/>
       <c r="Y58" s="3"/>
-      <c r="Z58" s="3"/>
     </row>
     <row r="59">
       <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="6"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
@@ -2124,16 +2038,15 @@
       <c r="W59" s="3"/>
       <c r="X59" s="3"/>
       <c r="Y59" s="3"/>
-      <c r="Z59" s="3"/>
     </row>
     <row r="60">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="3"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
@@ -2152,17 +2065,16 @@
       <c r="W60" s="3"/>
       <c r="X60" s="3"/>
       <c r="Y60" s="3"/>
-      <c r="Z60" s="3"/>
     </row>
     <row r="61">
       <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
-      <c r="D61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
@@ -2179,16 +2091,15 @@
       <c r="W61" s="3"/>
       <c r="X61" s="3"/>
       <c r="Y61" s="3"/>
-      <c r="Z61" s="3"/>
     </row>
     <row r="62">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
+      <c r="D62" s="7"/>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
+      <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
@@ -2207,18 +2118,17 @@
       <c r="W62" s="3"/>
       <c r="X62" s="3"/>
       <c r="Y62" s="3"/>
-      <c r="Z62" s="3"/>
     </row>
     <row r="63">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="6"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
@@ -2235,16 +2145,15 @@
       <c r="W63" s="3"/>
       <c r="X63" s="3"/>
       <c r="Y63" s="3"/>
-      <c r="Z63" s="3"/>
     </row>
     <row r="64">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
+      <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
+      <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
@@ -2263,18 +2172,17 @@
       <c r="W64" s="3"/>
       <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
-      <c r="Z64" s="3"/>
     </row>
     <row r="65">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
+      <c r="D65" s="7"/>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="6"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="3"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
@@ -2291,16 +2199,15 @@
       <c r="W65" s="3"/>
       <c r="X65" s="3"/>
       <c r="Y65" s="3"/>
-      <c r="Z65" s="3"/>
     </row>
     <row r="66">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="3"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
@@ -2319,18 +2226,17 @@
       <c r="W66" s="3"/>
       <c r="X66" s="3"/>
       <c r="Y66" s="3"/>
-      <c r="Z66" s="3"/>
     </row>
     <row r="67">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
+      <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
@@ -2347,16 +2253,15 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-      <c r="Z67" s="3"/>
     </row>
     <row r="68">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
+      <c r="D68" s="7"/>
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
+      <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
@@ -2375,17 +2280,16 @@
       <c r="W68" s="3"/>
       <c r="X68" s="3"/>
       <c r="Y68" s="3"/>
-      <c r="Z68" s="3"/>
     </row>
     <row r="69">
       <c r="A69" s="6"/>
-      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
       <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="6"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="3"/>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
@@ -2402,16 +2306,15 @@
       <c r="W69" s="3"/>
       <c r="X69" s="3"/>
       <c r="Y69" s="3"/>
-      <c r="Z69" s="3"/>
     </row>
     <row r="70">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
+      <c r="D70" s="7"/>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
+      <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
@@ -2430,18 +2333,17 @@
       <c r="W70" s="3"/>
       <c r="X70" s="3"/>
       <c r="Y70" s="3"/>
-      <c r="Z70" s="3"/>
     </row>
     <row r="71">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
+      <c r="D71" s="7"/>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="6"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="3"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
@@ -2458,16 +2360,15 @@
       <c r="W71" s="3"/>
       <c r="X71" s="3"/>
       <c r="Y71" s="3"/>
-      <c r="Z71" s="3"/>
     </row>
     <row r="72">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="3"/>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
@@ -2486,16 +2387,15 @@
       <c r="W72" s="3"/>
       <c r="X72" s="3"/>
       <c r="Y72" s="3"/>
-      <c r="Z72" s="3"/>
     </row>
     <row r="73">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
+      <c r="D73" s="7"/>
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
+      <c r="G73" s="3"/>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
@@ -2514,18 +2414,17 @@
       <c r="W73" s="3"/>
       <c r="X73" s="3"/>
       <c r="Y73" s="3"/>
-      <c r="Z73" s="3"/>
     </row>
     <row r="74">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
+      <c r="D74" s="7"/>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="6"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="3"/>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
@@ -2542,16 +2441,15 @@
       <c r="W74" s="3"/>
       <c r="X74" s="3"/>
       <c r="Y74" s="3"/>
-      <c r="Z74" s="3"/>
     </row>
     <row r="75">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="3"/>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
@@ -2570,18 +2468,17 @@
       <c r="W75" s="3"/>
       <c r="X75" s="3"/>
       <c r="Y75" s="3"/>
-      <c r="Z75" s="3"/>
     </row>
     <row r="76">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
+      <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="3"/>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
@@ -2598,16 +2495,15 @@
       <c r="W76" s="3"/>
       <c r="X76" s="3"/>
       <c r="Y76" s="3"/>
-      <c r="Z76" s="3"/>
     </row>
     <row r="77">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
+      <c r="D77" s="7"/>
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
+      <c r="G77" s="3"/>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
@@ -2626,18 +2522,17 @@
       <c r="W77" s="3"/>
       <c r="X77" s="3"/>
       <c r="Y77" s="3"/>
-      <c r="Z77" s="3"/>
     </row>
     <row r="78">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="6"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="3"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
@@ -2654,16 +2549,15 @@
       <c r="W78" s="3"/>
       <c r="X78" s="3"/>
       <c r="Y78" s="3"/>
-      <c r="Z78" s="3"/>
     </row>
     <row r="79">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
+      <c r="D79" s="7"/>
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
+      <c r="G79" s="3"/>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
@@ -2682,18 +2576,17 @@
       <c r="W79" s="3"/>
       <c r="X79" s="3"/>
       <c r="Y79" s="3"/>
-      <c r="Z79" s="3"/>
     </row>
     <row r="80">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
+      <c r="D80" s="7"/>
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="6"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
@@ -2710,16 +2603,15 @@
       <c r="W80" s="3"/>
       <c r="X80" s="3"/>
       <c r="Y80" s="3"/>
-      <c r="Z80" s="3"/>
     </row>
     <row r="81">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="3"/>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
@@ -2738,18 +2630,17 @@
       <c r="W81" s="3"/>
       <c r="X81" s="3"/>
       <c r="Y81" s="3"/>
-      <c r="Z81" s="3"/>
     </row>
     <row r="82">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
+      <c r="D82" s="3"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
@@ -2766,16 +2657,15 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-      <c r="Z82" s="3"/>
     </row>
     <row r="83">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
+      <c r="D83" s="7"/>
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
+      <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
@@ -2794,18 +2684,17 @@
       <c r="W83" s="3"/>
       <c r="X83" s="3"/>
       <c r="Y83" s="3"/>
-      <c r="Z83" s="3"/>
     </row>
     <row r="84">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="6"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
@@ -2822,16 +2711,15 @@
       <c r="W84" s="3"/>
       <c r="X84" s="3"/>
       <c r="Y84" s="3"/>
-      <c r="Z84" s="3"/>
     </row>
     <row r="85">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
+      <c r="D85" s="7"/>
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
+      <c r="G85" s="3"/>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
@@ -2850,18 +2738,17 @@
       <c r="W85" s="3"/>
       <c r="X85" s="3"/>
       <c r="Y85" s="3"/>
-      <c r="Z85" s="3"/>
     </row>
     <row r="86">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
+      <c r="D86" s="7"/>
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="6"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="3"/>
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
@@ -2878,16 +2765,15 @@
       <c r="W86" s="3"/>
       <c r="X86" s="3"/>
       <c r="Y86" s="3"/>
-      <c r="Z86" s="3"/>
     </row>
     <row r="87">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
@@ -2906,18 +2792,17 @@
       <c r="W87" s="3"/>
       <c r="X87" s="3"/>
       <c r="Y87" s="3"/>
-      <c r="Z87" s="3"/>
     </row>
     <row r="88">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
+      <c r="D88" s="3"/>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="3"/>
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
@@ -2934,16 +2819,15 @@
       <c r="W88" s="3"/>
       <c r="X88" s="3"/>
       <c r="Y88" s="3"/>
-      <c r="Z88" s="3"/>
     </row>
     <row r="89">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
+      <c r="D89" s="7"/>
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
+      <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
@@ -2962,18 +2846,17 @@
       <c r="W89" s="3"/>
       <c r="X89" s="3"/>
       <c r="Y89" s="3"/>
-      <c r="Z89" s="3"/>
     </row>
     <row r="90">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="6"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
@@ -2990,15 +2873,14 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-      <c r="Z90" s="3"/>
     </row>
     <row r="91">
       <c r="A91" s="6"/>
-      <c r="B91" s="6"/>
-      <c r="D91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="7"/>
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
+      <c r="G91" s="3"/>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
@@ -3017,18 +2899,17 @@
       <c r="W91" s="3"/>
       <c r="X91" s="3"/>
       <c r="Y91" s="3"/>
-      <c r="Z91" s="3"/>
     </row>
     <row r="92">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
+      <c r="D92" s="7"/>
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="3"/>
-      <c r="I92" s="6"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="3"/>
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
@@ -3045,16 +2926,15 @@
       <c r="W92" s="3"/>
       <c r="X92" s="3"/>
       <c r="Y92" s="3"/>
-      <c r="Z92" s="3"/>
     </row>
     <row r="93">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
@@ -3073,18 +2953,17 @@
       <c r="W93" s="3"/>
       <c r="X93" s="3"/>
       <c r="Y93" s="3"/>
-      <c r="Z93" s="3"/>
     </row>
     <row r="94">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
+      <c r="D94" s="3"/>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
-      <c r="I94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="3"/>
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
@@ -3101,16 +2980,15 @@
       <c r="W94" s="3"/>
       <c r="X94" s="3"/>
       <c r="Y94" s="3"/>
-      <c r="Z94" s="3"/>
     </row>
     <row r="95">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
+      <c r="D95" s="7"/>
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
+      <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
@@ -3129,18 +3007,17 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-      <c r="Z95" s="3"/>
     </row>
     <row r="96">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
+      <c r="D96" s="3"/>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
-      <c r="H96" s="3"/>
-      <c r="I96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="3"/>
       <c r="J96" s="3"/>
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
@@ -3157,16 +3034,15 @@
       <c r="W96" s="3"/>
       <c r="X96" s="3"/>
       <c r="Y96" s="3"/>
-      <c r="Z96" s="3"/>
     </row>
     <row r="97">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
+      <c r="D97" s="7"/>
       <c r="E97" s="7"/>
       <c r="F97" s="7"/>
-      <c r="G97" s="7"/>
+      <c r="G97" s="3"/>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
@@ -3185,18 +3061,17 @@
       <c r="W97" s="3"/>
       <c r="X97" s="3"/>
       <c r="Y97" s="3"/>
-      <c r="Z97" s="3"/>
     </row>
     <row r="98">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
+      <c r="D98" s="3"/>
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="3"/>
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
@@ -3213,16 +3088,15 @@
       <c r="W98" s="3"/>
       <c r="X98" s="3"/>
       <c r="Y98" s="3"/>
-      <c r="Z98" s="3"/>
     </row>
     <row r="99">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
+      <c r="D99" s="7"/>
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
-      <c r="G99" s="7"/>
+      <c r="G99" s="3"/>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
@@ -3241,18 +3115,17 @@
       <c r="W99" s="3"/>
       <c r="X99" s="3"/>
       <c r="Y99" s="3"/>
-      <c r="Z99" s="3"/>
     </row>
     <row r="100">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
+      <c r="D100" s="3"/>
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
-      <c r="H100" s="3"/>
-      <c r="I100" s="6"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="3"/>
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
@@ -3269,16 +3142,15 @@
       <c r="W100" s="3"/>
       <c r="X100" s="3"/>
       <c r="Y100" s="3"/>
-      <c r="Z100" s="3"/>
     </row>
     <row r="101">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
+      <c r="D101" s="7"/>
       <c r="E101" s="7"/>
       <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
+      <c r="G101" s="3"/>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
@@ -3297,18 +3169,17 @@
       <c r="W101" s="3"/>
       <c r="X101" s="3"/>
       <c r="Y101" s="3"/>
-      <c r="Z101" s="3"/>
     </row>
     <row r="102">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
-      <c r="D102" s="6"/>
+      <c r="D102" s="3"/>
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
-      <c r="H102" s="3"/>
-      <c r="I102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="3"/>
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
@@ -3325,16 +3196,15 @@
       <c r="W102" s="3"/>
       <c r="X102" s="3"/>
       <c r="Y102" s="3"/>
-      <c r="Z102" s="3"/>
     </row>
     <row r="103">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
+      <c r="D103" s="7"/>
       <c r="E103" s="7"/>
       <c r="F103" s="7"/>
-      <c r="G103" s="7"/>
+      <c r="G103" s="3"/>
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
@@ -3353,18 +3223,17 @@
       <c r="W103" s="3"/>
       <c r="X103" s="3"/>
       <c r="Y103" s="3"/>
-      <c r="Z103" s="3"/>
     </row>
     <row r="104">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
+      <c r="D104" s="3"/>
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
-      <c r="H104" s="3"/>
-      <c r="I104" s="6"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="3"/>
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
@@ -3381,16 +3250,15 @@
       <c r="W104" s="3"/>
       <c r="X104" s="3"/>
       <c r="Y104" s="3"/>
-      <c r="Z104" s="3"/>
     </row>
     <row r="105">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
+      <c r="D105" s="7"/>
       <c r="E105" s="7"/>
       <c r="F105" s="7"/>
-      <c r="G105" s="7"/>
+      <c r="G105" s="3"/>
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
@@ -3409,18 +3277,17 @@
       <c r="W105" s="3"/>
       <c r="X105" s="3"/>
       <c r="Y105" s="3"/>
-      <c r="Z105" s="3"/>
     </row>
     <row r="106">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
-      <c r="D106" s="6"/>
+      <c r="D106" s="3"/>
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
-      <c r="H106" s="3"/>
-      <c r="I106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="3"/>
       <c r="J106" s="3"/>
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
@@ -3437,16 +3304,15 @@
       <c r="W106" s="3"/>
       <c r="X106" s="3"/>
       <c r="Y106" s="3"/>
-      <c r="Z106" s="3"/>
     </row>
     <row r="107">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
+      <c r="D107" s="7"/>
       <c r="E107" s="7"/>
       <c r="F107" s="7"/>
-      <c r="G107" s="7"/>
+      <c r="G107" s="3"/>
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
@@ -3465,18 +3331,17 @@
       <c r="W107" s="3"/>
       <c r="X107" s="3"/>
       <c r="Y107" s="3"/>
-      <c r="Z107" s="3"/>
     </row>
     <row r="108">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
-      <c r="D108" s="6"/>
+      <c r="D108" s="3"/>
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
-      <c r="H108" s="3"/>
-      <c r="I108" s="6"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="3"/>
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
@@ -3493,16 +3358,15 @@
       <c r="W108" s="3"/>
       <c r="X108" s="3"/>
       <c r="Y108" s="3"/>
-      <c r="Z108" s="3"/>
     </row>
     <row r="109">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
-      <c r="D109" s="3"/>
+      <c r="D109" s="7"/>
       <c r="E109" s="7"/>
       <c r="F109" s="7"/>
-      <c r="G109" s="7"/>
+      <c r="G109" s="3"/>
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
@@ -3521,18 +3385,17 @@
       <c r="W109" s="3"/>
       <c r="X109" s="3"/>
       <c r="Y109" s="3"/>
-      <c r="Z109" s="3"/>
     </row>
     <row r="110">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
-      <c r="D110" s="6"/>
+      <c r="D110" s="3"/>
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
-      <c r="H110" s="3"/>
-      <c r="I110" s="6"/>
+      <c r="H110" s="6"/>
+      <c r="I110" s="3"/>
       <c r="J110" s="3"/>
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
@@ -3549,16 +3412,15 @@
       <c r="W110" s="3"/>
       <c r="X110" s="3"/>
       <c r="Y110" s="3"/>
-      <c r="Z110" s="3"/>
     </row>
     <row r="111">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
-      <c r="D111" s="3"/>
+      <c r="D111" s="7"/>
       <c r="E111" s="7"/>
       <c r="F111" s="7"/>
-      <c r="G111" s="7"/>
+      <c r="G111" s="3"/>
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
@@ -3577,18 +3439,17 @@
       <c r="W111" s="3"/>
       <c r="X111" s="3"/>
       <c r="Y111" s="3"/>
-      <c r="Z111" s="3"/>
     </row>
     <row r="112">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
-      <c r="D112" s="6"/>
+      <c r="D112" s="3"/>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
-      <c r="H112" s="3"/>
-      <c r="I112" s="6"/>
+      <c r="H112" s="6"/>
+      <c r="I112" s="3"/>
       <c r="J112" s="3"/>
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
@@ -3605,16 +3466,15 @@
       <c r="W112" s="3"/>
       <c r="X112" s="3"/>
       <c r="Y112" s="3"/>
-      <c r="Z112" s="3"/>
     </row>
     <row r="113">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
-      <c r="D113" s="3"/>
+      <c r="D113" s="7"/>
       <c r="E113" s="7"/>
       <c r="F113" s="7"/>
-      <c r="G113" s="7"/>
+      <c r="G113" s="3"/>
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
@@ -3633,18 +3493,17 @@
       <c r="W113" s="3"/>
       <c r="X113" s="3"/>
       <c r="Y113" s="3"/>
-      <c r="Z113" s="3"/>
     </row>
     <row r="114">
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
-      <c r="D114" s="6"/>
+      <c r="D114" s="3"/>
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
-      <c r="H114" s="3"/>
-      <c r="I114" s="6"/>
+      <c r="H114" s="6"/>
+      <c r="I114" s="3"/>
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
@@ -3661,16 +3520,15 @@
       <c r="W114" s="3"/>
       <c r="X114" s="3"/>
       <c r="Y114" s="3"/>
-      <c r="Z114" s="3"/>
     </row>
     <row r="115">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
+      <c r="D115" s="7"/>
       <c r="E115" s="7"/>
       <c r="F115" s="7"/>
-      <c r="G115" s="7"/>
+      <c r="G115" s="3"/>
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
@@ -3689,18 +3547,17 @@
       <c r="W115" s="3"/>
       <c r="X115" s="3"/>
       <c r="Y115" s="3"/>
-      <c r="Z115" s="3"/>
     </row>
     <row r="116">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
-      <c r="D116" s="6"/>
+      <c r="D116" s="3"/>
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
-      <c r="H116" s="3"/>
-      <c r="I116" s="6"/>
+      <c r="H116" s="6"/>
+      <c r="I116" s="3"/>
       <c r="J116" s="3"/>
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
@@ -3717,16 +3574,15 @@
       <c r="W116" s="3"/>
       <c r="X116" s="3"/>
       <c r="Y116" s="3"/>
-      <c r="Z116" s="3"/>
     </row>
     <row r="117">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
+      <c r="D117" s="7"/>
       <c r="E117" s="7"/>
       <c r="F117" s="7"/>
-      <c r="G117" s="7"/>
+      <c r="G117" s="3"/>
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
@@ -3745,18 +3601,17 @@
       <c r="W117" s="3"/>
       <c r="X117" s="3"/>
       <c r="Y117" s="3"/>
-      <c r="Z117" s="3"/>
     </row>
     <row r="118">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
-      <c r="D118" s="6"/>
+      <c r="D118" s="3"/>
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
-      <c r="H118" s="3"/>
-      <c r="I118" s="6"/>
+      <c r="H118" s="6"/>
+      <c r="I118" s="3"/>
       <c r="J118" s="3"/>
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
@@ -3773,16 +3628,15 @@
       <c r="W118" s="3"/>
       <c r="X118" s="3"/>
       <c r="Y118" s="3"/>
-      <c r="Z118" s="3"/>
     </row>
     <row r="119">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
-      <c r="D119" s="3"/>
+      <c r="D119" s="7"/>
       <c r="E119" s="7"/>
       <c r="F119" s="7"/>
-      <c r="G119" s="7"/>
+      <c r="G119" s="3"/>
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
@@ -3801,18 +3655,17 @@
       <c r="W119" s="3"/>
       <c r="X119" s="3"/>
       <c r="Y119" s="3"/>
-      <c r="Z119" s="3"/>
     </row>
     <row r="120">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
-      <c r="D120" s="6"/>
+      <c r="D120" s="3"/>
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
-      <c r="H120" s="3"/>
-      <c r="I120" s="6"/>
+      <c r="H120" s="6"/>
+      <c r="I120" s="3"/>
       <c r="J120" s="3"/>
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
@@ -3829,16 +3682,15 @@
       <c r="W120" s="3"/>
       <c r="X120" s="3"/>
       <c r="Y120" s="3"/>
-      <c r="Z120" s="3"/>
     </row>
     <row r="121">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
-      <c r="D121" s="3"/>
+      <c r="D121" s="7"/>
       <c r="E121" s="7"/>
       <c r="F121" s="7"/>
-      <c r="G121" s="7"/>
+      <c r="G121" s="3"/>
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
@@ -3857,18 +3709,17 @@
       <c r="W121" s="3"/>
       <c r="X121" s="3"/>
       <c r="Y121" s="3"/>
-      <c r="Z121" s="3"/>
     </row>
     <row r="122">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
-      <c r="D122" s="6"/>
+      <c r="D122" s="3"/>
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
-      <c r="H122" s="3"/>
-      <c r="I122" s="6"/>
+      <c r="H122" s="6"/>
+      <c r="I122" s="3"/>
       <c r="J122" s="3"/>
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
@@ -3885,16 +3736,15 @@
       <c r="W122" s="3"/>
       <c r="X122" s="3"/>
       <c r="Y122" s="3"/>
-      <c r="Z122" s="3"/>
     </row>
     <row r="123">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
-      <c r="D123" s="3"/>
+      <c r="D123" s="7"/>
       <c r="E123" s="7"/>
       <c r="F123" s="7"/>
-      <c r="G123" s="7"/>
+      <c r="G123" s="3"/>
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
@@ -3913,18 +3763,17 @@
       <c r="W123" s="3"/>
       <c r="X123" s="3"/>
       <c r="Y123" s="3"/>
-      <c r="Z123" s="3"/>
     </row>
     <row r="124">
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
-      <c r="D124" s="6"/>
+      <c r="D124" s="3"/>
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
-      <c r="H124" s="3"/>
-      <c r="I124" s="6"/>
+      <c r="H124" s="6"/>
+      <c r="I124" s="3"/>
       <c r="J124" s="3"/>
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
@@ -3941,16 +3790,15 @@
       <c r="W124" s="3"/>
       <c r="X124" s="3"/>
       <c r="Y124" s="3"/>
-      <c r="Z124" s="3"/>
     </row>
     <row r="125">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
-      <c r="D125" s="3"/>
+      <c r="D125" s="7"/>
       <c r="E125" s="7"/>
       <c r="F125" s="7"/>
-      <c r="G125" s="7"/>
+      <c r="G125" s="3"/>
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
@@ -3969,18 +3817,17 @@
       <c r="W125" s="3"/>
       <c r="X125" s="3"/>
       <c r="Y125" s="3"/>
-      <c r="Z125" s="3"/>
     </row>
     <row r="126">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
-      <c r="D126" s="6"/>
+      <c r="D126" s="3"/>
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
-      <c r="H126" s="3"/>
-      <c r="I126" s="6"/>
+      <c r="H126" s="6"/>
+      <c r="I126" s="3"/>
       <c r="J126" s="3"/>
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
@@ -3997,16 +3844,15 @@
       <c r="W126" s="3"/>
       <c r="X126" s="3"/>
       <c r="Y126" s="3"/>
-      <c r="Z126" s="3"/>
     </row>
     <row r="127">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
-      <c r="D127" s="3"/>
+      <c r="D127" s="7"/>
       <c r="E127" s="7"/>
       <c r="F127" s="7"/>
-      <c r="G127" s="7"/>
+      <c r="G127" s="3"/>
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
@@ -4025,18 +3871,17 @@
       <c r="W127" s="3"/>
       <c r="X127" s="3"/>
       <c r="Y127" s="3"/>
-      <c r="Z127" s="3"/>
     </row>
     <row r="128">
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
-      <c r="D128" s="6"/>
+      <c r="D128" s="3"/>
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
-      <c r="H128" s="3"/>
-      <c r="I128" s="6"/>
+      <c r="H128" s="6"/>
+      <c r="I128" s="3"/>
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
@@ -4053,16 +3898,15 @@
       <c r="W128" s="3"/>
       <c r="X128" s="3"/>
       <c r="Y128" s="3"/>
-      <c r="Z128" s="3"/>
     </row>
     <row r="129">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
-      <c r="D129" s="3"/>
+      <c r="D129" s="7"/>
       <c r="E129" s="7"/>
       <c r="F129" s="7"/>
-      <c r="G129" s="7"/>
+      <c r="G129" s="3"/>
       <c r="H129" s="3"/>
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
@@ -4081,18 +3925,17 @@
       <c r="W129" s="3"/>
       <c r="X129" s="3"/>
       <c r="Y129" s="3"/>
-      <c r="Z129" s="3"/>
     </row>
     <row r="130">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
-      <c r="D130" s="6"/>
+      <c r="D130" s="3"/>
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
-      <c r="H130" s="3"/>
-      <c r="I130" s="6"/>
+      <c r="H130" s="6"/>
+      <c r="I130" s="3"/>
       <c r="J130" s="3"/>
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
@@ -4109,16 +3952,15 @@
       <c r="W130" s="3"/>
       <c r="X130" s="3"/>
       <c r="Y130" s="3"/>
-      <c r="Z130" s="3"/>
     </row>
     <row r="131">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
-      <c r="D131" s="3"/>
+      <c r="D131" s="7"/>
       <c r="E131" s="7"/>
       <c r="F131" s="7"/>
-      <c r="G131" s="7"/>
+      <c r="G131" s="3"/>
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
@@ -4137,18 +3979,17 @@
       <c r="W131" s="3"/>
       <c r="X131" s="3"/>
       <c r="Y131" s="3"/>
-      <c r="Z131" s="3"/>
     </row>
     <row r="132">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
-      <c r="D132" s="6"/>
+      <c r="D132" s="3"/>
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
-      <c r="H132" s="3"/>
-      <c r="I132" s="6"/>
+      <c r="H132" s="6"/>
+      <c r="I132" s="3"/>
       <c r="J132" s="3"/>
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
@@ -4165,16 +4006,15 @@
       <c r="W132" s="3"/>
       <c r="X132" s="3"/>
       <c r="Y132" s="3"/>
-      <c r="Z132" s="3"/>
     </row>
     <row r="133">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
-      <c r="D133" s="3"/>
+      <c r="D133" s="7"/>
       <c r="E133" s="7"/>
       <c r="F133" s="7"/>
-      <c r="G133" s="7"/>
+      <c r="G133" s="3"/>
       <c r="H133" s="3"/>
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
@@ -4193,17 +4033,16 @@
       <c r="W133" s="3"/>
       <c r="X133" s="3"/>
       <c r="Y133" s="3"/>
-      <c r="Z133" s="3"/>
     </row>
     <row r="134">
       <c r="A134" s="6"/>
-      <c r="B134" s="6"/>
-      <c r="D134" s="6"/>
+      <c r="C134" s="6"/>
+      <c r="D134" s="3"/>
       <c r="E134" s="3"/>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
-      <c r="H134" s="3"/>
-      <c r="I134" s="6"/>
+      <c r="H134" s="6"/>
+      <c r="I134" s="3"/>
       <c r="J134" s="3"/>
       <c r="K134" s="3"/>
       <c r="L134" s="3"/>
@@ -4220,16 +4059,15 @@
       <c r="W134" s="3"/>
       <c r="X134" s="3"/>
       <c r="Y134" s="3"/>
-      <c r="Z134" s="3"/>
     </row>
     <row r="135">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
-      <c r="D135" s="3"/>
+      <c r="D135" s="7"/>
       <c r="E135" s="7"/>
       <c r="F135" s="7"/>
-      <c r="G135" s="7"/>
+      <c r="G135" s="3"/>
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
       <c r="J135" s="3"/>
@@ -4248,18 +4086,17 @@
       <c r="W135" s="3"/>
       <c r="X135" s="3"/>
       <c r="Y135" s="3"/>
-      <c r="Z135" s="3"/>
     </row>
     <row r="136">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
-      <c r="D136" s="6"/>
+      <c r="D136" s="3"/>
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
-      <c r="H136" s="3"/>
-      <c r="I136" s="6"/>
+      <c r="H136" s="6"/>
+      <c r="I136" s="3"/>
       <c r="J136" s="3"/>
       <c r="K136" s="3"/>
       <c r="L136" s="3"/>
@@ -4276,16 +4113,15 @@
       <c r="W136" s="3"/>
       <c r="X136" s="3"/>
       <c r="Y136" s="3"/>
-      <c r="Z136" s="3"/>
     </row>
     <row r="137">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
-      <c r="D137" s="3"/>
+      <c r="D137" s="7"/>
       <c r="E137" s="7"/>
       <c r="F137" s="7"/>
-      <c r="G137" s="7"/>
+      <c r="G137" s="3"/>
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
@@ -4304,18 +4140,17 @@
       <c r="W137" s="3"/>
       <c r="X137" s="3"/>
       <c r="Y137" s="3"/>
-      <c r="Z137" s="3"/>
     </row>
     <row r="138">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
-      <c r="D138" s="6"/>
+      <c r="D138" s="3"/>
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
-      <c r="H138" s="3"/>
-      <c r="I138" s="6"/>
+      <c r="H138" s="6"/>
+      <c r="I138" s="3"/>
       <c r="J138" s="3"/>
       <c r="K138" s="3"/>
       <c r="L138" s="3"/>
@@ -4332,16 +4167,15 @@
       <c r="W138" s="3"/>
       <c r="X138" s="3"/>
       <c r="Y138" s="3"/>
-      <c r="Z138" s="3"/>
     </row>
     <row r="139">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
-      <c r="D139" s="3"/>
+      <c r="D139" s="7"/>
       <c r="E139" s="7"/>
       <c r="F139" s="7"/>
-      <c r="G139" s="7"/>
+      <c r="G139" s="3"/>
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
@@ -4360,18 +4194,17 @@
       <c r="W139" s="3"/>
       <c r="X139" s="3"/>
       <c r="Y139" s="3"/>
-      <c r="Z139" s="3"/>
     </row>
     <row r="140">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
-      <c r="D140" s="6"/>
+      <c r="D140" s="3"/>
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
-      <c r="H140" s="3"/>
-      <c r="I140" s="6"/>
+      <c r="H140" s="6"/>
+      <c r="I140" s="3"/>
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
       <c r="L140" s="3"/>
@@ -4388,16 +4221,15 @@
       <c r="W140" s="3"/>
       <c r="X140" s="3"/>
       <c r="Y140" s="3"/>
-      <c r="Z140" s="3"/>
     </row>
     <row r="141">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
-      <c r="D141" s="3"/>
+      <c r="D141" s="7"/>
       <c r="E141" s="7"/>
       <c r="F141" s="7"/>
-      <c r="G141" s="7"/>
+      <c r="G141" s="3"/>
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
@@ -4416,18 +4248,17 @@
       <c r="W141" s="3"/>
       <c r="X141" s="3"/>
       <c r="Y141" s="3"/>
-      <c r="Z141" s="3"/>
     </row>
     <row r="142">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
-      <c r="D142" s="6"/>
+      <c r="D142" s="3"/>
       <c r="E142" s="3"/>
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
-      <c r="H142" s="3"/>
-      <c r="I142" s="6"/>
+      <c r="H142" s="6"/>
+      <c r="I142" s="3"/>
       <c r="J142" s="3"/>
       <c r="K142" s="3"/>
       <c r="L142" s="3"/>
@@ -4444,16 +4275,15 @@
       <c r="W142" s="3"/>
       <c r="X142" s="3"/>
       <c r="Y142" s="3"/>
-      <c r="Z142" s="3"/>
     </row>
     <row r="143">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
-      <c r="D143" s="3"/>
+      <c r="D143" s="7"/>
       <c r="E143" s="7"/>
       <c r="F143" s="7"/>
-      <c r="G143" s="7"/>
+      <c r="G143" s="3"/>
       <c r="H143" s="3"/>
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
@@ -4472,18 +4302,17 @@
       <c r="W143" s="3"/>
       <c r="X143" s="3"/>
       <c r="Y143" s="3"/>
-      <c r="Z143" s="3"/>
     </row>
     <row r="144">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
-      <c r="D144" s="6"/>
+      <c r="D144" s="3"/>
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
-      <c r="H144" s="3"/>
-      <c r="I144" s="6"/>
+      <c r="H144" s="6"/>
+      <c r="I144" s="3"/>
       <c r="J144" s="3"/>
       <c r="K144" s="3"/>
       <c r="L144" s="3"/>
@@ -4500,16 +4329,15 @@
       <c r="W144" s="3"/>
       <c r="X144" s="3"/>
       <c r="Y144" s="3"/>
-      <c r="Z144" s="3"/>
     </row>
     <row r="145">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
-      <c r="D145" s="3"/>
+      <c r="D145" s="7"/>
       <c r="E145" s="7"/>
       <c r="F145" s="7"/>
-      <c r="G145" s="7"/>
+      <c r="G145" s="3"/>
       <c r="H145" s="3"/>
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
@@ -4528,7 +4356,6 @@
       <c r="W145" s="3"/>
       <c r="X145" s="3"/>
       <c r="Y145" s="3"/>
-      <c r="Z145" s="3"/>
     </row>
     <row r="146">
       <c r="A146" s="3"/>
@@ -4538,8 +4365,8 @@
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
-      <c r="H146" s="3"/>
-      <c r="I146" s="6"/>
+      <c r="H146" s="6"/>
+      <c r="I146" s="3"/>
       <c r="J146" s="3"/>
       <c r="K146" s="3"/>
       <c r="L146" s="3"/>
@@ -4556,7 +4383,6 @@
       <c r="W146" s="3"/>
       <c r="X146" s="3"/>
       <c r="Y146" s="3"/>
-      <c r="Z146" s="3"/>
     </row>
     <row r="147">
       <c r="A147" s="3"/>
@@ -4584,7 +4410,6 @@
       <c r="W147" s="3"/>
       <c r="X147" s="3"/>
       <c r="Y147" s="3"/>
-      <c r="Z147" s="3"/>
     </row>
     <row r="148">
       <c r="A148" s="3"/>
@@ -4612,7 +4437,6 @@
       <c r="W148" s="3"/>
       <c r="X148" s="3"/>
       <c r="Y148" s="3"/>
-      <c r="Z148" s="3"/>
     </row>
     <row r="149">
       <c r="A149" s="3"/>
@@ -4640,7 +4464,6 @@
       <c r="W149" s="3"/>
       <c r="X149" s="3"/>
       <c r="Y149" s="3"/>
-      <c r="Z149" s="3"/>
     </row>
     <row r="150">
       <c r="A150" s="3"/>
@@ -4668,7 +4491,6 @@
       <c r="W150" s="3"/>
       <c r="X150" s="3"/>
       <c r="Y150" s="3"/>
-      <c r="Z150" s="3"/>
     </row>
     <row r="151">
       <c r="A151" s="3"/>
@@ -4696,7 +4518,6 @@
       <c r="W151" s="3"/>
       <c r="X151" s="3"/>
       <c r="Y151" s="3"/>
-      <c r="Z151" s="3"/>
     </row>
     <row r="152">
       <c r="A152" s="3"/>
@@ -4724,7 +4545,6 @@
       <c r="W152" s="3"/>
       <c r="X152" s="3"/>
       <c r="Y152" s="3"/>
-      <c r="Z152" s="3"/>
     </row>
     <row r="153">
       <c r="A153" s="3"/>
@@ -4752,7 +4572,6 @@
       <c r="W153" s="3"/>
       <c r="X153" s="3"/>
       <c r="Y153" s="3"/>
-      <c r="Z153" s="3"/>
     </row>
     <row r="154">
       <c r="A154" s="3"/>
@@ -4780,7 +4599,6 @@
       <c r="W154" s="3"/>
       <c r="X154" s="3"/>
       <c r="Y154" s="3"/>
-      <c r="Z154" s="3"/>
     </row>
     <row r="155">
       <c r="A155" s="3"/>
@@ -4808,7 +4626,6 @@
       <c r="W155" s="3"/>
       <c r="X155" s="3"/>
       <c r="Y155" s="3"/>
-      <c r="Z155" s="3"/>
     </row>
     <row r="156">
       <c r="A156" s="3"/>
@@ -4836,7 +4653,6 @@
       <c r="W156" s="3"/>
       <c r="X156" s="3"/>
       <c r="Y156" s="3"/>
-      <c r="Z156" s="3"/>
     </row>
     <row r="157">
       <c r="A157" s="3"/>
@@ -4864,7 +4680,6 @@
       <c r="W157" s="3"/>
       <c r="X157" s="3"/>
       <c r="Y157" s="3"/>
-      <c r="Z157" s="3"/>
     </row>
     <row r="158">
       <c r="A158" s="3"/>
@@ -4892,7 +4707,6 @@
       <c r="W158" s="3"/>
       <c r="X158" s="3"/>
       <c r="Y158" s="3"/>
-      <c r="Z158" s="3"/>
     </row>
     <row r="159">
       <c r="A159" s="3"/>
@@ -4920,7 +4734,6 @@
       <c r="W159" s="3"/>
       <c r="X159" s="3"/>
       <c r="Y159" s="3"/>
-      <c r="Z159" s="3"/>
     </row>
     <row r="160">
       <c r="A160" s="3"/>
@@ -4948,7 +4761,6 @@
       <c r="W160" s="3"/>
       <c r="X160" s="3"/>
       <c r="Y160" s="3"/>
-      <c r="Z160" s="3"/>
     </row>
     <row r="161">
       <c r="A161" s="3"/>
@@ -4976,7 +4788,6 @@
       <c r="W161" s="3"/>
       <c r="X161" s="3"/>
       <c r="Y161" s="3"/>
-      <c r="Z161" s="3"/>
     </row>
     <row r="162">
       <c r="A162" s="3"/>
@@ -5004,7 +4815,6 @@
       <c r="W162" s="3"/>
       <c r="X162" s="3"/>
       <c r="Y162" s="3"/>
-      <c r="Z162" s="3"/>
     </row>
     <row r="163">
       <c r="A163" s="3"/>
@@ -5032,7 +4842,6 @@
       <c r="W163" s="3"/>
       <c r="X163" s="3"/>
       <c r="Y163" s="3"/>
-      <c r="Z163" s="3"/>
     </row>
     <row r="164">
       <c r="A164" s="3"/>
@@ -5060,7 +4869,6 @@
       <c r="W164" s="3"/>
       <c r="X164" s="3"/>
       <c r="Y164" s="3"/>
-      <c r="Z164" s="3"/>
     </row>
     <row r="165">
       <c r="A165" s="3"/>
@@ -5088,7 +4896,6 @@
       <c r="W165" s="3"/>
       <c r="X165" s="3"/>
       <c r="Y165" s="3"/>
-      <c r="Z165" s="3"/>
     </row>
     <row r="166">
       <c r="A166" s="3"/>
@@ -5116,7 +4923,6 @@
       <c r="W166" s="3"/>
       <c r="X166" s="3"/>
       <c r="Y166" s="3"/>
-      <c r="Z166" s="3"/>
     </row>
     <row r="167">
       <c r="A167" s="3"/>
@@ -5144,7 +4950,6 @@
       <c r="W167" s="3"/>
       <c r="X167" s="3"/>
       <c r="Y167" s="3"/>
-      <c r="Z167" s="3"/>
     </row>
     <row r="168">
       <c r="A168" s="3"/>
@@ -5172,7 +4977,6 @@
       <c r="W168" s="3"/>
       <c r="X168" s="3"/>
       <c r="Y168" s="3"/>
-      <c r="Z168" s="3"/>
     </row>
     <row r="169">
       <c r="A169" s="3"/>
@@ -5200,7 +5004,6 @@
       <c r="W169" s="3"/>
       <c r="X169" s="3"/>
       <c r="Y169" s="3"/>
-      <c r="Z169" s="3"/>
     </row>
     <row r="170">
       <c r="A170" s="3"/>
@@ -5228,7 +5031,6 @@
       <c r="W170" s="3"/>
       <c r="X170" s="3"/>
       <c r="Y170" s="3"/>
-      <c r="Z170" s="3"/>
     </row>
     <row r="171">
       <c r="A171" s="3"/>
@@ -5256,7 +5058,6 @@
       <c r="W171" s="3"/>
       <c r="X171" s="3"/>
       <c r="Y171" s="3"/>
-      <c r="Z171" s="3"/>
     </row>
     <row r="172">
       <c r="A172" s="3"/>
@@ -5284,7 +5085,6 @@
       <c r="W172" s="3"/>
       <c r="X172" s="3"/>
       <c r="Y172" s="3"/>
-      <c r="Z172" s="3"/>
     </row>
     <row r="173">
       <c r="A173" s="3"/>
@@ -5312,7 +5112,6 @@
       <c r="W173" s="3"/>
       <c r="X173" s="3"/>
       <c r="Y173" s="3"/>
-      <c r="Z173" s="3"/>
     </row>
     <row r="174">
       <c r="A174" s="3"/>
@@ -5340,7 +5139,6 @@
       <c r="W174" s="3"/>
       <c r="X174" s="3"/>
       <c r="Y174" s="3"/>
-      <c r="Z174" s="3"/>
     </row>
     <row r="175">
       <c r="A175" s="3"/>
@@ -5368,7 +5166,6 @@
       <c r="W175" s="3"/>
       <c r="X175" s="3"/>
       <c r="Y175" s="3"/>
-      <c r="Z175" s="3"/>
     </row>
     <row r="176">
       <c r="A176" s="3"/>
@@ -5396,7 +5193,6 @@
       <c r="W176" s="3"/>
       <c r="X176" s="3"/>
       <c r="Y176" s="3"/>
-      <c r="Z176" s="3"/>
     </row>
     <row r="177">
       <c r="A177" s="3"/>
@@ -5424,7 +5220,6 @@
       <c r="W177" s="3"/>
       <c r="X177" s="3"/>
       <c r="Y177" s="3"/>
-      <c r="Z177" s="3"/>
     </row>
     <row r="178">
       <c r="A178" s="3"/>
@@ -5452,7 +5247,6 @@
       <c r="W178" s="3"/>
       <c r="X178" s="3"/>
       <c r="Y178" s="3"/>
-      <c r="Z178" s="3"/>
     </row>
     <row r="179">
       <c r="A179" s="3"/>
@@ -5480,7 +5274,6 @@
       <c r="W179" s="3"/>
       <c r="X179" s="3"/>
       <c r="Y179" s="3"/>
-      <c r="Z179" s="3"/>
     </row>
     <row r="180">
       <c r="A180" s="3"/>
@@ -5508,7 +5301,6 @@
       <c r="W180" s="3"/>
       <c r="X180" s="3"/>
       <c r="Y180" s="3"/>
-      <c r="Z180" s="3"/>
     </row>
     <row r="181">
       <c r="A181" s="3"/>
@@ -5536,7 +5328,6 @@
       <c r="W181" s="3"/>
       <c r="X181" s="3"/>
       <c r="Y181" s="3"/>
-      <c r="Z181" s="3"/>
     </row>
     <row r="182">
       <c r="A182" s="3"/>
@@ -5564,7 +5355,6 @@
       <c r="W182" s="3"/>
       <c r="X182" s="3"/>
       <c r="Y182" s="3"/>
-      <c r="Z182" s="3"/>
     </row>
     <row r="183">
       <c r="A183" s="3"/>
@@ -5592,7 +5382,6 @@
       <c r="W183" s="3"/>
       <c r="X183" s="3"/>
       <c r="Y183" s="3"/>
-      <c r="Z183" s="3"/>
     </row>
     <row r="184">
       <c r="A184" s="3"/>
@@ -5620,7 +5409,6 @@
       <c r="W184" s="3"/>
       <c r="X184" s="3"/>
       <c r="Y184" s="3"/>
-      <c r="Z184" s="3"/>
     </row>
     <row r="185">
       <c r="A185" s="3"/>
@@ -5648,7 +5436,6 @@
       <c r="W185" s="3"/>
       <c r="X185" s="3"/>
       <c r="Y185" s="3"/>
-      <c r="Z185" s="3"/>
     </row>
     <row r="186">
       <c r="A186" s="3"/>
@@ -5676,7 +5463,6 @@
       <c r="W186" s="3"/>
       <c r="X186" s="3"/>
       <c r="Y186" s="3"/>
-      <c r="Z186" s="3"/>
     </row>
     <row r="187">
       <c r="A187" s="3"/>
@@ -5704,7 +5490,6 @@
       <c r="W187" s="3"/>
       <c r="X187" s="3"/>
       <c r="Y187" s="3"/>
-      <c r="Z187" s="3"/>
     </row>
     <row r="188">
       <c r="A188" s="3"/>
@@ -5732,7 +5517,6 @@
       <c r="W188" s="3"/>
       <c r="X188" s="3"/>
       <c r="Y188" s="3"/>
-      <c r="Z188" s="3"/>
     </row>
     <row r="189">
       <c r="A189" s="3"/>
@@ -5760,7 +5544,6 @@
       <c r="W189" s="3"/>
       <c r="X189" s="3"/>
       <c r="Y189" s="3"/>
-      <c r="Z189" s="3"/>
     </row>
     <row r="190">
       <c r="A190" s="3"/>
@@ -5788,7 +5571,6 @@
       <c r="W190" s="3"/>
       <c r="X190" s="3"/>
       <c r="Y190" s="3"/>
-      <c r="Z190" s="3"/>
     </row>
     <row r="191">
       <c r="A191" s="3"/>
@@ -5816,7 +5598,6 @@
       <c r="W191" s="3"/>
       <c r="X191" s="3"/>
       <c r="Y191" s="3"/>
-      <c r="Z191" s="3"/>
     </row>
     <row r="192">
       <c r="A192" s="3"/>
@@ -5844,7 +5625,6 @@
       <c r="W192" s="3"/>
       <c r="X192" s="3"/>
       <c r="Y192" s="3"/>
-      <c r="Z192" s="3"/>
     </row>
     <row r="193">
       <c r="A193" s="3"/>
@@ -5872,7 +5652,6 @@
       <c r="W193" s="3"/>
       <c r="X193" s="3"/>
       <c r="Y193" s="3"/>
-      <c r="Z193" s="3"/>
     </row>
     <row r="194">
       <c r="A194" s="3"/>
@@ -5900,7 +5679,6 @@
       <c r="W194" s="3"/>
       <c r="X194" s="3"/>
       <c r="Y194" s="3"/>
-      <c r="Z194" s="3"/>
     </row>
     <row r="195">
       <c r="A195" s="3"/>
@@ -5928,7 +5706,6 @@
       <c r="W195" s="3"/>
       <c r="X195" s="3"/>
       <c r="Y195" s="3"/>
-      <c r="Z195" s="3"/>
     </row>
     <row r="196">
       <c r="A196" s="3"/>
@@ -5956,7 +5733,6 @@
       <c r="W196" s="3"/>
       <c r="X196" s="3"/>
       <c r="Y196" s="3"/>
-      <c r="Z196" s="3"/>
     </row>
     <row r="197">
       <c r="A197" s="3"/>
@@ -5984,7 +5760,6 @@
       <c r="W197" s="3"/>
       <c r="X197" s="3"/>
       <c r="Y197" s="3"/>
-      <c r="Z197" s="3"/>
     </row>
     <row r="198">
       <c r="A198" s="3"/>
@@ -6012,7 +5787,6 @@
       <c r="W198" s="3"/>
       <c r="X198" s="3"/>
       <c r="Y198" s="3"/>
-      <c r="Z198" s="3"/>
     </row>
     <row r="199">
       <c r="A199" s="3"/>
@@ -6040,7 +5814,6 @@
       <c r="W199" s="3"/>
       <c r="X199" s="3"/>
       <c r="Y199" s="3"/>
-      <c r="Z199" s="3"/>
     </row>
     <row r="200">
       <c r="A200" s="3"/>
@@ -6068,7 +5841,6 @@
       <c r="W200" s="3"/>
       <c r="X200" s="3"/>
       <c r="Y200" s="3"/>
-      <c r="Z200" s="3"/>
     </row>
     <row r="201">
       <c r="A201" s="3"/>
@@ -6096,7 +5868,6 @@
       <c r="W201" s="3"/>
       <c r="X201" s="3"/>
       <c r="Y201" s="3"/>
-      <c r="Z201" s="3"/>
     </row>
     <row r="202">
       <c r="A202" s="3"/>
@@ -6124,7 +5895,6 @@
       <c r="W202" s="3"/>
       <c r="X202" s="3"/>
       <c r="Y202" s="3"/>
-      <c r="Z202" s="3"/>
     </row>
     <row r="203">
       <c r="A203" s="3"/>
@@ -6152,7 +5922,6 @@
       <c r="W203" s="3"/>
       <c r="X203" s="3"/>
       <c r="Y203" s="3"/>
-      <c r="Z203" s="3"/>
     </row>
     <row r="204">
       <c r="A204" s="3"/>
@@ -6180,7 +5949,6 @@
       <c r="W204" s="3"/>
       <c r="X204" s="3"/>
       <c r="Y204" s="3"/>
-      <c r="Z204" s="3"/>
     </row>
     <row r="205">
       <c r="A205" s="3"/>
@@ -6208,7 +5976,6 @@
       <c r="W205" s="3"/>
       <c r="X205" s="3"/>
       <c r="Y205" s="3"/>
-      <c r="Z205" s="3"/>
     </row>
     <row r="206">
       <c r="A206" s="3"/>
@@ -6236,7 +6003,6 @@
       <c r="W206" s="3"/>
       <c r="X206" s="3"/>
       <c r="Y206" s="3"/>
-      <c r="Z206" s="3"/>
     </row>
     <row r="207">
       <c r="A207" s="3"/>
@@ -6264,7 +6030,6 @@
       <c r="W207" s="3"/>
       <c r="X207" s="3"/>
       <c r="Y207" s="3"/>
-      <c r="Z207" s="3"/>
     </row>
     <row r="208">
       <c r="A208" s="3"/>
@@ -6292,7 +6057,6 @@
       <c r="W208" s="3"/>
       <c r="X208" s="3"/>
       <c r="Y208" s="3"/>
-      <c r="Z208" s="3"/>
     </row>
     <row r="209">
       <c r="A209" s="3"/>
@@ -6320,7 +6084,6 @@
       <c r="W209" s="3"/>
       <c r="X209" s="3"/>
       <c r="Y209" s="3"/>
-      <c r="Z209" s="3"/>
     </row>
     <row r="210">
       <c r="A210" s="3"/>
@@ -6348,7 +6111,6 @@
       <c r="W210" s="3"/>
       <c r="X210" s="3"/>
       <c r="Y210" s="3"/>
-      <c r="Z210" s="3"/>
     </row>
     <row r="211">
       <c r="A211" s="3"/>
@@ -6376,7 +6138,6 @@
       <c r="W211" s="3"/>
       <c r="X211" s="3"/>
       <c r="Y211" s="3"/>
-      <c r="Z211" s="3"/>
     </row>
     <row r="212">
       <c r="A212" s="3"/>
@@ -6404,7 +6165,6 @@
       <c r="W212" s="3"/>
       <c r="X212" s="3"/>
       <c r="Y212" s="3"/>
-      <c r="Z212" s="3"/>
     </row>
     <row r="213">
       <c r="A213" s="3"/>
@@ -6432,7 +6192,6 @@
       <c r="W213" s="3"/>
       <c r="X213" s="3"/>
       <c r="Y213" s="3"/>
-      <c r="Z213" s="3"/>
     </row>
     <row r="214">
       <c r="A214" s="3"/>
@@ -6460,7 +6219,6 @@
       <c r="W214" s="3"/>
       <c r="X214" s="3"/>
       <c r="Y214" s="3"/>
-      <c r="Z214" s="3"/>
     </row>
     <row r="215">
       <c r="A215" s="3"/>
@@ -6488,7 +6246,6 @@
       <c r="W215" s="3"/>
       <c r="X215" s="3"/>
       <c r="Y215" s="3"/>
-      <c r="Z215" s="3"/>
     </row>
     <row r="216">
       <c r="A216" s="3"/>
@@ -6516,7 +6273,6 @@
       <c r="W216" s="3"/>
       <c r="X216" s="3"/>
       <c r="Y216" s="3"/>
-      <c r="Z216" s="3"/>
     </row>
     <row r="217">
       <c r="A217" s="3"/>
@@ -6544,7 +6300,6 @@
       <c r="W217" s="3"/>
       <c r="X217" s="3"/>
       <c r="Y217" s="3"/>
-      <c r="Z217" s="3"/>
     </row>
     <row r="218">
       <c r="A218" s="3"/>
@@ -6572,7 +6327,6 @@
       <c r="W218" s="3"/>
       <c r="X218" s="3"/>
       <c r="Y218" s="3"/>
-      <c r="Z218" s="3"/>
     </row>
     <row r="219">
       <c r="A219" s="3"/>
@@ -6600,7 +6354,6 @@
       <c r="W219" s="3"/>
       <c r="X219" s="3"/>
       <c r="Y219" s="3"/>
-      <c r="Z219" s="3"/>
     </row>
     <row r="220">
       <c r="A220" s="3"/>
@@ -6628,7 +6381,6 @@
       <c r="W220" s="3"/>
       <c r="X220" s="3"/>
       <c r="Y220" s="3"/>
-      <c r="Z220" s="3"/>
     </row>
     <row r="221">
       <c r="A221" s="3"/>
@@ -6656,7 +6408,6 @@
       <c r="W221" s="3"/>
       <c r="X221" s="3"/>
       <c r="Y221" s="3"/>
-      <c r="Z221" s="3"/>
     </row>
     <row r="222">
       <c r="A222" s="3"/>
@@ -6684,7 +6435,6 @@
       <c r="W222" s="3"/>
       <c r="X222" s="3"/>
       <c r="Y222" s="3"/>
-      <c r="Z222" s="3"/>
     </row>
     <row r="223">
       <c r="A223" s="3"/>
@@ -6712,7 +6462,6 @@
       <c r="W223" s="3"/>
       <c r="X223" s="3"/>
       <c r="Y223" s="3"/>
-      <c r="Z223" s="3"/>
     </row>
     <row r="224">
       <c r="A224" s="3"/>
@@ -6740,7 +6489,6 @@
       <c r="W224" s="3"/>
       <c r="X224" s="3"/>
       <c r="Y224" s="3"/>
-      <c r="Z224" s="3"/>
     </row>
     <row r="225">
       <c r="A225" s="3"/>
@@ -6768,7 +6516,6 @@
       <c r="W225" s="3"/>
       <c r="X225" s="3"/>
       <c r="Y225" s="3"/>
-      <c r="Z225" s="3"/>
     </row>
     <row r="226">
       <c r="A226" s="3"/>
@@ -6796,7 +6543,6 @@
       <c r="W226" s="3"/>
       <c r="X226" s="3"/>
       <c r="Y226" s="3"/>
-      <c r="Z226" s="3"/>
     </row>
     <row r="227">
       <c r="A227" s="3"/>
@@ -6824,7 +6570,6 @@
       <c r="W227" s="3"/>
       <c r="X227" s="3"/>
       <c r="Y227" s="3"/>
-      <c r="Z227" s="3"/>
     </row>
     <row r="228">
       <c r="A228" s="3"/>
@@ -6852,7 +6597,6 @@
       <c r="W228" s="3"/>
       <c r="X228" s="3"/>
       <c r="Y228" s="3"/>
-      <c r="Z228" s="3"/>
     </row>
     <row r="229">
       <c r="A229" s="3"/>
@@ -6880,7 +6624,6 @@
       <c r="W229" s="3"/>
       <c r="X229" s="3"/>
       <c r="Y229" s="3"/>
-      <c r="Z229" s="3"/>
     </row>
     <row r="230">
       <c r="A230" s="3"/>
@@ -6908,7 +6651,6 @@
       <c r="W230" s="3"/>
       <c r="X230" s="3"/>
       <c r="Y230" s="3"/>
-      <c r="Z230" s="3"/>
     </row>
     <row r="231">
       <c r="A231" s="3"/>
@@ -6936,7 +6678,6 @@
       <c r="W231" s="3"/>
       <c r="X231" s="3"/>
       <c r="Y231" s="3"/>
-      <c r="Z231" s="3"/>
     </row>
     <row r="232">
       <c r="A232" s="3"/>
@@ -6964,7 +6705,6 @@
       <c r="W232" s="3"/>
       <c r="X232" s="3"/>
       <c r="Y232" s="3"/>
-      <c r="Z232" s="3"/>
     </row>
     <row r="233">
       <c r="A233" s="3"/>
@@ -6992,7 +6732,6 @@
       <c r="W233" s="3"/>
       <c r="X233" s="3"/>
       <c r="Y233" s="3"/>
-      <c r="Z233" s="3"/>
     </row>
     <row r="234">
       <c r="A234" s="3"/>
@@ -7020,7 +6759,6 @@
       <c r="W234" s="3"/>
       <c r="X234" s="3"/>
       <c r="Y234" s="3"/>
-      <c r="Z234" s="3"/>
     </row>
     <row r="235">
       <c r="A235" s="3"/>
@@ -7048,7 +6786,6 @@
       <c r="W235" s="3"/>
       <c r="X235" s="3"/>
       <c r="Y235" s="3"/>
-      <c r="Z235" s="3"/>
     </row>
     <row r="236">
       <c r="A236" s="3"/>
@@ -7076,7 +6813,6 @@
       <c r="W236" s="3"/>
       <c r="X236" s="3"/>
       <c r="Y236" s="3"/>
-      <c r="Z236" s="3"/>
     </row>
     <row r="237">
       <c r="A237" s="3"/>
@@ -7104,7 +6840,6 @@
       <c r="W237" s="3"/>
       <c r="X237" s="3"/>
       <c r="Y237" s="3"/>
-      <c r="Z237" s="3"/>
     </row>
     <row r="238">
       <c r="A238" s="3"/>
@@ -7132,7 +6867,6 @@
       <c r="W238" s="3"/>
       <c r="X238" s="3"/>
       <c r="Y238" s="3"/>
-      <c r="Z238" s="3"/>
     </row>
     <row r="239">
       <c r="A239" s="3"/>
@@ -7160,7 +6894,6 @@
       <c r="W239" s="3"/>
       <c r="X239" s="3"/>
       <c r="Y239" s="3"/>
-      <c r="Z239" s="3"/>
     </row>
     <row r="240">
       <c r="A240" s="3"/>
@@ -7188,7 +6921,6 @@
       <c r="W240" s="3"/>
       <c r="X240" s="3"/>
       <c r="Y240" s="3"/>
-      <c r="Z240" s="3"/>
     </row>
     <row r="241">
       <c r="A241" s="3"/>
@@ -7216,7 +6948,6 @@
       <c r="W241" s="3"/>
       <c r="X241" s="3"/>
       <c r="Y241" s="3"/>
-      <c r="Z241" s="3"/>
     </row>
     <row r="242">
       <c r="A242" s="3"/>
@@ -7244,7 +6975,6 @@
       <c r="W242" s="3"/>
       <c r="X242" s="3"/>
       <c r="Y242" s="3"/>
-      <c r="Z242" s="3"/>
     </row>
     <row r="243">
       <c r="A243" s="3"/>
@@ -7272,7 +7002,6 @@
       <c r="W243" s="3"/>
       <c r="X243" s="3"/>
       <c r="Y243" s="3"/>
-      <c r="Z243" s="3"/>
     </row>
     <row r="244">
       <c r="A244" s="3"/>
@@ -7300,7 +7029,6 @@
       <c r="W244" s="3"/>
       <c r="X244" s="3"/>
       <c r="Y244" s="3"/>
-      <c r="Z244" s="3"/>
     </row>
     <row r="245">
       <c r="A245" s="3"/>
@@ -7328,7 +7056,6 @@
       <c r="W245" s="3"/>
       <c r="X245" s="3"/>
       <c r="Y245" s="3"/>
-      <c r="Z245" s="3"/>
     </row>
     <row r="246">
       <c r="A246" s="3"/>
@@ -7356,7 +7083,6 @@
       <c r="W246" s="3"/>
       <c r="X246" s="3"/>
       <c r="Y246" s="3"/>
-      <c r="Z246" s="3"/>
     </row>
     <row r="247">
       <c r="A247" s="3"/>
@@ -7384,7 +7110,6 @@
       <c r="W247" s="3"/>
       <c r="X247" s="3"/>
       <c r="Y247" s="3"/>
-      <c r="Z247" s="3"/>
     </row>
     <row r="248">
       <c r="A248" s="3"/>
@@ -7412,7 +7137,6 @@
       <c r="W248" s="3"/>
       <c r="X248" s="3"/>
       <c r="Y248" s="3"/>
-      <c r="Z248" s="3"/>
     </row>
     <row r="249">
       <c r="A249" s="3"/>
@@ -7440,7 +7164,6 @@
       <c r="W249" s="3"/>
       <c r="X249" s="3"/>
       <c r="Y249" s="3"/>
-      <c r="Z249" s="3"/>
     </row>
     <row r="250">
       <c r="A250" s="3"/>
@@ -7468,7 +7191,6 @@
       <c r="W250" s="3"/>
       <c r="X250" s="3"/>
       <c r="Y250" s="3"/>
-      <c r="Z250" s="3"/>
     </row>
     <row r="251">
       <c r="A251" s="3"/>
@@ -7496,7 +7218,6 @@
       <c r="W251" s="3"/>
       <c r="X251" s="3"/>
       <c r="Y251" s="3"/>
-      <c r="Z251" s="3"/>
     </row>
     <row r="252">
       <c r="A252" s="3"/>
@@ -7524,7 +7245,6 @@
       <c r="W252" s="3"/>
       <c r="X252" s="3"/>
       <c r="Y252" s="3"/>
-      <c r="Z252" s="3"/>
     </row>
     <row r="253">
       <c r="A253" s="3"/>
@@ -7552,7 +7272,6 @@
       <c r="W253" s="3"/>
       <c r="X253" s="3"/>
       <c r="Y253" s="3"/>
-      <c r="Z253" s="3"/>
     </row>
     <row r="254">
       <c r="A254" s="3"/>
@@ -7580,7 +7299,6 @@
       <c r="W254" s="3"/>
       <c r="X254" s="3"/>
       <c r="Y254" s="3"/>
-      <c r="Z254" s="3"/>
     </row>
     <row r="255">
       <c r="A255" s="3"/>
@@ -7608,7 +7326,6 @@
       <c r="W255" s="3"/>
       <c r="X255" s="3"/>
       <c r="Y255" s="3"/>
-      <c r="Z255" s="3"/>
     </row>
     <row r="256">
       <c r="A256" s="3"/>
@@ -7636,7 +7353,6 @@
       <c r="W256" s="3"/>
       <c r="X256" s="3"/>
       <c r="Y256" s="3"/>
-      <c r="Z256" s="3"/>
     </row>
     <row r="257">
       <c r="A257" s="3"/>
@@ -7664,7 +7380,6 @@
       <c r="W257" s="3"/>
       <c r="X257" s="3"/>
       <c r="Y257" s="3"/>
-      <c r="Z257" s="3"/>
     </row>
     <row r="258">
       <c r="A258" s="3"/>
@@ -7692,7 +7407,6 @@
       <c r="W258" s="3"/>
       <c r="X258" s="3"/>
       <c r="Y258" s="3"/>
-      <c r="Z258" s="3"/>
     </row>
     <row r="259">
       <c r="A259" s="3"/>
@@ -7720,7 +7434,6 @@
       <c r="W259" s="3"/>
       <c r="X259" s="3"/>
       <c r="Y259" s="3"/>
-      <c r="Z259" s="3"/>
     </row>
     <row r="260">
       <c r="A260" s="3"/>
@@ -7748,7 +7461,6 @@
       <c r="W260" s="3"/>
       <c r="X260" s="3"/>
       <c r="Y260" s="3"/>
-      <c r="Z260" s="3"/>
     </row>
     <row r="261">
       <c r="A261" s="3"/>
@@ -7776,7 +7488,6 @@
       <c r="W261" s="3"/>
       <c r="X261" s="3"/>
       <c r="Y261" s="3"/>
-      <c r="Z261" s="3"/>
     </row>
     <row r="262">
       <c r="A262" s="3"/>
@@ -7804,7 +7515,6 @@
       <c r="W262" s="3"/>
       <c r="X262" s="3"/>
       <c r="Y262" s="3"/>
-      <c r="Z262" s="3"/>
     </row>
     <row r="263">
       <c r="A263" s="3"/>
@@ -7832,7 +7542,6 @@
       <c r="W263" s="3"/>
       <c r="X263" s="3"/>
       <c r="Y263" s="3"/>
-      <c r="Z263" s="3"/>
     </row>
     <row r="264">
       <c r="A264" s="3"/>
@@ -7860,7 +7569,6 @@
       <c r="W264" s="3"/>
       <c r="X264" s="3"/>
       <c r="Y264" s="3"/>
-      <c r="Z264" s="3"/>
     </row>
     <row r="265">
       <c r="A265" s="3"/>
@@ -7888,7 +7596,6 @@
       <c r="W265" s="3"/>
       <c r="X265" s="3"/>
       <c r="Y265" s="3"/>
-      <c r="Z265" s="3"/>
     </row>
     <row r="266">
       <c r="A266" s="3"/>
@@ -7916,7 +7623,6 @@
       <c r="W266" s="3"/>
       <c r="X266" s="3"/>
       <c r="Y266" s="3"/>
-      <c r="Z266" s="3"/>
     </row>
     <row r="267">
       <c r="A267" s="3"/>
@@ -7944,7 +7650,6 @@
       <c r="W267" s="3"/>
       <c r="X267" s="3"/>
       <c r="Y267" s="3"/>
-      <c r="Z267" s="3"/>
     </row>
     <row r="268">
       <c r="A268" s="3"/>
@@ -7972,7 +7677,6 @@
       <c r="W268" s="3"/>
       <c r="X268" s="3"/>
       <c r="Y268" s="3"/>
-      <c r="Z268" s="3"/>
     </row>
     <row r="269">
       <c r="A269" s="3"/>
@@ -8000,7 +7704,6 @@
       <c r="W269" s="3"/>
       <c r="X269" s="3"/>
       <c r="Y269" s="3"/>
-      <c r="Z269" s="3"/>
     </row>
     <row r="270">
       <c r="A270" s="3"/>
@@ -8028,7 +7731,6 @@
       <c r="W270" s="3"/>
       <c r="X270" s="3"/>
       <c r="Y270" s="3"/>
-      <c r="Z270" s="3"/>
     </row>
     <row r="271">
       <c r="A271" s="3"/>
@@ -8056,7 +7758,6 @@
       <c r="W271" s="3"/>
       <c r="X271" s="3"/>
       <c r="Y271" s="3"/>
-      <c r="Z271" s="3"/>
     </row>
     <row r="272">
       <c r="A272" s="3"/>
@@ -8084,7 +7785,6 @@
       <c r="W272" s="3"/>
       <c r="X272" s="3"/>
       <c r="Y272" s="3"/>
-      <c r="Z272" s="3"/>
     </row>
     <row r="273">
       <c r="A273" s="3"/>
@@ -8112,7 +7812,6 @@
       <c r="W273" s="3"/>
       <c r="X273" s="3"/>
       <c r="Y273" s="3"/>
-      <c r="Z273" s="3"/>
     </row>
     <row r="274">
       <c r="A274" s="3"/>
@@ -8140,7 +7839,6 @@
       <c r="W274" s="3"/>
       <c r="X274" s="3"/>
       <c r="Y274" s="3"/>
-      <c r="Z274" s="3"/>
     </row>
     <row r="275">
       <c r="A275" s="3"/>
@@ -8168,7 +7866,6 @@
       <c r="W275" s="3"/>
       <c r="X275" s="3"/>
       <c r="Y275" s="3"/>
-      <c r="Z275" s="3"/>
     </row>
     <row r="276">
       <c r="A276" s="3"/>
@@ -8196,7 +7893,6 @@
       <c r="W276" s="3"/>
       <c r="X276" s="3"/>
       <c r="Y276" s="3"/>
-      <c r="Z276" s="3"/>
     </row>
     <row r="277">
       <c r="A277" s="3"/>
@@ -8224,7 +7920,6 @@
       <c r="W277" s="3"/>
       <c r="X277" s="3"/>
       <c r="Y277" s="3"/>
-      <c r="Z277" s="3"/>
     </row>
     <row r="278">
       <c r="A278" s="3"/>
@@ -8252,7 +7947,6 @@
       <c r="W278" s="3"/>
       <c r="X278" s="3"/>
       <c r="Y278" s="3"/>
-      <c r="Z278" s="3"/>
     </row>
     <row r="279">
       <c r="A279" s="3"/>
@@ -8280,7 +7974,6 @@
       <c r="W279" s="3"/>
       <c r="X279" s="3"/>
       <c r="Y279" s="3"/>
-      <c r="Z279" s="3"/>
     </row>
     <row r="280">
       <c r="A280" s="3"/>
@@ -8308,7 +8001,6 @@
       <c r="W280" s="3"/>
       <c r="X280" s="3"/>
       <c r="Y280" s="3"/>
-      <c r="Z280" s="3"/>
     </row>
     <row r="281">
       <c r="A281" s="3"/>
@@ -8336,7 +8028,6 @@
       <c r="W281" s="3"/>
       <c r="X281" s="3"/>
       <c r="Y281" s="3"/>
-      <c r="Z281" s="3"/>
     </row>
     <row r="282">
       <c r="A282" s="3"/>
@@ -8364,7 +8055,6 @@
       <c r="W282" s="3"/>
       <c r="X282" s="3"/>
       <c r="Y282" s="3"/>
-      <c r="Z282" s="3"/>
     </row>
     <row r="283">
       <c r="A283" s="3"/>
@@ -8392,7 +8082,6 @@
       <c r="W283" s="3"/>
       <c r="X283" s="3"/>
       <c r="Y283" s="3"/>
-      <c r="Z283" s="3"/>
     </row>
     <row r="284">
       <c r="A284" s="3"/>
@@ -8420,7 +8109,6 @@
       <c r="W284" s="3"/>
       <c r="X284" s="3"/>
       <c r="Y284" s="3"/>
-      <c r="Z284" s="3"/>
     </row>
     <row r="285">
       <c r="A285" s="3"/>
@@ -8448,7 +8136,6 @@
       <c r="W285" s="3"/>
       <c r="X285" s="3"/>
       <c r="Y285" s="3"/>
-      <c r="Z285" s="3"/>
     </row>
     <row r="286">
       <c r="A286" s="3"/>
@@ -8476,7 +8163,6 @@
       <c r="W286" s="3"/>
       <c r="X286" s="3"/>
       <c r="Y286" s="3"/>
-      <c r="Z286" s="3"/>
     </row>
     <row r="287">
       <c r="A287" s="3"/>
@@ -8504,7 +8190,6 @@
       <c r="W287" s="3"/>
       <c r="X287" s="3"/>
       <c r="Y287" s="3"/>
-      <c r="Z287" s="3"/>
     </row>
     <row r="288">
       <c r="A288" s="3"/>
@@ -8532,7 +8217,6 @@
       <c r="W288" s="3"/>
       <c r="X288" s="3"/>
       <c r="Y288" s="3"/>
-      <c r="Z288" s="3"/>
     </row>
     <row r="289">
       <c r="A289" s="3"/>
@@ -8560,7 +8244,6 @@
       <c r="W289" s="3"/>
       <c r="X289" s="3"/>
       <c r="Y289" s="3"/>
-      <c r="Z289" s="3"/>
     </row>
     <row r="290">
       <c r="A290" s="3"/>
@@ -8588,7 +8271,6 @@
       <c r="W290" s="3"/>
       <c r="X290" s="3"/>
       <c r="Y290" s="3"/>
-      <c r="Z290" s="3"/>
     </row>
     <row r="291">
       <c r="A291" s="3"/>
@@ -8616,7 +8298,6 @@
       <c r="W291" s="3"/>
       <c r="X291" s="3"/>
       <c r="Y291" s="3"/>
-      <c r="Z291" s="3"/>
     </row>
     <row r="292">
       <c r="A292" s="3"/>
@@ -8644,7 +8325,6 @@
       <c r="W292" s="3"/>
       <c r="X292" s="3"/>
       <c r="Y292" s="3"/>
-      <c r="Z292" s="3"/>
     </row>
     <row r="293">
       <c r="A293" s="3"/>
@@ -8672,7 +8352,6 @@
       <c r="W293" s="3"/>
       <c r="X293" s="3"/>
       <c r="Y293" s="3"/>
-      <c r="Z293" s="3"/>
     </row>
     <row r="294">
       <c r="A294" s="3"/>
@@ -8700,7 +8379,6 @@
       <c r="W294" s="3"/>
       <c r="X294" s="3"/>
       <c r="Y294" s="3"/>
-      <c r="Z294" s="3"/>
     </row>
     <row r="295">
       <c r="A295" s="3"/>
@@ -8728,7 +8406,6 @@
       <c r="W295" s="3"/>
       <c r="X295" s="3"/>
       <c r="Y295" s="3"/>
-      <c r="Z295" s="3"/>
     </row>
     <row r="296">
       <c r="A296" s="3"/>
@@ -8756,7 +8433,6 @@
       <c r="W296" s="3"/>
       <c r="X296" s="3"/>
       <c r="Y296" s="3"/>
-      <c r="Z296" s="3"/>
     </row>
     <row r="297">
       <c r="A297" s="3"/>
@@ -8784,7 +8460,6 @@
       <c r="W297" s="3"/>
       <c r="X297" s="3"/>
       <c r="Y297" s="3"/>
-      <c r="Z297" s="3"/>
     </row>
     <row r="298">
       <c r="A298" s="3"/>
@@ -8812,7 +8487,6 @@
       <c r="W298" s="3"/>
       <c r="X298" s="3"/>
       <c r="Y298" s="3"/>
-      <c r="Z298" s="3"/>
     </row>
     <row r="299">
       <c r="A299" s="3"/>
@@ -8840,7 +8514,6 @@
       <c r="W299" s="3"/>
       <c r="X299" s="3"/>
       <c r="Y299" s="3"/>
-      <c r="Z299" s="3"/>
     </row>
     <row r="300">
       <c r="A300" s="3"/>
@@ -8868,7 +8541,6 @@
       <c r="W300" s="3"/>
       <c r="X300" s="3"/>
       <c r="Y300" s="3"/>
-      <c r="Z300" s="3"/>
     </row>
     <row r="301">
       <c r="A301" s="3"/>
@@ -8896,7 +8568,6 @@
       <c r="W301" s="3"/>
       <c r="X301" s="3"/>
       <c r="Y301" s="3"/>
-      <c r="Z301" s="3"/>
     </row>
     <row r="302">
       <c r="A302" s="3"/>
@@ -8924,7 +8595,6 @@
       <c r="W302" s="3"/>
       <c r="X302" s="3"/>
       <c r="Y302" s="3"/>
-      <c r="Z302" s="3"/>
     </row>
     <row r="303">
       <c r="A303" s="3"/>
@@ -8952,7 +8622,6 @@
       <c r="W303" s="3"/>
       <c r="X303" s="3"/>
       <c r="Y303" s="3"/>
-      <c r="Z303" s="3"/>
     </row>
     <row r="304">
       <c r="A304" s="3"/>
@@ -8980,7 +8649,6 @@
       <c r="W304" s="3"/>
       <c r="X304" s="3"/>
       <c r="Y304" s="3"/>
-      <c r="Z304" s="3"/>
     </row>
     <row r="305">
       <c r="A305" s="3"/>
@@ -9008,7 +8676,6 @@
       <c r="W305" s="3"/>
       <c r="X305" s="3"/>
       <c r="Y305" s="3"/>
-      <c r="Z305" s="3"/>
     </row>
     <row r="306">
       <c r="A306" s="3"/>
@@ -9036,7 +8703,6 @@
       <c r="W306" s="3"/>
       <c r="X306" s="3"/>
       <c r="Y306" s="3"/>
-      <c r="Z306" s="3"/>
     </row>
     <row r="307">
       <c r="A307" s="3"/>
@@ -9064,7 +8730,6 @@
       <c r="W307" s="3"/>
       <c r="X307" s="3"/>
       <c r="Y307" s="3"/>
-      <c r="Z307" s="3"/>
     </row>
     <row r="308">
       <c r="A308" s="3"/>
@@ -9092,7 +8757,6 @@
       <c r="W308" s="3"/>
       <c r="X308" s="3"/>
       <c r="Y308" s="3"/>
-      <c r="Z308" s="3"/>
     </row>
     <row r="309">
       <c r="A309" s="3"/>
@@ -9120,7 +8784,6 @@
       <c r="W309" s="3"/>
       <c r="X309" s="3"/>
       <c r="Y309" s="3"/>
-      <c r="Z309" s="3"/>
     </row>
     <row r="310">
       <c r="A310" s="3"/>
@@ -9148,7 +8811,6 @@
       <c r="W310" s="3"/>
       <c r="X310" s="3"/>
       <c r="Y310" s="3"/>
-      <c r="Z310" s="3"/>
     </row>
     <row r="311">
       <c r="A311" s="3"/>
@@ -9176,7 +8838,6 @@
       <c r="W311" s="3"/>
       <c r="X311" s="3"/>
       <c r="Y311" s="3"/>
-      <c r="Z311" s="3"/>
     </row>
     <row r="312">
       <c r="A312" s="3"/>
@@ -9204,7 +8865,6 @@
       <c r="W312" s="3"/>
       <c r="X312" s="3"/>
       <c r="Y312" s="3"/>
-      <c r="Z312" s="3"/>
     </row>
     <row r="313">
       <c r="A313" s="3"/>
@@ -9232,7 +8892,6 @@
       <c r="W313" s="3"/>
       <c r="X313" s="3"/>
       <c r="Y313" s="3"/>
-      <c r="Z313" s="3"/>
     </row>
     <row r="314">
       <c r="A314" s="3"/>
@@ -9260,7 +8919,6 @@
       <c r="W314" s="3"/>
       <c r="X314" s="3"/>
       <c r="Y314" s="3"/>
-      <c r="Z314" s="3"/>
     </row>
     <row r="315">
       <c r="A315" s="3"/>
@@ -9288,7 +8946,6 @@
       <c r="W315" s="3"/>
       <c r="X315" s="3"/>
       <c r="Y315" s="3"/>
-      <c r="Z315" s="3"/>
     </row>
     <row r="316">
       <c r="A316" s="3"/>
@@ -9316,7 +8973,6 @@
       <c r="W316" s="3"/>
       <c r="X316" s="3"/>
       <c r="Y316" s="3"/>
-      <c r="Z316" s="3"/>
     </row>
     <row r="317">
       <c r="A317" s="3"/>
@@ -9344,7 +9000,6 @@
       <c r="W317" s="3"/>
       <c r="X317" s="3"/>
       <c r="Y317" s="3"/>
-      <c r="Z317" s="3"/>
     </row>
     <row r="318">
       <c r="A318" s="3"/>
@@ -9372,7 +9027,6 @@
       <c r="W318" s="3"/>
       <c r="X318" s="3"/>
       <c r="Y318" s="3"/>
-      <c r="Z318" s="3"/>
     </row>
     <row r="319">
       <c r="A319" s="3"/>
@@ -9400,7 +9054,6 @@
       <c r="W319" s="3"/>
       <c r="X319" s="3"/>
       <c r="Y319" s="3"/>
-      <c r="Z319" s="3"/>
     </row>
     <row r="320">
       <c r="A320" s="3"/>
@@ -9428,7 +9081,6 @@
       <c r="W320" s="3"/>
       <c r="X320" s="3"/>
       <c r="Y320" s="3"/>
-      <c r="Z320" s="3"/>
     </row>
     <row r="321">
       <c r="A321" s="3"/>
@@ -9456,7 +9108,6 @@
       <c r="W321" s="3"/>
       <c r="X321" s="3"/>
       <c r="Y321" s="3"/>
-      <c r="Z321" s="3"/>
     </row>
     <row r="322">
       <c r="A322" s="3"/>
@@ -9484,7 +9135,6 @@
       <c r="W322" s="3"/>
       <c r="X322" s="3"/>
       <c r="Y322" s="3"/>
-      <c r="Z322" s="3"/>
     </row>
     <row r="323">
       <c r="A323" s="3"/>
@@ -9512,7 +9162,6 @@
       <c r="W323" s="3"/>
       <c r="X323" s="3"/>
       <c r="Y323" s="3"/>
-      <c r="Z323" s="3"/>
     </row>
     <row r="324">
       <c r="A324" s="3"/>
@@ -9540,7 +9189,6 @@
       <c r="W324" s="3"/>
       <c r="X324" s="3"/>
       <c r="Y324" s="3"/>
-      <c r="Z324" s="3"/>
     </row>
     <row r="325">
       <c r="A325" s="3"/>
@@ -9568,7 +9216,6 @@
       <c r="W325" s="3"/>
       <c r="X325" s="3"/>
       <c r="Y325" s="3"/>
-      <c r="Z325" s="3"/>
     </row>
     <row r="326">
       <c r="A326" s="3"/>
@@ -9596,7 +9243,6 @@
       <c r="W326" s="3"/>
       <c r="X326" s="3"/>
       <c r="Y326" s="3"/>
-      <c r="Z326" s="3"/>
     </row>
     <row r="327">
       <c r="A327" s="3"/>
@@ -9624,7 +9270,6 @@
       <c r="W327" s="3"/>
       <c r="X327" s="3"/>
       <c r="Y327" s="3"/>
-      <c r="Z327" s="3"/>
     </row>
     <row r="328">
       <c r="A328" s="3"/>
@@ -9652,7 +9297,6 @@
       <c r="W328" s="3"/>
       <c r="X328" s="3"/>
       <c r="Y328" s="3"/>
-      <c r="Z328" s="3"/>
     </row>
     <row r="329">
       <c r="A329" s="3"/>
@@ -9680,7 +9324,6 @@
       <c r="W329" s="3"/>
       <c r="X329" s="3"/>
       <c r="Y329" s="3"/>
-      <c r="Z329" s="3"/>
     </row>
     <row r="330">
       <c r="A330" s="3"/>
@@ -9708,7 +9351,6 @@
       <c r="W330" s="3"/>
       <c r="X330" s="3"/>
       <c r="Y330" s="3"/>
-      <c r="Z330" s="3"/>
     </row>
     <row r="331">
       <c r="A331" s="3"/>
@@ -9736,7 +9378,6 @@
       <c r="W331" s="3"/>
       <c r="X331" s="3"/>
       <c r="Y331" s="3"/>
-      <c r="Z331" s="3"/>
     </row>
     <row r="332">
       <c r="A332" s="3"/>
@@ -9764,7 +9405,6 @@
       <c r="W332" s="3"/>
       <c r="X332" s="3"/>
       <c r="Y332" s="3"/>
-      <c r="Z332" s="3"/>
     </row>
     <row r="333">
       <c r="A333" s="3"/>
@@ -9792,7 +9432,6 @@
       <c r="W333" s="3"/>
       <c r="X333" s="3"/>
       <c r="Y333" s="3"/>
-      <c r="Z333" s="3"/>
     </row>
     <row r="334">
       <c r="A334" s="3"/>
@@ -9820,7 +9459,6 @@
       <c r="W334" s="3"/>
       <c r="X334" s="3"/>
       <c r="Y334" s="3"/>
-      <c r="Z334" s="3"/>
     </row>
     <row r="335">
       <c r="A335" s="3"/>
@@ -9848,7 +9486,6 @@
       <c r="W335" s="3"/>
       <c r="X335" s="3"/>
       <c r="Y335" s="3"/>
-      <c r="Z335" s="3"/>
     </row>
     <row r="336">
       <c r="A336" s="3"/>
@@ -9876,7 +9513,6 @@
       <c r="W336" s="3"/>
       <c r="X336" s="3"/>
       <c r="Y336" s="3"/>
-      <c r="Z336" s="3"/>
     </row>
     <row r="337">
       <c r="A337" s="3"/>
@@ -9904,7 +9540,6 @@
       <c r="W337" s="3"/>
       <c r="X337" s="3"/>
       <c r="Y337" s="3"/>
-      <c r="Z337" s="3"/>
     </row>
     <row r="338">
       <c r="A338" s="3"/>
@@ -9932,7 +9567,6 @@
       <c r="W338" s="3"/>
       <c r="X338" s="3"/>
       <c r="Y338" s="3"/>
-      <c r="Z338" s="3"/>
     </row>
     <row r="339">
       <c r="A339" s="3"/>
@@ -9960,7 +9594,6 @@
       <c r="W339" s="3"/>
       <c r="X339" s="3"/>
       <c r="Y339" s="3"/>
-      <c r="Z339" s="3"/>
     </row>
     <row r="340">
       <c r="A340" s="3"/>
@@ -9988,7 +9621,6 @@
       <c r="W340" s="3"/>
       <c r="X340" s="3"/>
       <c r="Y340" s="3"/>
-      <c r="Z340" s="3"/>
     </row>
     <row r="341">
       <c r="A341" s="3"/>
@@ -10016,7 +9648,6 @@
       <c r="W341" s="3"/>
       <c r="X341" s="3"/>
       <c r="Y341" s="3"/>
-      <c r="Z341" s="3"/>
     </row>
     <row r="342">
       <c r="A342" s="3"/>
@@ -10044,7 +9675,6 @@
       <c r="W342" s="3"/>
       <c r="X342" s="3"/>
       <c r="Y342" s="3"/>
-      <c r="Z342" s="3"/>
     </row>
     <row r="343">
       <c r="A343" s="3"/>
@@ -10072,7 +9702,6 @@
       <c r="W343" s="3"/>
       <c r="X343" s="3"/>
       <c r="Y343" s="3"/>
-      <c r="Z343" s="3"/>
     </row>
     <row r="344">
       <c r="A344" s="3"/>
@@ -10100,7 +9729,6 @@
       <c r="W344" s="3"/>
       <c r="X344" s="3"/>
       <c r="Y344" s="3"/>
-      <c r="Z344" s="3"/>
     </row>
     <row r="345">
       <c r="A345" s="3"/>
@@ -10128,7 +9756,6 @@
       <c r="W345" s="3"/>
       <c r="X345" s="3"/>
       <c r="Y345" s="3"/>
-      <c r="Z345" s="3"/>
     </row>
     <row r="346">
       <c r="A346" s="3"/>
@@ -10156,7 +9783,6 @@
       <c r="W346" s="3"/>
       <c r="X346" s="3"/>
       <c r="Y346" s="3"/>
-      <c r="Z346" s="3"/>
     </row>
     <row r="347">
       <c r="A347" s="3"/>
@@ -10184,7 +9810,6 @@
       <c r="W347" s="3"/>
       <c r="X347" s="3"/>
       <c r="Y347" s="3"/>
-      <c r="Z347" s="3"/>
     </row>
     <row r="348">
       <c r="A348" s="3"/>
@@ -10212,7 +9837,6 @@
       <c r="W348" s="3"/>
       <c r="X348" s="3"/>
       <c r="Y348" s="3"/>
-      <c r="Z348" s="3"/>
     </row>
     <row r="349">
       <c r="A349" s="3"/>
@@ -10240,7 +9864,6 @@
       <c r="W349" s="3"/>
       <c r="X349" s="3"/>
       <c r="Y349" s="3"/>
-      <c r="Z349" s="3"/>
     </row>
     <row r="350">
       <c r="A350" s="3"/>
@@ -10268,7 +9891,6 @@
       <c r="W350" s="3"/>
       <c r="X350" s="3"/>
       <c r="Y350" s="3"/>
-      <c r="Z350" s="3"/>
     </row>
     <row r="351">
       <c r="A351" s="3"/>
@@ -10296,7 +9918,6 @@
       <c r="W351" s="3"/>
       <c r="X351" s="3"/>
       <c r="Y351" s="3"/>
-      <c r="Z351" s="3"/>
     </row>
     <row r="352">
       <c r="A352" s="3"/>
@@ -10324,7 +9945,6 @@
       <c r="W352" s="3"/>
       <c r="X352" s="3"/>
       <c r="Y352" s="3"/>
-      <c r="Z352" s="3"/>
     </row>
     <row r="353">
       <c r="A353" s="3"/>
@@ -10352,7 +9972,6 @@
       <c r="W353" s="3"/>
       <c r="X353" s="3"/>
       <c r="Y353" s="3"/>
-      <c r="Z353" s="3"/>
     </row>
     <row r="354">
       <c r="A354" s="3"/>
@@ -10380,7 +9999,6 @@
       <c r="W354" s="3"/>
       <c r="X354" s="3"/>
       <c r="Y354" s="3"/>
-      <c r="Z354" s="3"/>
     </row>
     <row r="355">
       <c r="A355" s="3"/>
@@ -10408,7 +10026,6 @@
       <c r="W355" s="3"/>
       <c r="X355" s="3"/>
       <c r="Y355" s="3"/>
-      <c r="Z355" s="3"/>
     </row>
     <row r="356">
       <c r="A356" s="3"/>
@@ -10436,7 +10053,6 @@
       <c r="W356" s="3"/>
       <c r="X356" s="3"/>
       <c r="Y356" s="3"/>
-      <c r="Z356" s="3"/>
     </row>
     <row r="357">
       <c r="A357" s="3"/>
@@ -10464,7 +10080,6 @@
       <c r="W357" s="3"/>
       <c r="X357" s="3"/>
       <c r="Y357" s="3"/>
-      <c r="Z357" s="3"/>
     </row>
     <row r="358">
       <c r="A358" s="3"/>
@@ -10492,7 +10107,6 @@
       <c r="W358" s="3"/>
       <c r="X358" s="3"/>
       <c r="Y358" s="3"/>
-      <c r="Z358" s="3"/>
     </row>
     <row r="359">
       <c r="A359" s="3"/>
@@ -10520,7 +10134,6 @@
       <c r="W359" s="3"/>
       <c r="X359" s="3"/>
       <c r="Y359" s="3"/>
-      <c r="Z359" s="3"/>
     </row>
     <row r="360">
       <c r="A360" s="3"/>
@@ -10548,7 +10161,6 @@
       <c r="W360" s="3"/>
       <c r="X360" s="3"/>
       <c r="Y360" s="3"/>
-      <c r="Z360" s="3"/>
     </row>
     <row r="361">
       <c r="A361" s="3"/>
@@ -10576,7 +10188,6 @@
       <c r="W361" s="3"/>
       <c r="X361" s="3"/>
       <c r="Y361" s="3"/>
-      <c r="Z361" s="3"/>
     </row>
     <row r="362">
       <c r="A362" s="3"/>
@@ -10604,7 +10215,6 @@
       <c r="W362" s="3"/>
       <c r="X362" s="3"/>
       <c r="Y362" s="3"/>
-      <c r="Z362" s="3"/>
     </row>
     <row r="363">
       <c r="A363" s="3"/>
@@ -10632,7 +10242,6 @@
       <c r="W363" s="3"/>
       <c r="X363" s="3"/>
       <c r="Y363" s="3"/>
-      <c r="Z363" s="3"/>
     </row>
     <row r="364">
       <c r="A364" s="3"/>
@@ -10660,7 +10269,6 @@
       <c r="W364" s="3"/>
       <c r="X364" s="3"/>
       <c r="Y364" s="3"/>
-      <c r="Z364" s="3"/>
     </row>
     <row r="365">
       <c r="A365" s="3"/>
@@ -10688,7 +10296,6 @@
       <c r="W365" s="3"/>
       <c r="X365" s="3"/>
       <c r="Y365" s="3"/>
-      <c r="Z365" s="3"/>
     </row>
     <row r="366">
       <c r="A366" s="3"/>
@@ -10716,7 +10323,6 @@
       <c r="W366" s="3"/>
       <c r="X366" s="3"/>
       <c r="Y366" s="3"/>
-      <c r="Z366" s="3"/>
     </row>
     <row r="367">
       <c r="A367" s="3"/>
@@ -10744,7 +10350,6 @@
       <c r="W367" s="3"/>
       <c r="X367" s="3"/>
       <c r="Y367" s="3"/>
-      <c r="Z367" s="3"/>
     </row>
     <row r="368">
       <c r="A368" s="3"/>
@@ -10772,7 +10377,6 @@
       <c r="W368" s="3"/>
       <c r="X368" s="3"/>
       <c r="Y368" s="3"/>
-      <c r="Z368" s="3"/>
     </row>
     <row r="369">
       <c r="A369" s="3"/>
@@ -10800,7 +10404,6 @@
       <c r="W369" s="3"/>
       <c r="X369" s="3"/>
       <c r="Y369" s="3"/>
-      <c r="Z369" s="3"/>
     </row>
     <row r="370">
       <c r="A370" s="3"/>
@@ -10828,7 +10431,6 @@
       <c r="W370" s="3"/>
       <c r="X370" s="3"/>
       <c r="Y370" s="3"/>
-      <c r="Z370" s="3"/>
     </row>
     <row r="371">
       <c r="A371" s="3"/>
@@ -10856,7 +10458,6 @@
       <c r="W371" s="3"/>
       <c r="X371" s="3"/>
       <c r="Y371" s="3"/>
-      <c r="Z371" s="3"/>
     </row>
     <row r="372">
       <c r="A372" s="3"/>
@@ -10884,7 +10485,6 @@
       <c r="W372" s="3"/>
       <c r="X372" s="3"/>
       <c r="Y372" s="3"/>
-      <c r="Z372" s="3"/>
     </row>
     <row r="373">
       <c r="A373" s="3"/>
@@ -10912,7 +10512,6 @@
       <c r="W373" s="3"/>
       <c r="X373" s="3"/>
       <c r="Y373" s="3"/>
-      <c r="Z373" s="3"/>
     </row>
     <row r="374">
       <c r="A374" s="3"/>
@@ -10940,7 +10539,6 @@
       <c r="W374" s="3"/>
       <c r="X374" s="3"/>
       <c r="Y374" s="3"/>
-      <c r="Z374" s="3"/>
     </row>
     <row r="375">
       <c r="A375" s="3"/>
@@ -10968,7 +10566,6 @@
       <c r="W375" s="3"/>
       <c r="X375" s="3"/>
       <c r="Y375" s="3"/>
-      <c r="Z375" s="3"/>
     </row>
     <row r="376">
       <c r="A376" s="3"/>
@@ -10996,7 +10593,6 @@
       <c r="W376" s="3"/>
       <c r="X376" s="3"/>
       <c r="Y376" s="3"/>
-      <c r="Z376" s="3"/>
     </row>
     <row r="377">
       <c r="A377" s="3"/>
@@ -11024,7 +10620,6 @@
       <c r="W377" s="3"/>
       <c r="X377" s="3"/>
       <c r="Y377" s="3"/>
-      <c r="Z377" s="3"/>
     </row>
     <row r="378">
       <c r="A378" s="3"/>
@@ -11052,7 +10647,6 @@
       <c r="W378" s="3"/>
       <c r="X378" s="3"/>
       <c r="Y378" s="3"/>
-      <c r="Z378" s="3"/>
     </row>
     <row r="379">
       <c r="A379" s="3"/>
@@ -11080,7 +10674,6 @@
       <c r="W379" s="3"/>
       <c r="X379" s="3"/>
       <c r="Y379" s="3"/>
-      <c r="Z379" s="3"/>
     </row>
     <row r="380">
       <c r="A380" s="3"/>
@@ -11108,7 +10701,6 @@
       <c r="W380" s="3"/>
       <c r="X380" s="3"/>
       <c r="Y380" s="3"/>
-      <c r="Z380" s="3"/>
     </row>
     <row r="381">
       <c r="A381" s="3"/>
@@ -11136,7 +10728,6 @@
       <c r="W381" s="3"/>
       <c r="X381" s="3"/>
       <c r="Y381" s="3"/>
-      <c r="Z381" s="3"/>
     </row>
     <row r="382">
       <c r="A382" s="3"/>
@@ -11164,7 +10755,6 @@
       <c r="W382" s="3"/>
       <c r="X382" s="3"/>
       <c r="Y382" s="3"/>
-      <c r="Z382" s="3"/>
     </row>
     <row r="383">
       <c r="A383" s="3"/>
@@ -11192,7 +10782,6 @@
       <c r="W383" s="3"/>
       <c r="X383" s="3"/>
       <c r="Y383" s="3"/>
-      <c r="Z383" s="3"/>
     </row>
     <row r="384">
       <c r="A384" s="3"/>
@@ -11220,7 +10809,6 @@
       <c r="W384" s="3"/>
       <c r="X384" s="3"/>
       <c r="Y384" s="3"/>
-      <c r="Z384" s="3"/>
     </row>
     <row r="385">
       <c r="A385" s="3"/>
@@ -11248,7 +10836,6 @@
       <c r="W385" s="3"/>
       <c r="X385" s="3"/>
       <c r="Y385" s="3"/>
-      <c r="Z385" s="3"/>
     </row>
     <row r="386">
       <c r="A386" s="3"/>
@@ -11276,7 +10863,6 @@
       <c r="W386" s="3"/>
       <c r="X386" s="3"/>
       <c r="Y386" s="3"/>
-      <c r="Z386" s="3"/>
     </row>
     <row r="387">
       <c r="A387" s="3"/>
@@ -11304,7 +10890,6 @@
       <c r="W387" s="3"/>
       <c r="X387" s="3"/>
       <c r="Y387" s="3"/>
-      <c r="Z387" s="3"/>
     </row>
     <row r="388">
       <c r="A388" s="3"/>
@@ -11332,7 +10917,6 @@
       <c r="W388" s="3"/>
       <c r="X388" s="3"/>
       <c r="Y388" s="3"/>
-      <c r="Z388" s="3"/>
     </row>
     <row r="389">
       <c r="A389" s="3"/>
@@ -11360,7 +10944,6 @@
       <c r="W389" s="3"/>
       <c r="X389" s="3"/>
       <c r="Y389" s="3"/>
-      <c r="Z389" s="3"/>
     </row>
     <row r="390">
       <c r="A390" s="3"/>
@@ -11388,7 +10971,6 @@
       <c r="W390" s="3"/>
       <c r="X390" s="3"/>
       <c r="Y390" s="3"/>
-      <c r="Z390" s="3"/>
     </row>
     <row r="391">
       <c r="A391" s="3"/>
@@ -11416,7 +10998,6 @@
       <c r="W391" s="3"/>
       <c r="X391" s="3"/>
       <c r="Y391" s="3"/>
-      <c r="Z391" s="3"/>
     </row>
     <row r="392">
       <c r="A392" s="3"/>
@@ -11444,7 +11025,6 @@
       <c r="W392" s="3"/>
       <c r="X392" s="3"/>
       <c r="Y392" s="3"/>
-      <c r="Z392" s="3"/>
     </row>
     <row r="393">
       <c r="A393" s="3"/>
@@ -11472,7 +11052,6 @@
       <c r="W393" s="3"/>
       <c r="X393" s="3"/>
       <c r="Y393" s="3"/>
-      <c r="Z393" s="3"/>
     </row>
     <row r="394">
       <c r="A394" s="3"/>
@@ -11500,7 +11079,6 @@
       <c r="W394" s="3"/>
       <c r="X394" s="3"/>
       <c r="Y394" s="3"/>
-      <c r="Z394" s="3"/>
     </row>
     <row r="395">
       <c r="A395" s="3"/>
@@ -11528,7 +11106,6 @@
       <c r="W395" s="3"/>
       <c r="X395" s="3"/>
       <c r="Y395" s="3"/>
-      <c r="Z395" s="3"/>
     </row>
     <row r="396">
       <c r="A396" s="3"/>
@@ -11556,7 +11133,6 @@
       <c r="W396" s="3"/>
       <c r="X396" s="3"/>
       <c r="Y396" s="3"/>
-      <c r="Z396" s="3"/>
     </row>
     <row r="397">
       <c r="A397" s="3"/>
@@ -11584,7 +11160,6 @@
       <c r="W397" s="3"/>
       <c r="X397" s="3"/>
       <c r="Y397" s="3"/>
-      <c r="Z397" s="3"/>
     </row>
     <row r="398">
       <c r="A398" s="3"/>
@@ -11612,7 +11187,6 @@
       <c r="W398" s="3"/>
       <c r="X398" s="3"/>
       <c r="Y398" s="3"/>
-      <c r="Z398" s="3"/>
     </row>
     <row r="399">
       <c r="A399" s="3"/>
@@ -11640,7 +11214,6 @@
       <c r="W399" s="3"/>
       <c r="X399" s="3"/>
       <c r="Y399" s="3"/>
-      <c r="Z399" s="3"/>
     </row>
     <row r="400">
       <c r="A400" s="3"/>
@@ -11668,7 +11241,6 @@
       <c r="W400" s="3"/>
       <c r="X400" s="3"/>
       <c r="Y400" s="3"/>
-      <c r="Z400" s="3"/>
     </row>
     <row r="401">
       <c r="A401" s="3"/>
@@ -11696,7 +11268,6 @@
       <c r="W401" s="3"/>
       <c r="X401" s="3"/>
       <c r="Y401" s="3"/>
-      <c r="Z401" s="3"/>
     </row>
     <row r="402">
       <c r="A402" s="3"/>
@@ -11724,7 +11295,6 @@
       <c r="W402" s="3"/>
       <c r="X402" s="3"/>
       <c r="Y402" s="3"/>
-      <c r="Z402" s="3"/>
     </row>
     <row r="403">
       <c r="A403" s="3"/>
@@ -11752,7 +11322,6 @@
       <c r="W403" s="3"/>
       <c r="X403" s="3"/>
       <c r="Y403" s="3"/>
-      <c r="Z403" s="3"/>
     </row>
     <row r="404">
       <c r="A404" s="3"/>
@@ -11780,7 +11349,6 @@
       <c r="W404" s="3"/>
       <c r="X404" s="3"/>
       <c r="Y404" s="3"/>
-      <c r="Z404" s="3"/>
     </row>
     <row r="405">
       <c r="A405" s="3"/>
@@ -11808,7 +11376,6 @@
       <c r="W405" s="3"/>
       <c r="X405" s="3"/>
       <c r="Y405" s="3"/>
-      <c r="Z405" s="3"/>
     </row>
     <row r="406">
       <c r="A406" s="3"/>
@@ -11836,7 +11403,6 @@
       <c r="W406" s="3"/>
       <c r="X406" s="3"/>
       <c r="Y406" s="3"/>
-      <c r="Z406" s="3"/>
     </row>
     <row r="407">
       <c r="A407" s="3"/>
@@ -11864,7 +11430,6 @@
       <c r="W407" s="3"/>
       <c r="X407" s="3"/>
       <c r="Y407" s="3"/>
-      <c r="Z407" s="3"/>
     </row>
     <row r="408">
       <c r="A408" s="3"/>
@@ -11892,7 +11457,6 @@
       <c r="W408" s="3"/>
       <c r="X408" s="3"/>
       <c r="Y408" s="3"/>
-      <c r="Z408" s="3"/>
     </row>
     <row r="409">
       <c r="A409" s="3"/>
@@ -11920,7 +11484,6 @@
       <c r="W409" s="3"/>
       <c r="X409" s="3"/>
       <c r="Y409" s="3"/>
-      <c r="Z409" s="3"/>
     </row>
     <row r="410">
       <c r="A410" s="3"/>
@@ -11948,7 +11511,6 @@
       <c r="W410" s="3"/>
       <c r="X410" s="3"/>
       <c r="Y410" s="3"/>
-      <c r="Z410" s="3"/>
     </row>
     <row r="411">
       <c r="A411" s="3"/>
@@ -11976,7 +11538,6 @@
       <c r="W411" s="3"/>
       <c r="X411" s="3"/>
       <c r="Y411" s="3"/>
-      <c r="Z411" s="3"/>
     </row>
     <row r="412">
       <c r="A412" s="3"/>
@@ -12004,7 +11565,6 @@
       <c r="W412" s="3"/>
       <c r="X412" s="3"/>
       <c r="Y412" s="3"/>
-      <c r="Z412" s="3"/>
     </row>
     <row r="413">
       <c r="A413" s="3"/>
@@ -12032,7 +11592,6 @@
       <c r="W413" s="3"/>
       <c r="X413" s="3"/>
       <c r="Y413" s="3"/>
-      <c r="Z413" s="3"/>
     </row>
     <row r="414">
       <c r="A414" s="3"/>
@@ -12060,7 +11619,6 @@
       <c r="W414" s="3"/>
       <c r="X414" s="3"/>
       <c r="Y414" s="3"/>
-      <c r="Z414" s="3"/>
     </row>
     <row r="415">
       <c r="A415" s="3"/>
@@ -12088,7 +11646,6 @@
       <c r="W415" s="3"/>
       <c r="X415" s="3"/>
       <c r="Y415" s="3"/>
-      <c r="Z415" s="3"/>
     </row>
     <row r="416">
       <c r="A416" s="3"/>
@@ -12116,7 +11673,6 @@
       <c r="W416" s="3"/>
       <c r="X416" s="3"/>
       <c r="Y416" s="3"/>
-      <c r="Z416" s="3"/>
     </row>
     <row r="417">
       <c r="A417" s="3"/>
@@ -12144,7 +11700,6 @@
       <c r="W417" s="3"/>
       <c r="X417" s="3"/>
       <c r="Y417" s="3"/>
-      <c r="Z417" s="3"/>
     </row>
     <row r="418">
       <c r="A418" s="3"/>
@@ -12172,7 +11727,6 @@
       <c r="W418" s="3"/>
       <c r="X418" s="3"/>
       <c r="Y418" s="3"/>
-      <c r="Z418" s="3"/>
     </row>
     <row r="419">
       <c r="A419" s="3"/>
@@ -12200,7 +11754,6 @@
       <c r="W419" s="3"/>
       <c r="X419" s="3"/>
       <c r="Y419" s="3"/>
-      <c r="Z419" s="3"/>
     </row>
     <row r="420">
       <c r="A420" s="3"/>
@@ -12228,7 +11781,6 @@
       <c r="W420" s="3"/>
       <c r="X420" s="3"/>
       <c r="Y420" s="3"/>
-      <c r="Z420" s="3"/>
     </row>
     <row r="421">
       <c r="A421" s="3"/>
@@ -12256,7 +11808,6 @@
       <c r="W421" s="3"/>
       <c r="X421" s="3"/>
       <c r="Y421" s="3"/>
-      <c r="Z421" s="3"/>
     </row>
     <row r="422">
       <c r="A422" s="3"/>
@@ -12284,7 +11835,6 @@
       <c r="W422" s="3"/>
       <c r="X422" s="3"/>
       <c r="Y422" s="3"/>
-      <c r="Z422" s="3"/>
     </row>
     <row r="423">
       <c r="A423" s="3"/>
@@ -12312,7 +11862,6 @@
       <c r="W423" s="3"/>
       <c r="X423" s="3"/>
       <c r="Y423" s="3"/>
-      <c r="Z423" s="3"/>
     </row>
     <row r="424">
       <c r="A424" s="3"/>
@@ -12340,7 +11889,6 @@
       <c r="W424" s="3"/>
       <c r="X424" s="3"/>
       <c r="Y424" s="3"/>
-      <c r="Z424" s="3"/>
     </row>
     <row r="425">
       <c r="A425" s="3"/>
@@ -12368,7 +11916,6 @@
       <c r="W425" s="3"/>
       <c r="X425" s="3"/>
       <c r="Y425" s="3"/>
-      <c r="Z425" s="3"/>
     </row>
     <row r="426">
       <c r="A426" s="3"/>
@@ -12396,7 +11943,6 @@
       <c r="W426" s="3"/>
       <c r="X426" s="3"/>
       <c r="Y426" s="3"/>
-      <c r="Z426" s="3"/>
     </row>
     <row r="427">
       <c r="A427" s="3"/>
@@ -12424,7 +11970,6 @@
       <c r="W427" s="3"/>
       <c r="X427" s="3"/>
       <c r="Y427" s="3"/>
-      <c r="Z427" s="3"/>
     </row>
     <row r="428">
       <c r="A428" s="3"/>
@@ -12452,7 +11997,6 @@
       <c r="W428" s="3"/>
       <c r="X428" s="3"/>
       <c r="Y428" s="3"/>
-      <c r="Z428" s="3"/>
     </row>
     <row r="429">
       <c r="A429" s="3"/>
@@ -12480,7 +12024,6 @@
       <c r="W429" s="3"/>
       <c r="X429" s="3"/>
       <c r="Y429" s="3"/>
-      <c r="Z429" s="3"/>
     </row>
     <row r="430">
       <c r="A430" s="3"/>
@@ -12508,7 +12051,6 @@
       <c r="W430" s="3"/>
       <c r="X430" s="3"/>
       <c r="Y430" s="3"/>
-      <c r="Z430" s="3"/>
     </row>
     <row r="431">
       <c r="A431" s="3"/>
@@ -12536,7 +12078,6 @@
       <c r="W431" s="3"/>
       <c r="X431" s="3"/>
       <c r="Y431" s="3"/>
-      <c r="Z431" s="3"/>
     </row>
     <row r="432">
       <c r="A432" s="3"/>
@@ -12564,7 +12105,6 @@
       <c r="W432" s="3"/>
       <c r="X432" s="3"/>
       <c r="Y432" s="3"/>
-      <c r="Z432" s="3"/>
     </row>
     <row r="433">
       <c r="A433" s="3"/>
@@ -12592,7 +12132,6 @@
       <c r="W433" s="3"/>
       <c r="X433" s="3"/>
       <c r="Y433" s="3"/>
-      <c r="Z433" s="3"/>
     </row>
     <row r="434">
       <c r="A434" s="3"/>
@@ -12620,7 +12159,6 @@
       <c r="W434" s="3"/>
       <c r="X434" s="3"/>
       <c r="Y434" s="3"/>
-      <c r="Z434" s="3"/>
     </row>
     <row r="435">
       <c r="A435" s="3"/>
@@ -12648,7 +12186,6 @@
       <c r="W435" s="3"/>
       <c r="X435" s="3"/>
       <c r="Y435" s="3"/>
-      <c r="Z435" s="3"/>
     </row>
     <row r="436">
       <c r="A436" s="3"/>
@@ -12676,7 +12213,6 @@
       <c r="W436" s="3"/>
       <c r="X436" s="3"/>
       <c r="Y436" s="3"/>
-      <c r="Z436" s="3"/>
     </row>
     <row r="437">
       <c r="A437" s="3"/>
@@ -12704,7 +12240,6 @@
       <c r="W437" s="3"/>
       <c r="X437" s="3"/>
       <c r="Y437" s="3"/>
-      <c r="Z437" s="3"/>
     </row>
     <row r="438">
       <c r="A438" s="3"/>
@@ -12732,7 +12267,6 @@
       <c r="W438" s="3"/>
       <c r="X438" s="3"/>
       <c r="Y438" s="3"/>
-      <c r="Z438" s="3"/>
     </row>
     <row r="439">
       <c r="A439" s="3"/>
@@ -12760,7 +12294,6 @@
       <c r="W439" s="3"/>
       <c r="X439" s="3"/>
       <c r="Y439" s="3"/>
-      <c r="Z439" s="3"/>
     </row>
     <row r="440">
       <c r="A440" s="3"/>
@@ -12788,7 +12321,6 @@
       <c r="W440" s="3"/>
       <c r="X440" s="3"/>
       <c r="Y440" s="3"/>
-      <c r="Z440" s="3"/>
     </row>
     <row r="441">
       <c r="A441" s="3"/>
@@ -12816,7 +12348,6 @@
       <c r="W441" s="3"/>
       <c r="X441" s="3"/>
       <c r="Y441" s="3"/>
-      <c r="Z441" s="3"/>
     </row>
     <row r="442">
       <c r="A442" s="3"/>
@@ -12844,7 +12375,6 @@
       <c r="W442" s="3"/>
       <c r="X442" s="3"/>
       <c r="Y442" s="3"/>
-      <c r="Z442" s="3"/>
     </row>
     <row r="443">
       <c r="A443" s="3"/>
@@ -12872,7 +12402,6 @@
       <c r="W443" s="3"/>
       <c r="X443" s="3"/>
       <c r="Y443" s="3"/>
-      <c r="Z443" s="3"/>
     </row>
     <row r="444">
       <c r="A444" s="3"/>
@@ -12900,7 +12429,6 @@
       <c r="W444" s="3"/>
       <c r="X444" s="3"/>
       <c r="Y444" s="3"/>
-      <c r="Z444" s="3"/>
     </row>
     <row r="445">
       <c r="A445" s="3"/>
@@ -12928,7 +12456,6 @@
       <c r="W445" s="3"/>
       <c r="X445" s="3"/>
       <c r="Y445" s="3"/>
-      <c r="Z445" s="3"/>
     </row>
     <row r="446">
       <c r="A446" s="3"/>
@@ -12956,7 +12483,6 @@
       <c r="W446" s="3"/>
       <c r="X446" s="3"/>
       <c r="Y446" s="3"/>
-      <c r="Z446" s="3"/>
     </row>
     <row r="447">
       <c r="A447" s="3"/>
@@ -12984,7 +12510,6 @@
       <c r="W447" s="3"/>
       <c r="X447" s="3"/>
       <c r="Y447" s="3"/>
-      <c r="Z447" s="3"/>
     </row>
     <row r="448">
       <c r="A448" s="3"/>
@@ -13012,7 +12537,6 @@
       <c r="W448" s="3"/>
       <c r="X448" s="3"/>
       <c r="Y448" s="3"/>
-      <c r="Z448" s="3"/>
     </row>
     <row r="449">
       <c r="A449" s="3"/>
@@ -13040,7 +12564,6 @@
       <c r="W449" s="3"/>
       <c r="X449" s="3"/>
       <c r="Y449" s="3"/>
-      <c r="Z449" s="3"/>
     </row>
     <row r="450">
       <c r="A450" s="3"/>
@@ -13068,7 +12591,6 @@
       <c r="W450" s="3"/>
       <c r="X450" s="3"/>
       <c r="Y450" s="3"/>
-      <c r="Z450" s="3"/>
     </row>
     <row r="451">
       <c r="A451" s="3"/>
@@ -13096,7 +12618,6 @@
       <c r="W451" s="3"/>
       <c r="X451" s="3"/>
       <c r="Y451" s="3"/>
-      <c r="Z451" s="3"/>
     </row>
     <row r="452">
       <c r="A452" s="3"/>
@@ -13124,7 +12645,6 @@
       <c r="W452" s="3"/>
       <c r="X452" s="3"/>
       <c r="Y452" s="3"/>
-      <c r="Z452" s="3"/>
     </row>
     <row r="453">
       <c r="A453" s="3"/>
@@ -13152,7 +12672,6 @@
       <c r="W453" s="3"/>
       <c r="X453" s="3"/>
       <c r="Y453" s="3"/>
-      <c r="Z453" s="3"/>
     </row>
     <row r="454">
       <c r="A454" s="3"/>
@@ -13180,7 +12699,6 @@
       <c r="W454" s="3"/>
       <c r="X454" s="3"/>
       <c r="Y454" s="3"/>
-      <c r="Z454" s="3"/>
     </row>
     <row r="455">
       <c r="A455" s="3"/>
@@ -13208,7 +12726,6 @@
       <c r="W455" s="3"/>
       <c r="X455" s="3"/>
       <c r="Y455" s="3"/>
-      <c r="Z455" s="3"/>
     </row>
     <row r="456">
       <c r="A456" s="3"/>
@@ -13236,7 +12753,6 @@
       <c r="W456" s="3"/>
       <c r="X456" s="3"/>
       <c r="Y456" s="3"/>
-      <c r="Z456" s="3"/>
     </row>
     <row r="457">
       <c r="A457" s="3"/>
@@ -13264,7 +12780,6 @@
       <c r="W457" s="3"/>
       <c r="X457" s="3"/>
       <c r="Y457" s="3"/>
-      <c r="Z457" s="3"/>
     </row>
     <row r="458">
       <c r="A458" s="3"/>
@@ -13292,7 +12807,6 @@
       <c r="W458" s="3"/>
       <c r="X458" s="3"/>
       <c r="Y458" s="3"/>
-      <c r="Z458" s="3"/>
     </row>
     <row r="459">
       <c r="A459" s="3"/>
@@ -13320,7 +12834,6 @@
       <c r="W459" s="3"/>
       <c r="X459" s="3"/>
       <c r="Y459" s="3"/>
-      <c r="Z459" s="3"/>
     </row>
     <row r="460">
       <c r="A460" s="3"/>
@@ -13348,7 +12861,6 @@
       <c r="W460" s="3"/>
       <c r="X460" s="3"/>
       <c r="Y460" s="3"/>
-      <c r="Z460" s="3"/>
     </row>
     <row r="461">
       <c r="A461" s="3"/>
@@ -13376,7 +12888,6 @@
       <c r="W461" s="3"/>
       <c r="X461" s="3"/>
       <c r="Y461" s="3"/>
-      <c r="Z461" s="3"/>
     </row>
     <row r="462">
       <c r="A462" s="3"/>
@@ -13404,7 +12915,6 @@
       <c r="W462" s="3"/>
       <c r="X462" s="3"/>
       <c r="Y462" s="3"/>
-      <c r="Z462" s="3"/>
     </row>
     <row r="463">
       <c r="A463" s="3"/>
@@ -13432,7 +12942,6 @@
       <c r="W463" s="3"/>
       <c r="X463" s="3"/>
       <c r="Y463" s="3"/>
-      <c r="Z463" s="3"/>
     </row>
     <row r="464">
       <c r="A464" s="3"/>
@@ -13460,7 +12969,6 @@
       <c r="W464" s="3"/>
       <c r="X464" s="3"/>
       <c r="Y464" s="3"/>
-      <c r="Z464" s="3"/>
     </row>
     <row r="465">
       <c r="A465" s="3"/>
@@ -13488,7 +12996,6 @@
       <c r="W465" s="3"/>
       <c r="X465" s="3"/>
       <c r="Y465" s="3"/>
-      <c r="Z465" s="3"/>
     </row>
     <row r="466">
       <c r="A466" s="3"/>
@@ -13516,7 +13023,6 @@
       <c r="W466" s="3"/>
       <c r="X466" s="3"/>
       <c r="Y466" s="3"/>
-      <c r="Z466" s="3"/>
     </row>
     <row r="467">
       <c r="A467" s="3"/>
@@ -13544,7 +13050,6 @@
       <c r="W467" s="3"/>
       <c r="X467" s="3"/>
       <c r="Y467" s="3"/>
-      <c r="Z467" s="3"/>
     </row>
     <row r="468">
       <c r="A468" s="3"/>
@@ -13572,7 +13077,6 @@
       <c r="W468" s="3"/>
       <c r="X468" s="3"/>
       <c r="Y468" s="3"/>
-      <c r="Z468" s="3"/>
     </row>
     <row r="469">
       <c r="A469" s="3"/>
@@ -13600,7 +13104,6 @@
       <c r="W469" s="3"/>
       <c r="X469" s="3"/>
       <c r="Y469" s="3"/>
-      <c r="Z469" s="3"/>
     </row>
     <row r="470">
       <c r="A470" s="3"/>
@@ -13628,7 +13131,6 @@
       <c r="W470" s="3"/>
       <c r="X470" s="3"/>
       <c r="Y470" s="3"/>
-      <c r="Z470" s="3"/>
     </row>
     <row r="471">
       <c r="A471" s="3"/>
@@ -13656,7 +13158,6 @@
       <c r="W471" s="3"/>
       <c r="X471" s="3"/>
       <c r="Y471" s="3"/>
-      <c r="Z471" s="3"/>
     </row>
     <row r="472">
       <c r="A472" s="3"/>
@@ -13684,7 +13185,6 @@
       <c r="W472" s="3"/>
       <c r="X472" s="3"/>
       <c r="Y472" s="3"/>
-      <c r="Z472" s="3"/>
     </row>
     <row r="473">
       <c r="A473" s="3"/>
@@ -13712,7 +13212,6 @@
       <c r="W473" s="3"/>
       <c r="X473" s="3"/>
       <c r="Y473" s="3"/>
-      <c r="Z473" s="3"/>
     </row>
     <row r="474">
       <c r="A474" s="3"/>
@@ -13740,7 +13239,6 @@
       <c r="W474" s="3"/>
       <c r="X474" s="3"/>
       <c r="Y474" s="3"/>
-      <c r="Z474" s="3"/>
     </row>
     <row r="475">
       <c r="A475" s="3"/>
@@ -13768,7 +13266,6 @@
       <c r="W475" s="3"/>
       <c r="X475" s="3"/>
       <c r="Y475" s="3"/>
-      <c r="Z475" s="3"/>
     </row>
     <row r="476">
       <c r="A476" s="3"/>
@@ -13796,7 +13293,6 @@
       <c r="W476" s="3"/>
       <c r="X476" s="3"/>
       <c r="Y476" s="3"/>
-      <c r="Z476" s="3"/>
     </row>
     <row r="477">
       <c r="A477" s="3"/>
@@ -13824,7 +13320,6 @@
       <c r="W477" s="3"/>
       <c r="X477" s="3"/>
       <c r="Y477" s="3"/>
-      <c r="Z477" s="3"/>
     </row>
     <row r="478">
       <c r="A478" s="3"/>
@@ -13852,7 +13347,6 @@
       <c r="W478" s="3"/>
       <c r="X478" s="3"/>
       <c r="Y478" s="3"/>
-      <c r="Z478" s="3"/>
     </row>
     <row r="479">
       <c r="A479" s="3"/>
@@ -13880,7 +13374,6 @@
       <c r="W479" s="3"/>
       <c r="X479" s="3"/>
       <c r="Y479" s="3"/>
-      <c r="Z479" s="3"/>
     </row>
     <row r="480">
       <c r="A480" s="3"/>
@@ -13908,7 +13401,6 @@
       <c r="W480" s="3"/>
       <c r="X480" s="3"/>
       <c r="Y480" s="3"/>
-      <c r="Z480" s="3"/>
     </row>
     <row r="481">
       <c r="A481" s="3"/>
@@ -13936,7 +13428,6 @@
       <c r="W481" s="3"/>
       <c r="X481" s="3"/>
       <c r="Y481" s="3"/>
-      <c r="Z481" s="3"/>
     </row>
     <row r="482">
       <c r="A482" s="3"/>
@@ -13964,7 +13455,6 @@
       <c r="W482" s="3"/>
       <c r="X482" s="3"/>
       <c r="Y482" s="3"/>
-      <c r="Z482" s="3"/>
     </row>
     <row r="483">
       <c r="A483" s="3"/>
@@ -13992,7 +13482,6 @@
       <c r="W483" s="3"/>
       <c r="X483" s="3"/>
       <c r="Y483" s="3"/>
-      <c r="Z483" s="3"/>
     </row>
     <row r="484">
       <c r="A484" s="3"/>
@@ -14020,7 +13509,6 @@
       <c r="W484" s="3"/>
       <c r="X484" s="3"/>
       <c r="Y484" s="3"/>
-      <c r="Z484" s="3"/>
     </row>
     <row r="485">
       <c r="A485" s="3"/>
@@ -14048,7 +13536,6 @@
       <c r="W485" s="3"/>
       <c r="X485" s="3"/>
       <c r="Y485" s="3"/>
-      <c r="Z485" s="3"/>
     </row>
     <row r="486">
       <c r="A486" s="3"/>
@@ -14076,7 +13563,6 @@
       <c r="W486" s="3"/>
       <c r="X486" s="3"/>
       <c r="Y486" s="3"/>
-      <c r="Z486" s="3"/>
     </row>
     <row r="487">
       <c r="A487" s="3"/>
@@ -14104,7 +13590,6 @@
       <c r="W487" s="3"/>
       <c r="X487" s="3"/>
       <c r="Y487" s="3"/>
-      <c r="Z487" s="3"/>
     </row>
     <row r="488">
       <c r="A488" s="3"/>
@@ -14132,7 +13617,6 @@
       <c r="W488" s="3"/>
       <c r="X488" s="3"/>
       <c r="Y488" s="3"/>
-      <c r="Z488" s="3"/>
     </row>
     <row r="489">
       <c r="A489" s="3"/>
@@ -14160,7 +13644,6 @@
       <c r="W489" s="3"/>
       <c r="X489" s="3"/>
       <c r="Y489" s="3"/>
-      <c r="Z489" s="3"/>
     </row>
     <row r="490">
       <c r="A490" s="3"/>
@@ -14188,7 +13671,6 @@
       <c r="W490" s="3"/>
       <c r="X490" s="3"/>
       <c r="Y490" s="3"/>
-      <c r="Z490" s="3"/>
     </row>
     <row r="491">
       <c r="A491" s="3"/>
@@ -14216,7 +13698,6 @@
       <c r="W491" s="3"/>
       <c r="X491" s="3"/>
       <c r="Y491" s="3"/>
-      <c r="Z491" s="3"/>
     </row>
     <row r="492">
       <c r="A492" s="3"/>
@@ -14244,7 +13725,6 @@
       <c r="W492" s="3"/>
       <c r="X492" s="3"/>
       <c r="Y492" s="3"/>
-      <c r="Z492" s="3"/>
     </row>
     <row r="493">
       <c r="A493" s="3"/>
@@ -14272,7 +13752,6 @@
       <c r="W493" s="3"/>
       <c r="X493" s="3"/>
       <c r="Y493" s="3"/>
-      <c r="Z493" s="3"/>
     </row>
     <row r="494">
       <c r="A494" s="3"/>
@@ -14300,7 +13779,6 @@
       <c r="W494" s="3"/>
       <c r="X494" s="3"/>
       <c r="Y494" s="3"/>
-      <c r="Z494" s="3"/>
     </row>
     <row r="495">
       <c r="A495" s="3"/>
@@ -14328,7 +13806,6 @@
       <c r="W495" s="3"/>
       <c r="X495" s="3"/>
       <c r="Y495" s="3"/>
-      <c r="Z495" s="3"/>
     </row>
     <row r="496">
       <c r="A496" s="3"/>
@@ -14356,7 +13833,6 @@
       <c r="W496" s="3"/>
       <c r="X496" s="3"/>
       <c r="Y496" s="3"/>
-      <c r="Z496" s="3"/>
     </row>
     <row r="497">
       <c r="A497" s="3"/>
@@ -14384,7 +13860,6 @@
       <c r="W497" s="3"/>
       <c r="X497" s="3"/>
       <c r="Y497" s="3"/>
-      <c r="Z497" s="3"/>
     </row>
     <row r="498">
       <c r="A498" s="3"/>
@@ -14412,7 +13887,6 @@
       <c r="W498" s="3"/>
       <c r="X498" s="3"/>
       <c r="Y498" s="3"/>
-      <c r="Z498" s="3"/>
     </row>
     <row r="499">
       <c r="A499" s="3"/>
@@ -14440,7 +13914,6 @@
       <c r="W499" s="3"/>
       <c r="X499" s="3"/>
       <c r="Y499" s="3"/>
-      <c r="Z499" s="3"/>
     </row>
     <row r="500">
       <c r="A500" s="3"/>
@@ -14468,7 +13941,6 @@
       <c r="W500" s="3"/>
       <c r="X500" s="3"/>
       <c r="Y500" s="3"/>
-      <c r="Z500" s="3"/>
     </row>
     <row r="501">
       <c r="A501" s="3"/>
@@ -14496,7 +13968,6 @@
       <c r="W501" s="3"/>
       <c r="X501" s="3"/>
       <c r="Y501" s="3"/>
-      <c r="Z501" s="3"/>
     </row>
     <row r="502">
       <c r="A502" s="3"/>
@@ -14524,7 +13995,6 @@
       <c r="W502" s="3"/>
       <c r="X502" s="3"/>
       <c r="Y502" s="3"/>
-      <c r="Z502" s="3"/>
     </row>
     <row r="503">
       <c r="A503" s="3"/>
@@ -14552,7 +14022,6 @@
       <c r="W503" s="3"/>
       <c r="X503" s="3"/>
       <c r="Y503" s="3"/>
-      <c r="Z503" s="3"/>
     </row>
     <row r="504">
       <c r="A504" s="3"/>
@@ -14580,7 +14049,6 @@
       <c r="W504" s="3"/>
       <c r="X504" s="3"/>
       <c r="Y504" s="3"/>
-      <c r="Z504" s="3"/>
     </row>
     <row r="505">
       <c r="A505" s="3"/>
@@ -14608,7 +14076,6 @@
       <c r="W505" s="3"/>
       <c r="X505" s="3"/>
       <c r="Y505" s="3"/>
-      <c r="Z505" s="3"/>
     </row>
     <row r="506">
       <c r="A506" s="3"/>
@@ -14636,7 +14103,6 @@
       <c r="W506" s="3"/>
       <c r="X506" s="3"/>
       <c r="Y506" s="3"/>
-      <c r="Z506" s="3"/>
     </row>
     <row r="507">
       <c r="A507" s="3"/>
@@ -14664,7 +14130,6 @@
       <c r="W507" s="3"/>
       <c r="X507" s="3"/>
       <c r="Y507" s="3"/>
-      <c r="Z507" s="3"/>
     </row>
     <row r="508">
       <c r="A508" s="3"/>
@@ -14692,7 +14157,6 @@
       <c r="W508" s="3"/>
       <c r="X508" s="3"/>
       <c r="Y508" s="3"/>
-      <c r="Z508" s="3"/>
     </row>
     <row r="509">
       <c r="A509" s="3"/>
@@ -14720,7 +14184,6 @@
       <c r="W509" s="3"/>
       <c r="X509" s="3"/>
       <c r="Y509" s="3"/>
-      <c r="Z509" s="3"/>
     </row>
     <row r="510">
       <c r="A510" s="3"/>
@@ -14748,7 +14211,6 @@
       <c r="W510" s="3"/>
       <c r="X510" s="3"/>
       <c r="Y510" s="3"/>
-      <c r="Z510" s="3"/>
     </row>
     <row r="511">
       <c r="A511" s="3"/>
@@ -14776,7 +14238,6 @@
       <c r="W511" s="3"/>
       <c r="X511" s="3"/>
       <c r="Y511" s="3"/>
-      <c r="Z511" s="3"/>
     </row>
     <row r="512">
       <c r="A512" s="3"/>
@@ -14804,7 +14265,6 @@
       <c r="W512" s="3"/>
       <c r="X512" s="3"/>
       <c r="Y512" s="3"/>
-      <c r="Z512" s="3"/>
     </row>
     <row r="513">
       <c r="A513" s="3"/>
@@ -14832,7 +14292,6 @@
       <c r="W513" s="3"/>
       <c r="X513" s="3"/>
       <c r="Y513" s="3"/>
-      <c r="Z513" s="3"/>
     </row>
     <row r="514">
       <c r="A514" s="3"/>
@@ -14860,7 +14319,6 @@
       <c r="W514" s="3"/>
       <c r="X514" s="3"/>
       <c r="Y514" s="3"/>
-      <c r="Z514" s="3"/>
     </row>
     <row r="515">
       <c r="A515" s="3"/>
@@ -14888,7 +14346,6 @@
       <c r="W515" s="3"/>
       <c r="X515" s="3"/>
       <c r="Y515" s="3"/>
-      <c r="Z515" s="3"/>
     </row>
     <row r="516">
       <c r="A516" s="3"/>
@@ -14916,7 +14373,6 @@
       <c r="W516" s="3"/>
       <c r="X516" s="3"/>
       <c r="Y516" s="3"/>
-      <c r="Z516" s="3"/>
     </row>
     <row r="517">
       <c r="A517" s="3"/>
@@ -14944,7 +14400,6 @@
       <c r="W517" s="3"/>
       <c r="X517" s="3"/>
       <c r="Y517" s="3"/>
-      <c r="Z517" s="3"/>
     </row>
     <row r="518">
       <c r="A518" s="3"/>
@@ -14972,7 +14427,6 @@
       <c r="W518" s="3"/>
       <c r="X518" s="3"/>
       <c r="Y518" s="3"/>
-      <c r="Z518" s="3"/>
     </row>
     <row r="519">
       <c r="A519" s="3"/>
@@ -15000,7 +14454,6 @@
       <c r="W519" s="3"/>
       <c r="X519" s="3"/>
       <c r="Y519" s="3"/>
-      <c r="Z519" s="3"/>
     </row>
     <row r="520">
       <c r="A520" s="3"/>
@@ -15028,7 +14481,6 @@
       <c r="W520" s="3"/>
       <c r="X520" s="3"/>
       <c r="Y520" s="3"/>
-      <c r="Z520" s="3"/>
     </row>
     <row r="521">
       <c r="A521" s="3"/>
@@ -15056,7 +14508,6 @@
       <c r="W521" s="3"/>
       <c r="X521" s="3"/>
       <c r="Y521" s="3"/>
-      <c r="Z521" s="3"/>
     </row>
     <row r="522">
       <c r="A522" s="3"/>
@@ -15084,7 +14535,6 @@
       <c r="W522" s="3"/>
       <c r="X522" s="3"/>
       <c r="Y522" s="3"/>
-      <c r="Z522" s="3"/>
     </row>
     <row r="523">
       <c r="A523" s="3"/>
@@ -15112,7 +14562,6 @@
       <c r="W523" s="3"/>
       <c r="X523" s="3"/>
       <c r="Y523" s="3"/>
-      <c r="Z523" s="3"/>
     </row>
     <row r="524">
       <c r="A524" s="3"/>
@@ -15140,7 +14589,6 @@
       <c r="W524" s="3"/>
       <c r="X524" s="3"/>
       <c r="Y524" s="3"/>
-      <c r="Z524" s="3"/>
     </row>
     <row r="525">
       <c r="A525" s="3"/>
@@ -15168,7 +14616,6 @@
       <c r="W525" s="3"/>
       <c r="X525" s="3"/>
       <c r="Y525" s="3"/>
-      <c r="Z525" s="3"/>
     </row>
     <row r="526">
       <c r="A526" s="3"/>
@@ -15196,7 +14643,6 @@
       <c r="W526" s="3"/>
       <c r="X526" s="3"/>
       <c r="Y526" s="3"/>
-      <c r="Z526" s="3"/>
     </row>
     <row r="527">
       <c r="A527" s="3"/>
@@ -15224,7 +14670,6 @@
       <c r="W527" s="3"/>
       <c r="X527" s="3"/>
       <c r="Y527" s="3"/>
-      <c r="Z527" s="3"/>
     </row>
     <row r="528">
       <c r="A528" s="3"/>
@@ -15252,7 +14697,6 @@
       <c r="W528" s="3"/>
       <c r="X528" s="3"/>
       <c r="Y528" s="3"/>
-      <c r="Z528" s="3"/>
     </row>
     <row r="529">
       <c r="A529" s="3"/>
@@ -15280,7 +14724,6 @@
       <c r="W529" s="3"/>
       <c r="X529" s="3"/>
       <c r="Y529" s="3"/>
-      <c r="Z529" s="3"/>
     </row>
     <row r="530">
       <c r="A530" s="3"/>
@@ -15308,7 +14751,6 @@
       <c r="W530" s="3"/>
       <c r="X530" s="3"/>
       <c r="Y530" s="3"/>
-      <c r="Z530" s="3"/>
     </row>
     <row r="531">
       <c r="A531" s="3"/>
@@ -15336,7 +14778,6 @@
       <c r="W531" s="3"/>
       <c r="X531" s="3"/>
       <c r="Y531" s="3"/>
-      <c r="Z531" s="3"/>
     </row>
     <row r="532">
       <c r="A532" s="3"/>
@@ -15364,7 +14805,6 @@
       <c r="W532" s="3"/>
       <c r="X532" s="3"/>
       <c r="Y532" s="3"/>
-      <c r="Z532" s="3"/>
     </row>
     <row r="533">
       <c r="A533" s="3"/>
@@ -15392,7 +14832,6 @@
       <c r="W533" s="3"/>
       <c r="X533" s="3"/>
       <c r="Y533" s="3"/>
-      <c r="Z533" s="3"/>
     </row>
     <row r="534">
       <c r="A534" s="3"/>
@@ -15420,7 +14859,6 @@
       <c r="W534" s="3"/>
       <c r="X534" s="3"/>
       <c r="Y534" s="3"/>
-      <c r="Z534" s="3"/>
     </row>
     <row r="535">
       <c r="A535" s="3"/>
@@ -15448,7 +14886,6 @@
       <c r="W535" s="3"/>
       <c r="X535" s="3"/>
       <c r="Y535" s="3"/>
-      <c r="Z535" s="3"/>
     </row>
     <row r="536">
       <c r="A536" s="3"/>
@@ -15476,7 +14913,6 @@
       <c r="W536" s="3"/>
       <c r="X536" s="3"/>
       <c r="Y536" s="3"/>
-      <c r="Z536" s="3"/>
     </row>
     <row r="537">
       <c r="A537" s="3"/>
@@ -15504,7 +14940,6 @@
       <c r="W537" s="3"/>
       <c r="X537" s="3"/>
       <c r="Y537" s="3"/>
-      <c r="Z537" s="3"/>
     </row>
     <row r="538">
       <c r="A538" s="3"/>
@@ -15532,7 +14967,6 @@
       <c r="W538" s="3"/>
       <c r="X538" s="3"/>
       <c r="Y538" s="3"/>
-      <c r="Z538" s="3"/>
     </row>
     <row r="539">
       <c r="A539" s="3"/>
@@ -15560,7 +14994,6 @@
       <c r="W539" s="3"/>
       <c r="X539" s="3"/>
       <c r="Y539" s="3"/>
-      <c r="Z539" s="3"/>
     </row>
     <row r="540">
       <c r="A540" s="3"/>
@@ -15588,7 +15021,6 @@
       <c r="W540" s="3"/>
       <c r="X540" s="3"/>
       <c r="Y540" s="3"/>
-      <c r="Z540" s="3"/>
     </row>
     <row r="541">
       <c r="A541" s="3"/>
@@ -15616,7 +15048,6 @@
       <c r="W541" s="3"/>
       <c r="X541" s="3"/>
       <c r="Y541" s="3"/>
-      <c r="Z541" s="3"/>
     </row>
     <row r="542">
       <c r="A542" s="3"/>
@@ -15644,7 +15075,6 @@
       <c r="W542" s="3"/>
       <c r="X542" s="3"/>
       <c r="Y542" s="3"/>
-      <c r="Z542" s="3"/>
     </row>
     <row r="543">
       <c r="A543" s="3"/>
@@ -15672,7 +15102,6 @@
       <c r="W543" s="3"/>
       <c r="X543" s="3"/>
       <c r="Y543" s="3"/>
-      <c r="Z543" s="3"/>
     </row>
     <row r="544">
       <c r="A544" s="3"/>
@@ -15700,7 +15129,6 @@
       <c r="W544" s="3"/>
       <c r="X544" s="3"/>
       <c r="Y544" s="3"/>
-      <c r="Z544" s="3"/>
     </row>
     <row r="545">
       <c r="A545" s="3"/>
@@ -15728,7 +15156,6 @@
       <c r="W545" s="3"/>
       <c r="X545" s="3"/>
       <c r="Y545" s="3"/>
-      <c r="Z545" s="3"/>
     </row>
     <row r="546">
       <c r="A546" s="3"/>
@@ -15756,7 +15183,6 @@
       <c r="W546" s="3"/>
       <c r="X546" s="3"/>
       <c r="Y546" s="3"/>
-      <c r="Z546" s="3"/>
     </row>
     <row r="547">
       <c r="A547" s="3"/>
@@ -15784,7 +15210,6 @@
       <c r="W547" s="3"/>
       <c r="X547" s="3"/>
       <c r="Y547" s="3"/>
-      <c r="Z547" s="3"/>
     </row>
     <row r="548">
       <c r="A548" s="3"/>
@@ -15812,7 +15237,6 @@
       <c r="W548" s="3"/>
       <c r="X548" s="3"/>
       <c r="Y548" s="3"/>
-      <c r="Z548" s="3"/>
     </row>
     <row r="549">
       <c r="A549" s="3"/>
@@ -15840,7 +15264,6 @@
       <c r="W549" s="3"/>
       <c r="X549" s="3"/>
       <c r="Y549" s="3"/>
-      <c r="Z549" s="3"/>
     </row>
     <row r="550">
       <c r="A550" s="3"/>
@@ -15868,7 +15291,6 @@
       <c r="W550" s="3"/>
       <c r="X550" s="3"/>
       <c r="Y550" s="3"/>
-      <c r="Z550" s="3"/>
     </row>
     <row r="551">
       <c r="A551" s="3"/>
@@ -15896,7 +15318,6 @@
       <c r="W551" s="3"/>
       <c r="X551" s="3"/>
       <c r="Y551" s="3"/>
-      <c r="Z551" s="3"/>
     </row>
     <row r="552">
       <c r="A552" s="3"/>
@@ -15924,7 +15345,6 @@
       <c r="W552" s="3"/>
       <c r="X552" s="3"/>
       <c r="Y552" s="3"/>
-      <c r="Z552" s="3"/>
     </row>
     <row r="553">
       <c r="A553" s="3"/>
@@ -15952,7 +15372,6 @@
       <c r="W553" s="3"/>
       <c r="X553" s="3"/>
       <c r="Y553" s="3"/>
-      <c r="Z553" s="3"/>
     </row>
     <row r="554">
       <c r="A554" s="3"/>
@@ -15980,7 +15399,6 @@
       <c r="W554" s="3"/>
       <c r="X554" s="3"/>
       <c r="Y554" s="3"/>
-      <c r="Z554" s="3"/>
     </row>
     <row r="555">
       <c r="A555" s="3"/>
@@ -16008,7 +15426,6 @@
       <c r="W555" s="3"/>
       <c r="X555" s="3"/>
       <c r="Y555" s="3"/>
-      <c r="Z555" s="3"/>
     </row>
     <row r="556">
       <c r="A556" s="3"/>
@@ -16036,7 +15453,6 @@
       <c r="W556" s="3"/>
       <c r="X556" s="3"/>
       <c r="Y556" s="3"/>
-      <c r="Z556" s="3"/>
     </row>
     <row r="557">
       <c r="A557" s="3"/>
@@ -16064,7 +15480,6 @@
       <c r="W557" s="3"/>
       <c r="X557" s="3"/>
       <c r="Y557" s="3"/>
-      <c r="Z557" s="3"/>
     </row>
     <row r="558">
       <c r="A558" s="3"/>
@@ -16092,7 +15507,6 @@
       <c r="W558" s="3"/>
       <c r="X558" s="3"/>
       <c r="Y558" s="3"/>
-      <c r="Z558" s="3"/>
     </row>
     <row r="559">
       <c r="A559" s="3"/>
@@ -16120,7 +15534,6 @@
       <c r="W559" s="3"/>
       <c r="X559" s="3"/>
       <c r="Y559" s="3"/>
-      <c r="Z559" s="3"/>
     </row>
     <row r="560">
       <c r="A560" s="3"/>
@@ -16148,7 +15561,6 @@
       <c r="W560" s="3"/>
       <c r="X560" s="3"/>
       <c r="Y560" s="3"/>
-      <c r="Z560" s="3"/>
     </row>
     <row r="561">
       <c r="A561" s="3"/>
@@ -16176,7 +15588,6 @@
       <c r="W561" s="3"/>
       <c r="X561" s="3"/>
       <c r="Y561" s="3"/>
-      <c r="Z561" s="3"/>
     </row>
     <row r="562">
       <c r="A562" s="3"/>
@@ -16204,7 +15615,6 @@
       <c r="W562" s="3"/>
       <c r="X562" s="3"/>
       <c r="Y562" s="3"/>
-      <c r="Z562" s="3"/>
     </row>
     <row r="563">
       <c r="A563" s="3"/>
@@ -16232,7 +15642,6 @@
       <c r="W563" s="3"/>
       <c r="X563" s="3"/>
       <c r="Y563" s="3"/>
-      <c r="Z563" s="3"/>
     </row>
     <row r="564">
       <c r="A564" s="3"/>
@@ -16260,7 +15669,6 @@
       <c r="W564" s="3"/>
       <c r="X564" s="3"/>
       <c r="Y564" s="3"/>
-      <c r="Z564" s="3"/>
     </row>
     <row r="565">
       <c r="A565" s="3"/>
@@ -16288,7 +15696,6 @@
       <c r="W565" s="3"/>
       <c r="X565" s="3"/>
       <c r="Y565" s="3"/>
-      <c r="Z565" s="3"/>
     </row>
     <row r="566">
       <c r="A566" s="3"/>
@@ -16316,7 +15723,6 @@
       <c r="W566" s="3"/>
       <c r="X566" s="3"/>
       <c r="Y566" s="3"/>
-      <c r="Z566" s="3"/>
     </row>
     <row r="567">
       <c r="A567" s="3"/>
@@ -16344,7 +15750,6 @@
       <c r="W567" s="3"/>
       <c r="X567" s="3"/>
       <c r="Y567" s="3"/>
-      <c r="Z567" s="3"/>
     </row>
     <row r="568">
       <c r="A568" s="3"/>
@@ -16372,7 +15777,6 @@
       <c r="W568" s="3"/>
       <c r="X568" s="3"/>
       <c r="Y568" s="3"/>
-      <c r="Z568" s="3"/>
     </row>
     <row r="569">
       <c r="A569" s="3"/>
@@ -16400,7 +15804,6 @@
       <c r="W569" s="3"/>
       <c r="X569" s="3"/>
       <c r="Y569" s="3"/>
-      <c r="Z569" s="3"/>
     </row>
     <row r="570">
       <c r="A570" s="3"/>
@@ -16428,7 +15831,6 @@
       <c r="W570" s="3"/>
       <c r="X570" s="3"/>
       <c r="Y570" s="3"/>
-      <c r="Z570" s="3"/>
     </row>
     <row r="571">
       <c r="A571" s="3"/>
@@ -16456,7 +15858,6 @@
       <c r="W571" s="3"/>
       <c r="X571" s="3"/>
       <c r="Y571" s="3"/>
-      <c r="Z571" s="3"/>
     </row>
     <row r="572">
       <c r="A572" s="3"/>
@@ -16484,7 +15885,6 @@
       <c r="W572" s="3"/>
       <c r="X572" s="3"/>
       <c r="Y572" s="3"/>
-      <c r="Z572" s="3"/>
     </row>
     <row r="573">
       <c r="A573" s="3"/>
@@ -16512,7 +15912,6 @@
       <c r="W573" s="3"/>
       <c r="X573" s="3"/>
       <c r="Y573" s="3"/>
-      <c r="Z573" s="3"/>
     </row>
     <row r="574">
       <c r="A574" s="3"/>
@@ -16540,7 +15939,6 @@
       <c r="W574" s="3"/>
       <c r="X574" s="3"/>
       <c r="Y574" s="3"/>
-      <c r="Z574" s="3"/>
     </row>
     <row r="575">
       <c r="A575" s="3"/>
@@ -16568,7 +15966,6 @@
       <c r="W575" s="3"/>
       <c r="X575" s="3"/>
       <c r="Y575" s="3"/>
-      <c r="Z575" s="3"/>
     </row>
     <row r="576">
       <c r="A576" s="3"/>
@@ -16596,7 +15993,6 @@
       <c r="W576" s="3"/>
       <c r="X576" s="3"/>
       <c r="Y576" s="3"/>
-      <c r="Z576" s="3"/>
     </row>
     <row r="577">
       <c r="A577" s="3"/>
@@ -16624,7 +16020,6 @@
       <c r="W577" s="3"/>
       <c r="X577" s="3"/>
       <c r="Y577" s="3"/>
-      <c r="Z577" s="3"/>
     </row>
     <row r="578">
       <c r="A578" s="3"/>
@@ -16652,7 +16047,6 @@
       <c r="W578" s="3"/>
       <c r="X578" s="3"/>
       <c r="Y578" s="3"/>
-      <c r="Z578" s="3"/>
     </row>
     <row r="579">
       <c r="A579" s="3"/>
@@ -16680,7 +16074,6 @@
       <c r="W579" s="3"/>
       <c r="X579" s="3"/>
       <c r="Y579" s="3"/>
-      <c r="Z579" s="3"/>
     </row>
     <row r="580">
       <c r="A580" s="3"/>
@@ -16708,7 +16101,6 @@
       <c r="W580" s="3"/>
       <c r="X580" s="3"/>
       <c r="Y580" s="3"/>
-      <c r="Z580" s="3"/>
     </row>
     <row r="581">
       <c r="A581" s="3"/>
@@ -16736,7 +16128,6 @@
       <c r="W581" s="3"/>
       <c r="X581" s="3"/>
       <c r="Y581" s="3"/>
-      <c r="Z581" s="3"/>
     </row>
     <row r="582">
       <c r="A582" s="3"/>
@@ -16764,7 +16155,6 @@
       <c r="W582" s="3"/>
       <c r="X582" s="3"/>
       <c r="Y582" s="3"/>
-      <c r="Z582" s="3"/>
     </row>
     <row r="583">
       <c r="A583" s="3"/>
@@ -16792,7 +16182,6 @@
       <c r="W583" s="3"/>
       <c r="X583" s="3"/>
       <c r="Y583" s="3"/>
-      <c r="Z583" s="3"/>
     </row>
     <row r="584">
       <c r="A584" s="3"/>
@@ -16820,7 +16209,6 @@
       <c r="W584" s="3"/>
       <c r="X584" s="3"/>
       <c r="Y584" s="3"/>
-      <c r="Z584" s="3"/>
     </row>
     <row r="585">
       <c r="A585" s="3"/>
@@ -16848,7 +16236,6 @@
       <c r="W585" s="3"/>
       <c r="X585" s="3"/>
       <c r="Y585" s="3"/>
-      <c r="Z585" s="3"/>
     </row>
     <row r="586">
       <c r="A586" s="3"/>
@@ -16876,7 +16263,6 @@
       <c r="W586" s="3"/>
       <c r="X586" s="3"/>
       <c r="Y586" s="3"/>
-      <c r="Z586" s="3"/>
     </row>
     <row r="587">
       <c r="A587" s="3"/>
@@ -16904,7 +16290,6 @@
       <c r="W587" s="3"/>
       <c r="X587" s="3"/>
       <c r="Y587" s="3"/>
-      <c r="Z587" s="3"/>
     </row>
     <row r="588">
       <c r="A588" s="3"/>
@@ -16932,7 +16317,6 @@
       <c r="W588" s="3"/>
       <c r="X588" s="3"/>
       <c r="Y588" s="3"/>
-      <c r="Z588" s="3"/>
     </row>
     <row r="589">
       <c r="A589" s="3"/>
@@ -16960,7 +16344,6 @@
       <c r="W589" s="3"/>
       <c r="X589" s="3"/>
       <c r="Y589" s="3"/>
-      <c r="Z589" s="3"/>
     </row>
     <row r="590">
       <c r="A590" s="3"/>
@@ -16988,7 +16371,6 @@
       <c r="W590" s="3"/>
       <c r="X590" s="3"/>
       <c r="Y590" s="3"/>
-      <c r="Z590" s="3"/>
     </row>
     <row r="591">
       <c r="A591" s="3"/>
@@ -17016,7 +16398,6 @@
       <c r="W591" s="3"/>
       <c r="X591" s="3"/>
       <c r="Y591" s="3"/>
-      <c r="Z591" s="3"/>
     </row>
     <row r="592">
       <c r="A592" s="3"/>
@@ -17044,7 +16425,6 @@
       <c r="W592" s="3"/>
       <c r="X592" s="3"/>
       <c r="Y592" s="3"/>
-      <c r="Z592" s="3"/>
     </row>
     <row r="593">
       <c r="A593" s="3"/>
@@ -17072,7 +16452,6 @@
       <c r="W593" s="3"/>
       <c r="X593" s="3"/>
       <c r="Y593" s="3"/>
-      <c r="Z593" s="3"/>
     </row>
     <row r="594">
       <c r="A594" s="3"/>
@@ -17100,7 +16479,6 @@
       <c r="W594" s="3"/>
       <c r="X594" s="3"/>
       <c r="Y594" s="3"/>
-      <c r="Z594" s="3"/>
     </row>
     <row r="595">
       <c r="A595" s="3"/>
@@ -17128,7 +16506,6 @@
       <c r="W595" s="3"/>
       <c r="X595" s="3"/>
       <c r="Y595" s="3"/>
-      <c r="Z595" s="3"/>
     </row>
     <row r="596">
       <c r="A596" s="3"/>
@@ -17156,7 +16533,6 @@
       <c r="W596" s="3"/>
       <c r="X596" s="3"/>
       <c r="Y596" s="3"/>
-      <c r="Z596" s="3"/>
     </row>
     <row r="597">
       <c r="A597" s="3"/>
@@ -17184,7 +16560,6 @@
       <c r="W597" s="3"/>
       <c r="X597" s="3"/>
       <c r="Y597" s="3"/>
-      <c r="Z597" s="3"/>
     </row>
     <row r="598">
       <c r="A598" s="3"/>
@@ -17212,7 +16587,6 @@
       <c r="W598" s="3"/>
       <c r="X598" s="3"/>
       <c r="Y598" s="3"/>
-      <c r="Z598" s="3"/>
     </row>
     <row r="599">
       <c r="A599" s="3"/>
@@ -17240,7 +16614,6 @@
       <c r="W599" s="3"/>
       <c r="X599" s="3"/>
       <c r="Y599" s="3"/>
-      <c r="Z599" s="3"/>
     </row>
     <row r="600">
       <c r="A600" s="3"/>
@@ -17268,7 +16641,6 @@
       <c r="W600" s="3"/>
       <c r="X600" s="3"/>
       <c r="Y600" s="3"/>
-      <c r="Z600" s="3"/>
     </row>
     <row r="601">
       <c r="A601" s="3"/>
@@ -17296,7 +16668,6 @@
       <c r="W601" s="3"/>
       <c r="X601" s="3"/>
       <c r="Y601" s="3"/>
-      <c r="Z601" s="3"/>
     </row>
     <row r="602">
       <c r="A602" s="3"/>
@@ -17324,7 +16695,6 @@
       <c r="W602" s="3"/>
       <c r="X602" s="3"/>
       <c r="Y602" s="3"/>
-      <c r="Z602" s="3"/>
     </row>
     <row r="603">
       <c r="A603" s="3"/>
@@ -17352,7 +16722,6 @@
       <c r="W603" s="3"/>
       <c r="X603" s="3"/>
       <c r="Y603" s="3"/>
-      <c r="Z603" s="3"/>
     </row>
     <row r="604">
       <c r="A604" s="3"/>
@@ -17380,7 +16749,6 @@
       <c r="W604" s="3"/>
       <c r="X604" s="3"/>
       <c r="Y604" s="3"/>
-      <c r="Z604" s="3"/>
     </row>
     <row r="605">
       <c r="A605" s="3"/>
@@ -17408,7 +16776,6 @@
       <c r="W605" s="3"/>
       <c r="X605" s="3"/>
       <c r="Y605" s="3"/>
-      <c r="Z605" s="3"/>
     </row>
     <row r="606">
       <c r="A606" s="3"/>
@@ -17436,7 +16803,6 @@
       <c r="W606" s="3"/>
       <c r="X606" s="3"/>
       <c r="Y606" s="3"/>
-      <c r="Z606" s="3"/>
     </row>
     <row r="607">
       <c r="A607" s="3"/>
@@ -17464,7 +16830,6 @@
       <c r="W607" s="3"/>
       <c r="X607" s="3"/>
       <c r="Y607" s="3"/>
-      <c r="Z607" s="3"/>
     </row>
     <row r="608">
       <c r="A608" s="3"/>
@@ -17492,7 +16857,6 @@
       <c r="W608" s="3"/>
       <c r="X608" s="3"/>
       <c r="Y608" s="3"/>
-      <c r="Z608" s="3"/>
     </row>
     <row r="609">
       <c r="A609" s="3"/>
@@ -17520,7 +16884,6 @@
       <c r="W609" s="3"/>
       <c r="X609" s="3"/>
       <c r="Y609" s="3"/>
-      <c r="Z609" s="3"/>
     </row>
     <row r="610">
       <c r="A610" s="3"/>
@@ -17548,7 +16911,6 @@
       <c r="W610" s="3"/>
       <c r="X610" s="3"/>
       <c r="Y610" s="3"/>
-      <c r="Z610" s="3"/>
     </row>
     <row r="611">
       <c r="A611" s="3"/>
@@ -17576,7 +16938,6 @@
       <c r="W611" s="3"/>
       <c r="X611" s="3"/>
       <c r="Y611" s="3"/>
-      <c r="Z611" s="3"/>
     </row>
     <row r="612">
       <c r="A612" s="3"/>
@@ -17604,7 +16965,6 @@
       <c r="W612" s="3"/>
       <c r="X612" s="3"/>
       <c r="Y612" s="3"/>
-      <c r="Z612" s="3"/>
     </row>
     <row r="613">
       <c r="A613" s="3"/>
@@ -17632,7 +16992,6 @@
       <c r="W613" s="3"/>
       <c r="X613" s="3"/>
       <c r="Y613" s="3"/>
-      <c r="Z613" s="3"/>
     </row>
     <row r="614">
       <c r="A614" s="3"/>
@@ -17660,7 +17019,6 @@
       <c r="W614" s="3"/>
       <c r="X614" s="3"/>
       <c r="Y614" s="3"/>
-      <c r="Z614" s="3"/>
     </row>
     <row r="615">
       <c r="A615" s="3"/>
@@ -17688,7 +17046,6 @@
       <c r="W615" s="3"/>
       <c r="X615" s="3"/>
       <c r="Y615" s="3"/>
-      <c r="Z615" s="3"/>
     </row>
     <row r="616">
       <c r="A616" s="3"/>
@@ -17716,7 +17073,6 @@
       <c r="W616" s="3"/>
       <c r="X616" s="3"/>
       <c r="Y616" s="3"/>
-      <c r="Z616" s="3"/>
     </row>
     <row r="617">
       <c r="A617" s="3"/>
@@ -17744,7 +17100,6 @@
       <c r="W617" s="3"/>
       <c r="X617" s="3"/>
       <c r="Y617" s="3"/>
-      <c r="Z617" s="3"/>
     </row>
     <row r="618">
       <c r="A618" s="3"/>
@@ -17772,7 +17127,6 @@
       <c r="W618" s="3"/>
       <c r="X618" s="3"/>
       <c r="Y618" s="3"/>
-      <c r="Z618" s="3"/>
     </row>
     <row r="619">
       <c r="A619" s="3"/>
@@ -17800,7 +17154,6 @@
       <c r="W619" s="3"/>
       <c r="X619" s="3"/>
       <c r="Y619" s="3"/>
-      <c r="Z619" s="3"/>
     </row>
     <row r="620">
       <c r="A620" s="3"/>
@@ -17828,7 +17181,6 @@
       <c r="W620" s="3"/>
       <c r="X620" s="3"/>
       <c r="Y620" s="3"/>
-      <c r="Z620" s="3"/>
     </row>
     <row r="621">
       <c r="A621" s="3"/>
@@ -17856,7 +17208,6 @@
       <c r="W621" s="3"/>
       <c r="X621" s="3"/>
       <c r="Y621" s="3"/>
-      <c r="Z621" s="3"/>
     </row>
     <row r="622">
       <c r="A622" s="3"/>
@@ -17884,7 +17235,6 @@
       <c r="W622" s="3"/>
       <c r="X622" s="3"/>
       <c r="Y622" s="3"/>
-      <c r="Z622" s="3"/>
     </row>
     <row r="623">
       <c r="A623" s="3"/>
@@ -17912,7 +17262,6 @@
       <c r="W623" s="3"/>
       <c r="X623" s="3"/>
       <c r="Y623" s="3"/>
-      <c r="Z623" s="3"/>
     </row>
     <row r="624">
       <c r="A624" s="3"/>
@@ -17940,7 +17289,6 @@
       <c r="W624" s="3"/>
       <c r="X624" s="3"/>
       <c r="Y624" s="3"/>
-      <c r="Z624" s="3"/>
     </row>
     <row r="625">
       <c r="A625" s="3"/>
@@ -17968,7 +17316,6 @@
       <c r="W625" s="3"/>
       <c r="X625" s="3"/>
       <c r="Y625" s="3"/>
-      <c r="Z625" s="3"/>
     </row>
     <row r="626">
       <c r="A626" s="3"/>
@@ -17996,7 +17343,6 @@
       <c r="W626" s="3"/>
       <c r="X626" s="3"/>
       <c r="Y626" s="3"/>
-      <c r="Z626" s="3"/>
     </row>
     <row r="627">
       <c r="A627" s="3"/>
@@ -18024,7 +17370,6 @@
       <c r="W627" s="3"/>
       <c r="X627" s="3"/>
       <c r="Y627" s="3"/>
-      <c r="Z627" s="3"/>
     </row>
     <row r="628">
       <c r="A628" s="3"/>
@@ -18052,7 +17397,6 @@
       <c r="W628" s="3"/>
       <c r="X628" s="3"/>
       <c r="Y628" s="3"/>
-      <c r="Z628" s="3"/>
     </row>
     <row r="629">
       <c r="A629" s="3"/>
@@ -18080,7 +17424,6 @@
       <c r="W629" s="3"/>
       <c r="X629" s="3"/>
       <c r="Y629" s="3"/>
-      <c r="Z629" s="3"/>
     </row>
     <row r="630">
       <c r="A630" s="3"/>
@@ -18108,7 +17451,6 @@
       <c r="W630" s="3"/>
       <c r="X630" s="3"/>
       <c r="Y630" s="3"/>
-      <c r="Z630" s="3"/>
     </row>
     <row r="631">
       <c r="A631" s="3"/>
@@ -18136,7 +17478,6 @@
       <c r="W631" s="3"/>
       <c r="X631" s="3"/>
       <c r="Y631" s="3"/>
-      <c r="Z631" s="3"/>
     </row>
     <row r="632">
       <c r="A632" s="3"/>
@@ -18164,7 +17505,6 @@
       <c r="W632" s="3"/>
       <c r="X632" s="3"/>
       <c r="Y632" s="3"/>
-      <c r="Z632" s="3"/>
     </row>
     <row r="633">
       <c r="A633" s="3"/>
@@ -18192,7 +17532,6 @@
       <c r="W633" s="3"/>
       <c r="X633" s="3"/>
       <c r="Y633" s="3"/>
-      <c r="Z633" s="3"/>
     </row>
     <row r="634">
       <c r="A634" s="3"/>
@@ -18220,7 +17559,6 @@
       <c r="W634" s="3"/>
       <c r="X634" s="3"/>
       <c r="Y634" s="3"/>
-      <c r="Z634" s="3"/>
     </row>
     <row r="635">
       <c r="A635" s="3"/>
@@ -18248,7 +17586,6 @@
       <c r="W635" s="3"/>
       <c r="X635" s="3"/>
       <c r="Y635" s="3"/>
-      <c r="Z635" s="3"/>
     </row>
     <row r="636">
       <c r="A636" s="3"/>
@@ -18276,7 +17613,6 @@
       <c r="W636" s="3"/>
       <c r="X636" s="3"/>
       <c r="Y636" s="3"/>
-      <c r="Z636" s="3"/>
     </row>
     <row r="637">
       <c r="A637" s="3"/>
@@ -18304,7 +17640,6 @@
       <c r="W637" s="3"/>
       <c r="X637" s="3"/>
       <c r="Y637" s="3"/>
-      <c r="Z637" s="3"/>
     </row>
     <row r="638">
       <c r="A638" s="3"/>
@@ -18332,7 +17667,6 @@
       <c r="W638" s="3"/>
       <c r="X638" s="3"/>
       <c r="Y638" s="3"/>
-      <c r="Z638" s="3"/>
     </row>
     <row r="639">
       <c r="A639" s="3"/>
@@ -18360,7 +17694,6 @@
       <c r="W639" s="3"/>
       <c r="X639" s="3"/>
       <c r="Y639" s="3"/>
-      <c r="Z639" s="3"/>
     </row>
     <row r="640">
       <c r="A640" s="3"/>
@@ -18388,7 +17721,6 @@
       <c r="W640" s="3"/>
       <c r="X640" s="3"/>
       <c r="Y640" s="3"/>
-      <c r="Z640" s="3"/>
     </row>
     <row r="641">
       <c r="A641" s="3"/>
@@ -18416,7 +17748,6 @@
       <c r="W641" s="3"/>
       <c r="X641" s="3"/>
       <c r="Y641" s="3"/>
-      <c r="Z641" s="3"/>
     </row>
     <row r="642">
       <c r="A642" s="3"/>
@@ -18444,7 +17775,6 @@
       <c r="W642" s="3"/>
       <c r="X642" s="3"/>
       <c r="Y642" s="3"/>
-      <c r="Z642" s="3"/>
     </row>
     <row r="643">
       <c r="A643" s="3"/>
@@ -18472,7 +17802,6 @@
       <c r="W643" s="3"/>
       <c r="X643" s="3"/>
       <c r="Y643" s="3"/>
-      <c r="Z643" s="3"/>
     </row>
     <row r="644">
       <c r="A644" s="3"/>
@@ -18500,7 +17829,6 @@
       <c r="W644" s="3"/>
       <c r="X644" s="3"/>
       <c r="Y644" s="3"/>
-      <c r="Z644" s="3"/>
     </row>
     <row r="645">
       <c r="A645" s="3"/>
@@ -18528,7 +17856,6 @@
       <c r="W645" s="3"/>
       <c r="X645" s="3"/>
       <c r="Y645" s="3"/>
-      <c r="Z645" s="3"/>
     </row>
     <row r="646">
       <c r="A646" s="3"/>
@@ -18556,7 +17883,6 @@
       <c r="W646" s="3"/>
       <c r="X646" s="3"/>
       <c r="Y646" s="3"/>
-      <c r="Z646" s="3"/>
     </row>
     <row r="647">
       <c r="A647" s="3"/>
@@ -18584,7 +17910,6 @@
       <c r="W647" s="3"/>
       <c r="X647" s="3"/>
       <c r="Y647" s="3"/>
-      <c r="Z647" s="3"/>
     </row>
     <row r="648">
       <c r="A648" s="3"/>
@@ -18612,7 +17937,6 @@
       <c r="W648" s="3"/>
       <c r="X648" s="3"/>
       <c r="Y648" s="3"/>
-      <c r="Z648" s="3"/>
     </row>
     <row r="649">
       <c r="A649" s="3"/>
@@ -18640,7 +17964,6 @@
       <c r="W649" s="3"/>
       <c r="X649" s="3"/>
       <c r="Y649" s="3"/>
-      <c r="Z649" s="3"/>
     </row>
     <row r="650">
       <c r="A650" s="3"/>
@@ -18668,7 +17991,6 @@
       <c r="W650" s="3"/>
       <c r="X650" s="3"/>
       <c r="Y650" s="3"/>
-      <c r="Z650" s="3"/>
     </row>
     <row r="651">
       <c r="A651" s="3"/>
@@ -18696,7 +18018,6 @@
       <c r="W651" s="3"/>
       <c r="X651" s="3"/>
       <c r="Y651" s="3"/>
-      <c r="Z651" s="3"/>
     </row>
     <row r="652">
       <c r="A652" s="3"/>
@@ -18724,7 +18045,6 @@
       <c r="W652" s="3"/>
       <c r="X652" s="3"/>
       <c r="Y652" s="3"/>
-      <c r="Z652" s="3"/>
     </row>
     <row r="653">
       <c r="A653" s="3"/>
@@ -18752,7 +18072,6 @@
       <c r="W653" s="3"/>
       <c r="X653" s="3"/>
       <c r="Y653" s="3"/>
-      <c r="Z653" s="3"/>
     </row>
     <row r="654">
       <c r="A654" s="3"/>
@@ -18780,7 +18099,6 @@
       <c r="W654" s="3"/>
       <c r="X654" s="3"/>
       <c r="Y654" s="3"/>
-      <c r="Z654" s="3"/>
     </row>
     <row r="655">
       <c r="A655" s="3"/>
@@ -18808,7 +18126,6 @@
       <c r="W655" s="3"/>
       <c r="X655" s="3"/>
       <c r="Y655" s="3"/>
-      <c r="Z655" s="3"/>
     </row>
     <row r="656">
       <c r="A656" s="3"/>
@@ -18836,7 +18153,6 @@
       <c r="W656" s="3"/>
       <c r="X656" s="3"/>
       <c r="Y656" s="3"/>
-      <c r="Z656" s="3"/>
     </row>
     <row r="657">
       <c r="A657" s="3"/>
@@ -18864,7 +18180,6 @@
       <c r="W657" s="3"/>
       <c r="X657" s="3"/>
       <c r="Y657" s="3"/>
-      <c r="Z657" s="3"/>
     </row>
     <row r="658">
       <c r="A658" s="3"/>
@@ -18892,7 +18207,6 @@
       <c r="W658" s="3"/>
       <c r="X658" s="3"/>
       <c r="Y658" s="3"/>
-      <c r="Z658" s="3"/>
     </row>
     <row r="659">
       <c r="A659" s="3"/>
@@ -18920,7 +18234,6 @@
       <c r="W659" s="3"/>
       <c r="X659" s="3"/>
       <c r="Y659" s="3"/>
-      <c r="Z659" s="3"/>
     </row>
     <row r="660">
       <c r="A660" s="3"/>
@@ -18948,7 +18261,6 @@
       <c r="W660" s="3"/>
       <c r="X660" s="3"/>
       <c r="Y660" s="3"/>
-      <c r="Z660" s="3"/>
     </row>
     <row r="661">
       <c r="A661" s="3"/>
@@ -18976,7 +18288,6 @@
       <c r="W661" s="3"/>
       <c r="X661" s="3"/>
       <c r="Y661" s="3"/>
-      <c r="Z661" s="3"/>
     </row>
     <row r="662">
       <c r="A662" s="3"/>
@@ -19004,7 +18315,6 @@
       <c r="W662" s="3"/>
       <c r="X662" s="3"/>
       <c r="Y662" s="3"/>
-      <c r="Z662" s="3"/>
     </row>
     <row r="663">
       <c r="A663" s="3"/>
@@ -19032,7 +18342,6 @@
       <c r="W663" s="3"/>
       <c r="X663" s="3"/>
       <c r="Y663" s="3"/>
-      <c r="Z663" s="3"/>
     </row>
     <row r="664">
       <c r="A664" s="3"/>
@@ -19060,7 +18369,6 @@
       <c r="W664" s="3"/>
       <c r="X664" s="3"/>
       <c r="Y664" s="3"/>
-      <c r="Z664" s="3"/>
     </row>
     <row r="665">
       <c r="A665" s="3"/>
@@ -19088,7 +18396,6 @@
       <c r="W665" s="3"/>
       <c r="X665" s="3"/>
       <c r="Y665" s="3"/>
-      <c r="Z665" s="3"/>
     </row>
     <row r="666">
       <c r="A666" s="3"/>
@@ -19116,7 +18423,6 @@
       <c r="W666" s="3"/>
       <c r="X666" s="3"/>
       <c r="Y666" s="3"/>
-      <c r="Z666" s="3"/>
     </row>
     <row r="667">
       <c r="A667" s="3"/>
@@ -19144,7 +18450,6 @@
       <c r="W667" s="3"/>
       <c r="X667" s="3"/>
       <c r="Y667" s="3"/>
-      <c r="Z667" s="3"/>
     </row>
     <row r="668">
       <c r="A668" s="3"/>
@@ -19172,7 +18477,6 @@
       <c r="W668" s="3"/>
       <c r="X668" s="3"/>
       <c r="Y668" s="3"/>
-      <c r="Z668" s="3"/>
     </row>
     <row r="669">
       <c r="A669" s="3"/>
@@ -19200,7 +18504,6 @@
       <c r="W669" s="3"/>
       <c r="X669" s="3"/>
       <c r="Y669" s="3"/>
-      <c r="Z669" s="3"/>
     </row>
     <row r="670">
       <c r="A670" s="3"/>
@@ -19228,7 +18531,6 @@
       <c r="W670" s="3"/>
       <c r="X670" s="3"/>
       <c r="Y670" s="3"/>
-      <c r="Z670" s="3"/>
     </row>
     <row r="671">
       <c r="A671" s="3"/>
@@ -19256,7 +18558,6 @@
       <c r="W671" s="3"/>
       <c r="X671" s="3"/>
       <c r="Y671" s="3"/>
-      <c r="Z671" s="3"/>
     </row>
     <row r="672">
       <c r="A672" s="3"/>
@@ -19284,7 +18585,6 @@
       <c r="W672" s="3"/>
       <c r="X672" s="3"/>
       <c r="Y672" s="3"/>
-      <c r="Z672" s="3"/>
     </row>
     <row r="673">
       <c r="A673" s="3"/>
@@ -19312,7 +18612,6 @@
       <c r="W673" s="3"/>
       <c r="X673" s="3"/>
       <c r="Y673" s="3"/>
-      <c r="Z673" s="3"/>
     </row>
     <row r="674">
       <c r="A674" s="3"/>
@@ -19340,7 +18639,6 @@
       <c r="W674" s="3"/>
       <c r="X674" s="3"/>
       <c r="Y674" s="3"/>
-      <c r="Z674" s="3"/>
     </row>
     <row r="675">
       <c r="A675" s="3"/>
@@ -19368,7 +18666,6 @@
       <c r="W675" s="3"/>
       <c r="X675" s="3"/>
       <c r="Y675" s="3"/>
-      <c r="Z675" s="3"/>
     </row>
     <row r="676">
       <c r="A676" s="3"/>
@@ -19396,7 +18693,6 @@
       <c r="W676" s="3"/>
       <c r="X676" s="3"/>
       <c r="Y676" s="3"/>
-      <c r="Z676" s="3"/>
     </row>
     <row r="677">
       <c r="A677" s="3"/>
@@ -19424,7 +18720,6 @@
       <c r="W677" s="3"/>
       <c r="X677" s="3"/>
       <c r="Y677" s="3"/>
-      <c r="Z677" s="3"/>
     </row>
     <row r="678">
       <c r="A678" s="3"/>
@@ -19452,7 +18747,6 @@
       <c r="W678" s="3"/>
       <c r="X678" s="3"/>
       <c r="Y678" s="3"/>
-      <c r="Z678" s="3"/>
     </row>
     <row r="679">
       <c r="A679" s="3"/>
@@ -19480,7 +18774,6 @@
       <c r="W679" s="3"/>
       <c r="X679" s="3"/>
       <c r="Y679" s="3"/>
-      <c r="Z679" s="3"/>
     </row>
     <row r="680">
       <c r="A680" s="3"/>
@@ -19508,7 +18801,6 @@
       <c r="W680" s="3"/>
       <c r="X680" s="3"/>
       <c r="Y680" s="3"/>
-      <c r="Z680" s="3"/>
     </row>
     <row r="681">
       <c r="A681" s="3"/>
@@ -19536,7 +18828,6 @@
       <c r="W681" s="3"/>
       <c r="X681" s="3"/>
       <c r="Y681" s="3"/>
-      <c r="Z681" s="3"/>
     </row>
     <row r="682">
       <c r="A682" s="3"/>
@@ -19564,7 +18855,6 @@
       <c r="W682" s="3"/>
       <c r="X682" s="3"/>
       <c r="Y682" s="3"/>
-      <c r="Z682" s="3"/>
     </row>
     <row r="683">
       <c r="A683" s="3"/>
@@ -19592,7 +18882,6 @@
       <c r="W683" s="3"/>
       <c r="X683" s="3"/>
       <c r="Y683" s="3"/>
-      <c r="Z683" s="3"/>
     </row>
     <row r="684">
       <c r="A684" s="3"/>
@@ -19620,7 +18909,6 @@
       <c r="W684" s="3"/>
       <c r="X684" s="3"/>
       <c r="Y684" s="3"/>
-      <c r="Z684" s="3"/>
     </row>
     <row r="685">
       <c r="A685" s="3"/>
@@ -19648,7 +18936,6 @@
       <c r="W685" s="3"/>
       <c r="X685" s="3"/>
       <c r="Y685" s="3"/>
-      <c r="Z685" s="3"/>
     </row>
     <row r="686">
       <c r="A686" s="3"/>
@@ -19676,7 +18963,6 @@
       <c r="W686" s="3"/>
       <c r="X686" s="3"/>
       <c r="Y686" s="3"/>
-      <c r="Z686" s="3"/>
     </row>
     <row r="687">
       <c r="A687" s="3"/>
@@ -19704,7 +18990,6 @@
       <c r="W687" s="3"/>
       <c r="X687" s="3"/>
       <c r="Y687" s="3"/>
-      <c r="Z687" s="3"/>
     </row>
     <row r="688">
       <c r="A688" s="3"/>
@@ -19732,7 +19017,6 @@
       <c r="W688" s="3"/>
       <c r="X688" s="3"/>
       <c r="Y688" s="3"/>
-      <c r="Z688" s="3"/>
     </row>
     <row r="689">
       <c r="A689" s="3"/>
@@ -19760,7 +19044,6 @@
       <c r="W689" s="3"/>
       <c r="X689" s="3"/>
       <c r="Y689" s="3"/>
-      <c r="Z689" s="3"/>
     </row>
     <row r="690">
       <c r="A690" s="3"/>
@@ -19788,7 +19071,6 @@
       <c r="W690" s="3"/>
       <c r="X690" s="3"/>
       <c r="Y690" s="3"/>
-      <c r="Z690" s="3"/>
     </row>
     <row r="691">
       <c r="A691" s="3"/>
@@ -19816,7 +19098,6 @@
       <c r="W691" s="3"/>
       <c r="X691" s="3"/>
       <c r="Y691" s="3"/>
-      <c r="Z691" s="3"/>
     </row>
     <row r="692">
       <c r="A692" s="3"/>
@@ -19844,7 +19125,6 @@
       <c r="W692" s="3"/>
       <c r="X692" s="3"/>
       <c r="Y692" s="3"/>
-      <c r="Z692" s="3"/>
     </row>
     <row r="693">
       <c r="A693" s="3"/>
@@ -19872,7 +19152,6 @@
       <c r="W693" s="3"/>
       <c r="X693" s="3"/>
       <c r="Y693" s="3"/>
-      <c r="Z693" s="3"/>
     </row>
     <row r="694">
       <c r="A694" s="3"/>
@@ -19900,7 +19179,6 @@
       <c r="W694" s="3"/>
       <c r="X694" s="3"/>
       <c r="Y694" s="3"/>
-      <c r="Z694" s="3"/>
     </row>
     <row r="695">
       <c r="A695" s="3"/>
@@ -19928,7 +19206,6 @@
       <c r="W695" s="3"/>
       <c r="X695" s="3"/>
       <c r="Y695" s="3"/>
-      <c r="Z695" s="3"/>
     </row>
     <row r="696">
       <c r="A696" s="3"/>
@@ -19956,7 +19233,6 @@
       <c r="W696" s="3"/>
       <c r="X696" s="3"/>
       <c r="Y696" s="3"/>
-      <c r="Z696" s="3"/>
     </row>
     <row r="697">
       <c r="A697" s="3"/>
@@ -19984,7 +19260,6 @@
       <c r="W697" s="3"/>
       <c r="X697" s="3"/>
       <c r="Y697" s="3"/>
-      <c r="Z697" s="3"/>
     </row>
     <row r="698">
       <c r="A698" s="3"/>
@@ -20012,7 +19287,6 @@
       <c r="W698" s="3"/>
       <c r="X698" s="3"/>
       <c r="Y698" s="3"/>
-      <c r="Z698" s="3"/>
     </row>
     <row r="699">
       <c r="A699" s="3"/>
@@ -20040,7 +19314,6 @@
       <c r="W699" s="3"/>
       <c r="X699" s="3"/>
       <c r="Y699" s="3"/>
-      <c r="Z699" s="3"/>
     </row>
     <row r="700">
       <c r="A700" s="3"/>
@@ -20068,7 +19341,6 @@
       <c r="W700" s="3"/>
       <c r="X700" s="3"/>
       <c r="Y700" s="3"/>
-      <c r="Z700" s="3"/>
     </row>
     <row r="701">
       <c r="A701" s="3"/>
@@ -20096,7 +19368,6 @@
       <c r="W701" s="3"/>
       <c r="X701" s="3"/>
       <c r="Y701" s="3"/>
-      <c r="Z701" s="3"/>
     </row>
     <row r="702">
       <c r="A702" s="3"/>
@@ -20124,7 +19395,6 @@
       <c r="W702" s="3"/>
       <c r="X702" s="3"/>
       <c r="Y702" s="3"/>
-      <c r="Z702" s="3"/>
     </row>
     <row r="703">
       <c r="A703" s="3"/>
@@ -20152,7 +19422,6 @@
       <c r="W703" s="3"/>
       <c r="X703" s="3"/>
       <c r="Y703" s="3"/>
-      <c r="Z703" s="3"/>
     </row>
     <row r="704">
       <c r="A704" s="3"/>
@@ -20180,7 +19449,6 @@
       <c r="W704" s="3"/>
       <c r="X704" s="3"/>
       <c r="Y704" s="3"/>
-      <c r="Z704" s="3"/>
     </row>
     <row r="705">
       <c r="A705" s="3"/>
@@ -20208,7 +19476,6 @@
       <c r="W705" s="3"/>
       <c r="X705" s="3"/>
       <c r="Y705" s="3"/>
-      <c r="Z705" s="3"/>
     </row>
     <row r="706">
       <c r="A706" s="3"/>
@@ -20236,7 +19503,6 @@
       <c r="W706" s="3"/>
       <c r="X706" s="3"/>
       <c r="Y706" s="3"/>
-      <c r="Z706" s="3"/>
     </row>
     <row r="707">
       <c r="A707" s="3"/>
@@ -20264,7 +19530,6 @@
       <c r="W707" s="3"/>
       <c r="X707" s="3"/>
       <c r="Y707" s="3"/>
-      <c r="Z707" s="3"/>
     </row>
     <row r="708">
       <c r="A708" s="3"/>
@@ -20292,7 +19557,6 @@
       <c r="W708" s="3"/>
       <c r="X708" s="3"/>
       <c r="Y708" s="3"/>
-      <c r="Z708" s="3"/>
     </row>
     <row r="709">
       <c r="A709" s="3"/>
@@ -20320,7 +19584,6 @@
       <c r="W709" s="3"/>
       <c r="X709" s="3"/>
       <c r="Y709" s="3"/>
-      <c r="Z709" s="3"/>
     </row>
     <row r="710">
       <c r="A710" s="3"/>
@@ -20348,7 +19611,6 @@
       <c r="W710" s="3"/>
       <c r="X710" s="3"/>
       <c r="Y710" s="3"/>
-      <c r="Z710" s="3"/>
     </row>
     <row r="711">
       <c r="A711" s="3"/>
@@ -20376,7 +19638,6 @@
       <c r="W711" s="3"/>
       <c r="X711" s="3"/>
       <c r="Y711" s="3"/>
-      <c r="Z711" s="3"/>
     </row>
     <row r="712">
       <c r="A712" s="3"/>
@@ -20404,7 +19665,6 @@
       <c r="W712" s="3"/>
       <c r="X712" s="3"/>
       <c r="Y712" s="3"/>
-      <c r="Z712" s="3"/>
     </row>
     <row r="713">
       <c r="A713" s="3"/>
@@ -20432,7 +19692,6 @@
       <c r="W713" s="3"/>
       <c r="X713" s="3"/>
       <c r="Y713" s="3"/>
-      <c r="Z713" s="3"/>
     </row>
     <row r="714">
       <c r="A714" s="3"/>
@@ -20460,7 +19719,6 @@
       <c r="W714" s="3"/>
       <c r="X714" s="3"/>
       <c r="Y714" s="3"/>
-      <c r="Z714" s="3"/>
     </row>
     <row r="715">
       <c r="A715" s="3"/>
@@ -20488,7 +19746,6 @@
       <c r="W715" s="3"/>
       <c r="X715" s="3"/>
       <c r="Y715" s="3"/>
-      <c r="Z715" s="3"/>
     </row>
     <row r="716">
       <c r="A716" s="3"/>
@@ -20516,7 +19773,6 @@
       <c r="W716" s="3"/>
       <c r="X716" s="3"/>
       <c r="Y716" s="3"/>
-      <c r="Z716" s="3"/>
     </row>
     <row r="717">
       <c r="A717" s="3"/>
@@ -20544,7 +19800,6 @@
       <c r="W717" s="3"/>
       <c r="X717" s="3"/>
       <c r="Y717" s="3"/>
-      <c r="Z717" s="3"/>
     </row>
     <row r="718">
       <c r="A718" s="3"/>
@@ -20572,7 +19827,6 @@
       <c r="W718" s="3"/>
       <c r="X718" s="3"/>
       <c r="Y718" s="3"/>
-      <c r="Z718" s="3"/>
     </row>
     <row r="719">
       <c r="A719" s="3"/>
@@ -20600,7 +19854,6 @@
       <c r="W719" s="3"/>
       <c r="X719" s="3"/>
       <c r="Y719" s="3"/>
-      <c r="Z719" s="3"/>
     </row>
     <row r="720">
       <c r="A720" s="3"/>
@@ -20628,7 +19881,6 @@
       <c r="W720" s="3"/>
       <c r="X720" s="3"/>
       <c r="Y720" s="3"/>
-      <c r="Z720" s="3"/>
     </row>
     <row r="721">
       <c r="A721" s="3"/>
@@ -20656,7 +19908,6 @@
       <c r="W721" s="3"/>
       <c r="X721" s="3"/>
       <c r="Y721" s="3"/>
-      <c r="Z721" s="3"/>
     </row>
     <row r="722">
       <c r="A722" s="3"/>
@@ -20684,7 +19935,6 @@
       <c r="W722" s="3"/>
       <c r="X722" s="3"/>
       <c r="Y722" s="3"/>
-      <c r="Z722" s="3"/>
     </row>
     <row r="723">
       <c r="A723" s="3"/>
@@ -20712,7 +19962,6 @@
       <c r="W723" s="3"/>
       <c r="X723" s="3"/>
       <c r="Y723" s="3"/>
-      <c r="Z723" s="3"/>
     </row>
     <row r="724">
       <c r="A724" s="3"/>
@@ -20740,7 +19989,6 @@
       <c r="W724" s="3"/>
       <c r="X724" s="3"/>
       <c r="Y724" s="3"/>
-      <c r="Z724" s="3"/>
     </row>
     <row r="725">
       <c r="A725" s="3"/>
@@ -20768,7 +20016,6 @@
       <c r="W725" s="3"/>
       <c r="X725" s="3"/>
       <c r="Y725" s="3"/>
-      <c r="Z725" s="3"/>
     </row>
     <row r="726">
       <c r="A726" s="3"/>
@@ -20796,7 +20043,6 @@
       <c r="W726" s="3"/>
       <c r="X726" s="3"/>
       <c r="Y726" s="3"/>
-      <c r="Z726" s="3"/>
     </row>
     <row r="727">
       <c r="A727" s="3"/>
@@ -20824,7 +20070,6 @@
       <c r="W727" s="3"/>
       <c r="X727" s="3"/>
       <c r="Y727" s="3"/>
-      <c r="Z727" s="3"/>
     </row>
     <row r="728">
       <c r="A728" s="3"/>
@@ -20852,7 +20097,6 @@
       <c r="W728" s="3"/>
       <c r="X728" s="3"/>
       <c r="Y728" s="3"/>
-      <c r="Z728" s="3"/>
     </row>
     <row r="729">
       <c r="A729" s="3"/>
@@ -20880,7 +20124,6 @@
       <c r="W729" s="3"/>
       <c r="X729" s="3"/>
       <c r="Y729" s="3"/>
-      <c r="Z729" s="3"/>
     </row>
     <row r="730">
       <c r="A730" s="3"/>
@@ -20908,7 +20151,6 @@
       <c r="W730" s="3"/>
       <c r="X730" s="3"/>
       <c r="Y730" s="3"/>
-      <c r="Z730" s="3"/>
     </row>
     <row r="731">
       <c r="A731" s="3"/>
@@ -20936,7 +20178,6 @@
       <c r="W731" s="3"/>
       <c r="X731" s="3"/>
       <c r="Y731" s="3"/>
-      <c r="Z731" s="3"/>
     </row>
     <row r="732">
       <c r="A732" s="3"/>
@@ -20964,7 +20205,6 @@
       <c r="W732" s="3"/>
       <c r="X732" s="3"/>
       <c r="Y732" s="3"/>
-      <c r="Z732" s="3"/>
     </row>
     <row r="733">
       <c r="A733" s="3"/>
@@ -20992,7 +20232,6 @@
       <c r="W733" s="3"/>
       <c r="X733" s="3"/>
       <c r="Y733" s="3"/>
-      <c r="Z733" s="3"/>
     </row>
     <row r="734">
       <c r="A734" s="3"/>
@@ -21020,7 +20259,6 @@
       <c r="W734" s="3"/>
       <c r="X734" s="3"/>
       <c r="Y734" s="3"/>
-      <c r="Z734" s="3"/>
     </row>
     <row r="735">
       <c r="A735" s="3"/>
@@ -21048,7 +20286,6 @@
       <c r="W735" s="3"/>
       <c r="X735" s="3"/>
       <c r="Y735" s="3"/>
-      <c r="Z735" s="3"/>
     </row>
     <row r="736">
       <c r="A736" s="3"/>
@@ -21076,7 +20313,6 @@
       <c r="W736" s="3"/>
       <c r="X736" s="3"/>
       <c r="Y736" s="3"/>
-      <c r="Z736" s="3"/>
     </row>
     <row r="737">
       <c r="A737" s="3"/>
@@ -21104,7 +20340,6 @@
       <c r="W737" s="3"/>
       <c r="X737" s="3"/>
       <c r="Y737" s="3"/>
-      <c r="Z737" s="3"/>
     </row>
     <row r="738">
       <c r="A738" s="3"/>
@@ -21132,7 +20367,6 @@
       <c r="W738" s="3"/>
       <c r="X738" s="3"/>
       <c r="Y738" s="3"/>
-      <c r="Z738" s="3"/>
     </row>
     <row r="739">
       <c r="A739" s="3"/>
@@ -21160,7 +20394,6 @@
       <c r="W739" s="3"/>
       <c r="X739" s="3"/>
       <c r="Y739" s="3"/>
-      <c r="Z739" s="3"/>
     </row>
     <row r="740">
       <c r="A740" s="3"/>
@@ -21188,7 +20421,6 @@
       <c r="W740" s="3"/>
       <c r="X740" s="3"/>
       <c r="Y740" s="3"/>
-      <c r="Z740" s="3"/>
     </row>
     <row r="741">
       <c r="A741" s="3"/>
@@ -21216,7 +20448,6 @@
       <c r="W741" s="3"/>
       <c r="X741" s="3"/>
       <c r="Y741" s="3"/>
-      <c r="Z741" s="3"/>
     </row>
     <row r="742">
       <c r="A742" s="3"/>
@@ -21244,7 +20475,6 @@
       <c r="W742" s="3"/>
       <c r="X742" s="3"/>
       <c r="Y742" s="3"/>
-      <c r="Z742" s="3"/>
     </row>
     <row r="743">
       <c r="A743" s="3"/>
@@ -21272,7 +20502,6 @@
       <c r="W743" s="3"/>
       <c r="X743" s="3"/>
       <c r="Y743" s="3"/>
-      <c r="Z743" s="3"/>
     </row>
     <row r="744">
       <c r="A744" s="3"/>
@@ -21300,7 +20529,6 @@
       <c r="W744" s="3"/>
       <c r="X744" s="3"/>
       <c r="Y744" s="3"/>
-      <c r="Z744" s="3"/>
     </row>
     <row r="745">
       <c r="A745" s="3"/>
@@ -21328,7 +20556,6 @@
       <c r="W745" s="3"/>
       <c r="X745" s="3"/>
       <c r="Y745" s="3"/>
-      <c r="Z745" s="3"/>
     </row>
     <row r="746">
       <c r="A746" s="3"/>
@@ -21356,7 +20583,6 @@
       <c r="W746" s="3"/>
       <c r="X746" s="3"/>
       <c r="Y746" s="3"/>
-      <c r="Z746" s="3"/>
     </row>
     <row r="747">
       <c r="A747" s="3"/>
@@ -21384,7 +20610,6 @@
       <c r="W747" s="3"/>
       <c r="X747" s="3"/>
       <c r="Y747" s="3"/>
-      <c r="Z747" s="3"/>
     </row>
     <row r="748">
       <c r="A748" s="3"/>
@@ -21412,7 +20637,6 @@
       <c r="W748" s="3"/>
       <c r="X748" s="3"/>
       <c r="Y748" s="3"/>
-      <c r="Z748" s="3"/>
     </row>
     <row r="749">
       <c r="A749" s="3"/>
@@ -21440,7 +20664,6 @@
       <c r="W749" s="3"/>
       <c r="X749" s="3"/>
       <c r="Y749" s="3"/>
-      <c r="Z749" s="3"/>
     </row>
     <row r="750">
       <c r="A750" s="3"/>
@@ -21468,7 +20691,6 @@
       <c r="W750" s="3"/>
       <c r="X750" s="3"/>
       <c r="Y750" s="3"/>
-      <c r="Z750" s="3"/>
     </row>
     <row r="751">
       <c r="A751" s="3"/>
@@ -21496,7 +20718,6 @@
       <c r="W751" s="3"/>
       <c r="X751" s="3"/>
       <c r="Y751" s="3"/>
-      <c r="Z751" s="3"/>
     </row>
     <row r="752">
       <c r="A752" s="3"/>
@@ -21524,7 +20745,6 @@
       <c r="W752" s="3"/>
       <c r="X752" s="3"/>
       <c r="Y752" s="3"/>
-      <c r="Z752" s="3"/>
     </row>
     <row r="753">
       <c r="A753" s="3"/>
@@ -21552,7 +20772,6 @@
       <c r="W753" s="3"/>
       <c r="X753" s="3"/>
       <c r="Y753" s="3"/>
-      <c r="Z753" s="3"/>
     </row>
     <row r="754">
       <c r="A754" s="3"/>
@@ -21580,7 +20799,6 @@
       <c r="W754" s="3"/>
       <c r="X754" s="3"/>
       <c r="Y754" s="3"/>
-      <c r="Z754" s="3"/>
     </row>
     <row r="755">
       <c r="A755" s="3"/>
@@ -21608,7 +20826,6 @@
       <c r="W755" s="3"/>
       <c r="X755" s="3"/>
       <c r="Y755" s="3"/>
-      <c r="Z755" s="3"/>
     </row>
     <row r="756">
       <c r="A756" s="3"/>
@@ -21636,7 +20853,6 @@
       <c r="W756" s="3"/>
       <c r="X756" s="3"/>
       <c r="Y756" s="3"/>
-      <c r="Z756" s="3"/>
     </row>
     <row r="757">
       <c r="A757" s="3"/>
@@ -21664,7 +20880,6 @@
       <c r="W757" s="3"/>
       <c r="X757" s="3"/>
       <c r="Y757" s="3"/>
-      <c r="Z757" s="3"/>
     </row>
     <row r="758">
       <c r="A758" s="3"/>
@@ -21692,7 +20907,6 @@
       <c r="W758" s="3"/>
       <c r="X758" s="3"/>
       <c r="Y758" s="3"/>
-      <c r="Z758" s="3"/>
     </row>
     <row r="759">
       <c r="A759" s="3"/>
@@ -21720,7 +20934,6 @@
       <c r="W759" s="3"/>
       <c r="X759" s="3"/>
       <c r="Y759" s="3"/>
-      <c r="Z759" s="3"/>
     </row>
     <row r="760">
       <c r="A760" s="3"/>
@@ -21748,7 +20961,6 @@
       <c r="W760" s="3"/>
       <c r="X760" s="3"/>
       <c r="Y760" s="3"/>
-      <c r="Z760" s="3"/>
     </row>
     <row r="761">
       <c r="A761" s="3"/>
@@ -21776,7 +20988,6 @@
       <c r="W761" s="3"/>
       <c r="X761" s="3"/>
       <c r="Y761" s="3"/>
-      <c r="Z761" s="3"/>
     </row>
     <row r="762">
       <c r="A762" s="3"/>
@@ -21804,7 +21015,6 @@
       <c r="W762" s="3"/>
       <c r="X762" s="3"/>
       <c r="Y762" s="3"/>
-      <c r="Z762" s="3"/>
     </row>
     <row r="763">
       <c r="A763" s="3"/>
@@ -21832,7 +21042,6 @@
       <c r="W763" s="3"/>
       <c r="X763" s="3"/>
       <c r="Y763" s="3"/>
-      <c r="Z763" s="3"/>
     </row>
     <row r="764">
       <c r="A764" s="3"/>
@@ -21860,7 +21069,6 @@
       <c r="W764" s="3"/>
       <c r="X764" s="3"/>
       <c r="Y764" s="3"/>
-      <c r="Z764" s="3"/>
     </row>
     <row r="765">
       <c r="A765" s="3"/>
@@ -21888,7 +21096,6 @@
       <c r="W765" s="3"/>
       <c r="X765" s="3"/>
       <c r="Y765" s="3"/>
-      <c r="Z765" s="3"/>
     </row>
     <row r="766">
       <c r="A766" s="3"/>
@@ -21916,7 +21123,6 @@
       <c r="W766" s="3"/>
       <c r="X766" s="3"/>
       <c r="Y766" s="3"/>
-      <c r="Z766" s="3"/>
     </row>
     <row r="767">
       <c r="A767" s="3"/>
@@ -21944,7 +21150,6 @@
       <c r="W767" s="3"/>
       <c r="X767" s="3"/>
       <c r="Y767" s="3"/>
-      <c r="Z767" s="3"/>
     </row>
     <row r="768">
       <c r="A768" s="3"/>
@@ -21972,7 +21177,6 @@
       <c r="W768" s="3"/>
       <c r="X768" s="3"/>
       <c r="Y768" s="3"/>
-      <c r="Z768" s="3"/>
     </row>
     <row r="769">
       <c r="A769" s="3"/>
@@ -22000,7 +21204,6 @@
       <c r="W769" s="3"/>
       <c r="X769" s="3"/>
       <c r="Y769" s="3"/>
-      <c r="Z769" s="3"/>
     </row>
     <row r="770">
       <c r="A770" s="3"/>
@@ -22028,7 +21231,6 @@
       <c r="W770" s="3"/>
       <c r="X770" s="3"/>
       <c r="Y770" s="3"/>
-      <c r="Z770" s="3"/>
     </row>
     <row r="771">
       <c r="A771" s="3"/>
@@ -22056,7 +21258,6 @@
       <c r="W771" s="3"/>
       <c r="X771" s="3"/>
       <c r="Y771" s="3"/>
-      <c r="Z771" s="3"/>
     </row>
     <row r="772">
       <c r="A772" s="3"/>
@@ -22084,7 +21285,6 @@
       <c r="W772" s="3"/>
       <c r="X772" s="3"/>
       <c r="Y772" s="3"/>
-      <c r="Z772" s="3"/>
     </row>
     <row r="773">
       <c r="A773" s="3"/>
@@ -22112,7 +21312,6 @@
       <c r="W773" s="3"/>
       <c r="X773" s="3"/>
       <c r="Y773" s="3"/>
-      <c r="Z773" s="3"/>
     </row>
     <row r="774">
       <c r="A774" s="3"/>
@@ -22140,7 +21339,6 @@
       <c r="W774" s="3"/>
       <c r="X774" s="3"/>
       <c r="Y774" s="3"/>
-      <c r="Z774" s="3"/>
     </row>
     <row r="775">
       <c r="A775" s="3"/>
@@ -22168,7 +21366,6 @@
       <c r="W775" s="3"/>
       <c r="X775" s="3"/>
       <c r="Y775" s="3"/>
-      <c r="Z775" s="3"/>
     </row>
     <row r="776">
       <c r="A776" s="3"/>
@@ -22196,7 +21393,6 @@
       <c r="W776" s="3"/>
       <c r="X776" s="3"/>
       <c r="Y776" s="3"/>
-      <c r="Z776" s="3"/>
     </row>
     <row r="777">
       <c r="A777" s="3"/>
@@ -22224,7 +21420,6 @@
       <c r="W777" s="3"/>
       <c r="X777" s="3"/>
       <c r="Y777" s="3"/>
-      <c r="Z777" s="3"/>
     </row>
     <row r="778">
       <c r="A778" s="3"/>
@@ -22252,7 +21447,6 @@
       <c r="W778" s="3"/>
       <c r="X778" s="3"/>
       <c r="Y778" s="3"/>
-      <c r="Z778" s="3"/>
     </row>
     <row r="779">
       <c r="A779" s="3"/>
@@ -22280,7 +21474,6 @@
       <c r="W779" s="3"/>
       <c r="X779" s="3"/>
       <c r="Y779" s="3"/>
-      <c r="Z779" s="3"/>
     </row>
     <row r="780">
       <c r="A780" s="3"/>
@@ -22308,7 +21501,6 @@
       <c r="W780" s="3"/>
       <c r="X780" s="3"/>
       <c r="Y780" s="3"/>
-      <c r="Z780" s="3"/>
     </row>
     <row r="781">
       <c r="A781" s="3"/>
@@ -22336,7 +21528,6 @@
       <c r="W781" s="3"/>
       <c r="X781" s="3"/>
       <c r="Y781" s="3"/>
-      <c r="Z781" s="3"/>
     </row>
     <row r="782">
       <c r="A782" s="3"/>
@@ -22364,7 +21555,6 @@
       <c r="W782" s="3"/>
       <c r="X782" s="3"/>
       <c r="Y782" s="3"/>
-      <c r="Z782" s="3"/>
     </row>
     <row r="783">
       <c r="A783" s="3"/>
@@ -22392,7 +21582,6 @@
       <c r="W783" s="3"/>
       <c r="X783" s="3"/>
       <c r="Y783" s="3"/>
-      <c r="Z783" s="3"/>
     </row>
     <row r="784">
       <c r="A784" s="3"/>
@@ -22420,7 +21609,6 @@
       <c r="W784" s="3"/>
       <c r="X784" s="3"/>
       <c r="Y784" s="3"/>
-      <c r="Z784" s="3"/>
     </row>
     <row r="785">
       <c r="A785" s="3"/>
@@ -22448,7 +21636,6 @@
       <c r="W785" s="3"/>
       <c r="X785" s="3"/>
       <c r="Y785" s="3"/>
-      <c r="Z785" s="3"/>
     </row>
     <row r="786">
       <c r="A786" s="3"/>
@@ -22476,7 +21663,6 @@
       <c r="W786" s="3"/>
       <c r="X786" s="3"/>
       <c r="Y786" s="3"/>
-      <c r="Z786" s="3"/>
     </row>
     <row r="787">
       <c r="A787" s="3"/>
@@ -22504,7 +21690,6 @@
       <c r="W787" s="3"/>
       <c r="X787" s="3"/>
       <c r="Y787" s="3"/>
-      <c r="Z787" s="3"/>
     </row>
     <row r="788">
       <c r="A788" s="3"/>
@@ -22532,7 +21717,6 @@
       <c r="W788" s="3"/>
       <c r="X788" s="3"/>
       <c r="Y788" s="3"/>
-      <c r="Z788" s="3"/>
     </row>
     <row r="789">
       <c r="A789" s="3"/>
@@ -22560,7 +21744,6 @@
       <c r="W789" s="3"/>
       <c r="X789" s="3"/>
       <c r="Y789" s="3"/>
-      <c r="Z789" s="3"/>
     </row>
     <row r="790">
       <c r="A790" s="3"/>
@@ -22588,7 +21771,6 @@
       <c r="W790" s="3"/>
       <c r="X790" s="3"/>
       <c r="Y790" s="3"/>
-      <c r="Z790" s="3"/>
     </row>
     <row r="791">
       <c r="A791" s="3"/>
@@ -22616,7 +21798,6 @@
       <c r="W791" s="3"/>
       <c r="X791" s="3"/>
       <c r="Y791" s="3"/>
-      <c r="Z791" s="3"/>
     </row>
     <row r="792">
       <c r="A792" s="3"/>
@@ -22644,7 +21825,6 @@
       <c r="W792" s="3"/>
       <c r="X792" s="3"/>
       <c r="Y792" s="3"/>
-      <c r="Z792" s="3"/>
     </row>
     <row r="793">
       <c r="A793" s="3"/>
@@ -22672,7 +21852,6 @@
       <c r="W793" s="3"/>
       <c r="X793" s="3"/>
       <c r="Y793" s="3"/>
-      <c r="Z793" s="3"/>
     </row>
     <row r="794">
       <c r="A794" s="3"/>
@@ -22700,7 +21879,6 @@
       <c r="W794" s="3"/>
       <c r="X794" s="3"/>
       <c r="Y794" s="3"/>
-      <c r="Z794" s="3"/>
     </row>
     <row r="795">
       <c r="A795" s="3"/>
@@ -22728,7 +21906,6 @@
       <c r="W795" s="3"/>
       <c r="X795" s="3"/>
       <c r="Y795" s="3"/>
-      <c r="Z795" s="3"/>
     </row>
     <row r="796">
       <c r="A796" s="3"/>
@@ -22756,7 +21933,6 @@
       <c r="W796" s="3"/>
       <c r="X796" s="3"/>
       <c r="Y796" s="3"/>
-      <c r="Z796" s="3"/>
     </row>
     <row r="797">
       <c r="A797" s="3"/>
@@ -22784,7 +21960,6 @@
       <c r="W797" s="3"/>
       <c r="X797" s="3"/>
       <c r="Y797" s="3"/>
-      <c r="Z797" s="3"/>
     </row>
     <row r="798">
       <c r="A798" s="3"/>
@@ -22812,7 +21987,6 @@
       <c r="W798" s="3"/>
       <c r="X798" s="3"/>
       <c r="Y798" s="3"/>
-      <c r="Z798" s="3"/>
     </row>
     <row r="799">
       <c r="A799" s="3"/>
@@ -22840,7 +22014,6 @@
       <c r="W799" s="3"/>
       <c r="X799" s="3"/>
       <c r="Y799" s="3"/>
-      <c r="Z799" s="3"/>
     </row>
     <row r="800">
       <c r="A800" s="3"/>
@@ -22868,7 +22041,6 @@
       <c r="W800" s="3"/>
       <c r="X800" s="3"/>
       <c r="Y800" s="3"/>
-      <c r="Z800" s="3"/>
     </row>
     <row r="801">
       <c r="A801" s="3"/>
@@ -22896,7 +22068,6 @@
       <c r="W801" s="3"/>
       <c r="X801" s="3"/>
       <c r="Y801" s="3"/>
-      <c r="Z801" s="3"/>
     </row>
     <row r="802">
       <c r="A802" s="3"/>
@@ -22924,7 +22095,6 @@
       <c r="W802" s="3"/>
       <c r="X802" s="3"/>
       <c r="Y802" s="3"/>
-      <c r="Z802" s="3"/>
     </row>
     <row r="803">
       <c r="A803" s="3"/>
@@ -22952,7 +22122,6 @@
       <c r="W803" s="3"/>
       <c r="X803" s="3"/>
       <c r="Y803" s="3"/>
-      <c r="Z803" s="3"/>
     </row>
     <row r="804">
       <c r="A804" s="3"/>
@@ -22980,7 +22149,6 @@
       <c r="W804" s="3"/>
       <c r="X804" s="3"/>
       <c r="Y804" s="3"/>
-      <c r="Z804" s="3"/>
     </row>
     <row r="805">
       <c r="A805" s="3"/>
@@ -23008,7 +22176,6 @@
       <c r="W805" s="3"/>
       <c r="X805" s="3"/>
       <c r="Y805" s="3"/>
-      <c r="Z805" s="3"/>
     </row>
     <row r="806">
       <c r="A806" s="3"/>
@@ -23036,7 +22203,6 @@
       <c r="W806" s="3"/>
       <c r="X806" s="3"/>
       <c r="Y806" s="3"/>
-      <c r="Z806" s="3"/>
     </row>
     <row r="807">
       <c r="A807" s="3"/>
@@ -23064,7 +22230,6 @@
       <c r="W807" s="3"/>
       <c r="X807" s="3"/>
       <c r="Y807" s="3"/>
-      <c r="Z807" s="3"/>
     </row>
     <row r="808">
       <c r="A808" s="3"/>
@@ -23092,7 +22257,6 @@
       <c r="W808" s="3"/>
       <c r="X808" s="3"/>
       <c r="Y808" s="3"/>
-      <c r="Z808" s="3"/>
     </row>
     <row r="809">
       <c r="A809" s="3"/>
@@ -23120,7 +22284,6 @@
       <c r="W809" s="3"/>
       <c r="X809" s="3"/>
       <c r="Y809" s="3"/>
-      <c r="Z809" s="3"/>
     </row>
     <row r="810">
       <c r="A810" s="3"/>
@@ -23148,7 +22311,6 @@
       <c r="W810" s="3"/>
       <c r="X810" s="3"/>
       <c r="Y810" s="3"/>
-      <c r="Z810" s="3"/>
     </row>
     <row r="811">
       <c r="A811" s="3"/>
@@ -23176,7 +22338,6 @@
       <c r="W811" s="3"/>
       <c r="X811" s="3"/>
       <c r="Y811" s="3"/>
-      <c r="Z811" s="3"/>
     </row>
     <row r="812">
       <c r="A812" s="3"/>
@@ -23204,7 +22365,6 @@
       <c r="W812" s="3"/>
       <c r="X812" s="3"/>
       <c r="Y812" s="3"/>
-      <c r="Z812" s="3"/>
     </row>
     <row r="813">
       <c r="A813" s="3"/>
@@ -23232,7 +22392,6 @@
       <c r="W813" s="3"/>
       <c r="X813" s="3"/>
       <c r="Y813" s="3"/>
-      <c r="Z813" s="3"/>
     </row>
     <row r="814">
       <c r="A814" s="3"/>
@@ -23260,7 +22419,6 @@
       <c r="W814" s="3"/>
       <c r="X814" s="3"/>
       <c r="Y814" s="3"/>
-      <c r="Z814" s="3"/>
     </row>
     <row r="815">
       <c r="A815" s="3"/>
@@ -23288,7 +22446,6 @@
       <c r="W815" s="3"/>
       <c r="X815" s="3"/>
       <c r="Y815" s="3"/>
-      <c r="Z815" s="3"/>
     </row>
     <row r="816">
       <c r="A816" s="3"/>
@@ -23316,7 +22473,6 @@
       <c r="W816" s="3"/>
       <c r="X816" s="3"/>
       <c r="Y816" s="3"/>
-      <c r="Z816" s="3"/>
     </row>
     <row r="817">
       <c r="A817" s="3"/>
@@ -23344,7 +22500,6 @@
       <c r="W817" s="3"/>
       <c r="X817" s="3"/>
       <c r="Y817" s="3"/>
-      <c r="Z817" s="3"/>
     </row>
     <row r="818">
       <c r="A818" s="3"/>
@@ -23372,7 +22527,6 @@
       <c r="W818" s="3"/>
       <c r="X818" s="3"/>
       <c r="Y818" s="3"/>
-      <c r="Z818" s="3"/>
     </row>
     <row r="819">
       <c r="A819" s="3"/>
@@ -23400,7 +22554,6 @@
       <c r="W819" s="3"/>
       <c r="X819" s="3"/>
       <c r="Y819" s="3"/>
-      <c r="Z819" s="3"/>
     </row>
     <row r="820">
       <c r="A820" s="3"/>
@@ -23428,7 +22581,6 @@
       <c r="W820" s="3"/>
       <c r="X820" s="3"/>
       <c r="Y820" s="3"/>
-      <c r="Z820" s="3"/>
     </row>
     <row r="821">
       <c r="A821" s="3"/>
@@ -23456,7 +22608,6 @@
       <c r="W821" s="3"/>
       <c r="X821" s="3"/>
       <c r="Y821" s="3"/>
-      <c r="Z821" s="3"/>
     </row>
     <row r="822">
       <c r="A822" s="3"/>
@@ -23484,7 +22635,6 @@
       <c r="W822" s="3"/>
       <c r="X822" s="3"/>
       <c r="Y822" s="3"/>
-      <c r="Z822" s="3"/>
     </row>
     <row r="823">
       <c r="A823" s="3"/>
@@ -23512,7 +22662,6 @@
       <c r="W823" s="3"/>
       <c r="X823" s="3"/>
       <c r="Y823" s="3"/>
-      <c r="Z823" s="3"/>
     </row>
     <row r="824">
       <c r="A824" s="3"/>
@@ -23540,7 +22689,6 @@
       <c r="W824" s="3"/>
       <c r="X824" s="3"/>
       <c r="Y824" s="3"/>
-      <c r="Z824" s="3"/>
     </row>
     <row r="825">
       <c r="A825" s="3"/>
@@ -23568,7 +22716,6 @@
       <c r="W825" s="3"/>
       <c r="X825" s="3"/>
       <c r="Y825" s="3"/>
-      <c r="Z825" s="3"/>
     </row>
     <row r="826">
       <c r="A826" s="3"/>
@@ -23596,7 +22743,6 @@
       <c r="W826" s="3"/>
       <c r="X826" s="3"/>
       <c r="Y826" s="3"/>
-      <c r="Z826" s="3"/>
     </row>
     <row r="827">
       <c r="A827" s="3"/>
@@ -23624,7 +22770,6 @@
       <c r="W827" s="3"/>
       <c r="X827" s="3"/>
       <c r="Y827" s="3"/>
-      <c r="Z827" s="3"/>
     </row>
     <row r="828">
       <c r="A828" s="3"/>
@@ -23652,7 +22797,6 @@
       <c r="W828" s="3"/>
       <c r="X828" s="3"/>
       <c r="Y828" s="3"/>
-      <c r="Z828" s="3"/>
     </row>
     <row r="829">
       <c r="A829" s="3"/>
@@ -23680,7 +22824,6 @@
       <c r="W829" s="3"/>
       <c r="X829" s="3"/>
       <c r="Y829" s="3"/>
-      <c r="Z829" s="3"/>
     </row>
     <row r="830">
       <c r="A830" s="3"/>
@@ -23708,7 +22851,6 @@
       <c r="W830" s="3"/>
       <c r="X830" s="3"/>
       <c r="Y830" s="3"/>
-      <c r="Z830" s="3"/>
     </row>
     <row r="831">
       <c r="A831" s="3"/>
@@ -23736,7 +22878,6 @@
       <c r="W831" s="3"/>
       <c r="X831" s="3"/>
       <c r="Y831" s="3"/>
-      <c r="Z831" s="3"/>
     </row>
     <row r="832">
       <c r="A832" s="3"/>
@@ -23764,7 +22905,6 @@
       <c r="W832" s="3"/>
       <c r="X832" s="3"/>
       <c r="Y832" s="3"/>
-      <c r="Z832" s="3"/>
     </row>
     <row r="833">
       <c r="A833" s="3"/>
@@ -23792,7 +22932,6 @@
       <c r="W833" s="3"/>
       <c r="X833" s="3"/>
       <c r="Y833" s="3"/>
-      <c r="Z833" s="3"/>
     </row>
     <row r="834">
       <c r="A834" s="3"/>
@@ -23820,7 +22959,6 @@
       <c r="W834" s="3"/>
       <c r="X834" s="3"/>
       <c r="Y834" s="3"/>
-      <c r="Z834" s="3"/>
     </row>
     <row r="835">
       <c r="A835" s="3"/>
@@ -23848,7 +22986,6 @@
       <c r="W835" s="3"/>
       <c r="X835" s="3"/>
       <c r="Y835" s="3"/>
-      <c r="Z835" s="3"/>
     </row>
     <row r="836">
       <c r="A836" s="3"/>
@@ -23876,7 +23013,6 @@
       <c r="W836" s="3"/>
       <c r="X836" s="3"/>
       <c r="Y836" s="3"/>
-      <c r="Z836" s="3"/>
     </row>
     <row r="837">
       <c r="A837" s="3"/>
@@ -23904,7 +23040,6 @@
       <c r="W837" s="3"/>
       <c r="X837" s="3"/>
       <c r="Y837" s="3"/>
-      <c r="Z837" s="3"/>
     </row>
     <row r="838">
       <c r="A838" s="3"/>
@@ -23932,7 +23067,6 @@
       <c r="W838" s="3"/>
       <c r="X838" s="3"/>
       <c r="Y838" s="3"/>
-      <c r="Z838" s="3"/>
     </row>
     <row r="839">
       <c r="A839" s="3"/>
@@ -23960,7 +23094,6 @@
       <c r="W839" s="3"/>
       <c r="X839" s="3"/>
       <c r="Y839" s="3"/>
-      <c r="Z839" s="3"/>
     </row>
     <row r="840">
       <c r="A840" s="3"/>
@@ -23988,7 +23121,6 @@
       <c r="W840" s="3"/>
       <c r="X840" s="3"/>
       <c r="Y840" s="3"/>
-      <c r="Z840" s="3"/>
     </row>
     <row r="841">
       <c r="A841" s="3"/>
@@ -24016,7 +23148,6 @@
       <c r="W841" s="3"/>
       <c r="X841" s="3"/>
       <c r="Y841" s="3"/>
-      <c r="Z841" s="3"/>
     </row>
     <row r="842">
       <c r="A842" s="3"/>
@@ -24044,7 +23175,6 @@
       <c r="W842" s="3"/>
       <c r="X842" s="3"/>
       <c r="Y842" s="3"/>
-      <c r="Z842" s="3"/>
     </row>
     <row r="843">
       <c r="A843" s="3"/>
@@ -24072,7 +23202,6 @@
       <c r="W843" s="3"/>
       <c r="X843" s="3"/>
       <c r="Y843" s="3"/>
-      <c r="Z843" s="3"/>
     </row>
     <row r="844">
       <c r="A844" s="3"/>
@@ -24100,7 +23229,6 @@
       <c r="W844" s="3"/>
       <c r="X844" s="3"/>
       <c r="Y844" s="3"/>
-      <c r="Z844" s="3"/>
     </row>
     <row r="845">
       <c r="A845" s="3"/>
@@ -24128,7 +23256,6 @@
       <c r="W845" s="3"/>
       <c r="X845" s="3"/>
       <c r="Y845" s="3"/>
-      <c r="Z845" s="3"/>
     </row>
     <row r="846">
       <c r="A846" s="3"/>
@@ -24156,7 +23283,6 @@
       <c r="W846" s="3"/>
       <c r="X846" s="3"/>
       <c r="Y846" s="3"/>
-      <c r="Z846" s="3"/>
     </row>
     <row r="847">
       <c r="A847" s="3"/>
@@ -24184,7 +23310,6 @@
       <c r="W847" s="3"/>
       <c r="X847" s="3"/>
       <c r="Y847" s="3"/>
-      <c r="Z847" s="3"/>
     </row>
     <row r="848">
       <c r="A848" s="3"/>
@@ -24212,7 +23337,6 @@
       <c r="W848" s="3"/>
       <c r="X848" s="3"/>
       <c r="Y848" s="3"/>
-      <c r="Z848" s="3"/>
     </row>
     <row r="849">
       <c r="A849" s="3"/>
@@ -24240,7 +23364,6 @@
       <c r="W849" s="3"/>
       <c r="X849" s="3"/>
       <c r="Y849" s="3"/>
-      <c r="Z849" s="3"/>
     </row>
     <row r="850">
       <c r="A850" s="3"/>
@@ -24268,7 +23391,6 @@
       <c r="W850" s="3"/>
       <c r="X850" s="3"/>
       <c r="Y850" s="3"/>
-      <c r="Z850" s="3"/>
     </row>
     <row r="851">
       <c r="A851" s="3"/>
@@ -24296,7 +23418,6 @@
       <c r="W851" s="3"/>
       <c r="X851" s="3"/>
       <c r="Y851" s="3"/>
-      <c r="Z851" s="3"/>
     </row>
     <row r="852">
       <c r="A852" s="3"/>
@@ -24324,7 +23445,6 @@
       <c r="W852" s="3"/>
       <c r="X852" s="3"/>
       <c r="Y852" s="3"/>
-      <c r="Z852" s="3"/>
     </row>
     <row r="853">
       <c r="A853" s="3"/>
@@ -24352,7 +23472,6 @@
       <c r="W853" s="3"/>
       <c r="X853" s="3"/>
       <c r="Y853" s="3"/>
-      <c r="Z853" s="3"/>
     </row>
     <row r="854">
       <c r="A854" s="3"/>
@@ -24380,7 +23499,6 @@
       <c r="W854" s="3"/>
       <c r="X854" s="3"/>
       <c r="Y854" s="3"/>
-      <c r="Z854" s="3"/>
     </row>
     <row r="855">
       <c r="A855" s="3"/>
@@ -24408,7 +23526,6 @@
       <c r="W855" s="3"/>
       <c r="X855" s="3"/>
       <c r="Y855" s="3"/>
-      <c r="Z855" s="3"/>
     </row>
     <row r="856">
       <c r="A856" s="3"/>
@@ -24436,7 +23553,6 @@
       <c r="W856" s="3"/>
       <c r="X856" s="3"/>
       <c r="Y856" s="3"/>
-      <c r="Z856" s="3"/>
     </row>
     <row r="857">
       <c r="A857" s="3"/>
@@ -24464,7 +23580,6 @@
       <c r="W857" s="3"/>
       <c r="X857" s="3"/>
       <c r="Y857" s="3"/>
-      <c r="Z857" s="3"/>
     </row>
     <row r="858">
       <c r="A858" s="3"/>
@@ -24492,7 +23607,6 @@
       <c r="W858" s="3"/>
       <c r="X858" s="3"/>
       <c r="Y858" s="3"/>
-      <c r="Z858" s="3"/>
     </row>
     <row r="859">
       <c r="A859" s="3"/>
@@ -24520,7 +23634,6 @@
       <c r="W859" s="3"/>
       <c r="X859" s="3"/>
       <c r="Y859" s="3"/>
-      <c r="Z859" s="3"/>
     </row>
     <row r="860">
       <c r="A860" s="3"/>
@@ -24548,7 +23661,6 @@
       <c r="W860" s="3"/>
       <c r="X860" s="3"/>
       <c r="Y860" s="3"/>
-      <c r="Z860" s="3"/>
     </row>
     <row r="861">
       <c r="A861" s="3"/>
@@ -24576,7 +23688,6 @@
       <c r="W861" s="3"/>
       <c r="X861" s="3"/>
       <c r="Y861" s="3"/>
-      <c r="Z861" s="3"/>
     </row>
     <row r="862">
       <c r="A862" s="3"/>
@@ -24604,7 +23715,6 @@
       <c r="W862" s="3"/>
       <c r="X862" s="3"/>
       <c r="Y862" s="3"/>
-      <c r="Z862" s="3"/>
     </row>
     <row r="863">
       <c r="A863" s="3"/>
@@ -24632,7 +23742,6 @@
       <c r="W863" s="3"/>
       <c r="X863" s="3"/>
       <c r="Y863" s="3"/>
-      <c r="Z863" s="3"/>
     </row>
     <row r="864">
       <c r="A864" s="3"/>
@@ -24660,7 +23769,6 @@
       <c r="W864" s="3"/>
       <c r="X864" s="3"/>
       <c r="Y864" s="3"/>
-      <c r="Z864" s="3"/>
     </row>
     <row r="865">
       <c r="A865" s="3"/>
@@ -24688,7 +23796,6 @@
       <c r="W865" s="3"/>
       <c r="X865" s="3"/>
       <c r="Y865" s="3"/>
-      <c r="Z865" s="3"/>
     </row>
     <row r="866">
       <c r="A866" s="3"/>
@@ -24716,7 +23823,6 @@
       <c r="W866" s="3"/>
       <c r="X866" s="3"/>
       <c r="Y866" s="3"/>
-      <c r="Z866" s="3"/>
     </row>
     <row r="867">
       <c r="A867" s="3"/>
@@ -24744,7 +23850,6 @@
       <c r="W867" s="3"/>
       <c r="X867" s="3"/>
       <c r="Y867" s="3"/>
-      <c r="Z867" s="3"/>
     </row>
     <row r="868">
       <c r="A868" s="3"/>
@@ -24772,7 +23877,6 @@
       <c r="W868" s="3"/>
       <c r="X868" s="3"/>
       <c r="Y868" s="3"/>
-      <c r="Z868" s="3"/>
     </row>
     <row r="869">
       <c r="A869" s="3"/>
@@ -24800,7 +23904,6 @@
       <c r="W869" s="3"/>
       <c r="X869" s="3"/>
       <c r="Y869" s="3"/>
-      <c r="Z869" s="3"/>
     </row>
     <row r="870">
       <c r="A870" s="3"/>
@@ -24828,7 +23931,6 @@
       <c r="W870" s="3"/>
       <c r="X870" s="3"/>
       <c r="Y870" s="3"/>
-      <c r="Z870" s="3"/>
     </row>
     <row r="871">
       <c r="A871" s="3"/>
@@ -24856,7 +23958,6 @@
       <c r="W871" s="3"/>
       <c r="X871" s="3"/>
       <c r="Y871" s="3"/>
-      <c r="Z871" s="3"/>
     </row>
     <row r="872">
       <c r="A872" s="3"/>
@@ -24884,7 +23985,6 @@
       <c r="W872" s="3"/>
       <c r="X872" s="3"/>
       <c r="Y872" s="3"/>
-      <c r="Z872" s="3"/>
     </row>
     <row r="873">
       <c r="A873" s="3"/>
@@ -24912,7 +24012,6 @@
       <c r="W873" s="3"/>
       <c r="X873" s="3"/>
       <c r="Y873" s="3"/>
-      <c r="Z873" s="3"/>
     </row>
     <row r="874">
       <c r="A874" s="3"/>
@@ -24940,7 +24039,6 @@
       <c r="W874" s="3"/>
       <c r="X874" s="3"/>
       <c r="Y874" s="3"/>
-      <c r="Z874" s="3"/>
     </row>
     <row r="875">
       <c r="A875" s="3"/>
@@ -24968,7 +24066,6 @@
       <c r="W875" s="3"/>
       <c r="X875" s="3"/>
       <c r="Y875" s="3"/>
-      <c r="Z875" s="3"/>
     </row>
     <row r="876">
       <c r="A876" s="3"/>
@@ -24996,7 +24093,6 @@
       <c r="W876" s="3"/>
       <c r="X876" s="3"/>
       <c r="Y876" s="3"/>
-      <c r="Z876" s="3"/>
     </row>
     <row r="877">
       <c r="A877" s="3"/>
@@ -25024,7 +24120,6 @@
       <c r="W877" s="3"/>
       <c r="X877" s="3"/>
       <c r="Y877" s="3"/>
-      <c r="Z877" s="3"/>
     </row>
     <row r="878">
       <c r="A878" s="3"/>
@@ -25052,7 +24147,6 @@
       <c r="W878" s="3"/>
       <c r="X878" s="3"/>
       <c r="Y878" s="3"/>
-      <c r="Z878" s="3"/>
     </row>
     <row r="879">
       <c r="A879" s="3"/>
@@ -25080,7 +24174,6 @@
       <c r="W879" s="3"/>
       <c r="X879" s="3"/>
       <c r="Y879" s="3"/>
-      <c r="Z879" s="3"/>
     </row>
     <row r="880">
       <c r="A880" s="3"/>
@@ -25108,7 +24201,6 @@
       <c r="W880" s="3"/>
       <c r="X880" s="3"/>
       <c r="Y880" s="3"/>
-      <c r="Z880" s="3"/>
     </row>
     <row r="881">
       <c r="A881" s="3"/>
@@ -25136,7 +24228,6 @@
       <c r="W881" s="3"/>
       <c r="X881" s="3"/>
       <c r="Y881" s="3"/>
-      <c r="Z881" s="3"/>
     </row>
     <row r="882">
       <c r="A882" s="3"/>
@@ -25164,7 +24255,6 @@
       <c r="W882" s="3"/>
       <c r="X882" s="3"/>
       <c r="Y882" s="3"/>
-      <c r="Z882" s="3"/>
     </row>
     <row r="883">
       <c r="A883" s="3"/>
@@ -25192,7 +24282,6 @@
       <c r="W883" s="3"/>
       <c r="X883" s="3"/>
       <c r="Y883" s="3"/>
-      <c r="Z883" s="3"/>
     </row>
     <row r="884">
       <c r="A884" s="3"/>
@@ -25220,7 +24309,6 @@
       <c r="W884" s="3"/>
       <c r="X884" s="3"/>
       <c r="Y884" s="3"/>
-      <c r="Z884" s="3"/>
     </row>
     <row r="885">
       <c r="A885" s="3"/>
@@ -25248,7 +24336,6 @@
       <c r="W885" s="3"/>
       <c r="X885" s="3"/>
       <c r="Y885" s="3"/>
-      <c r="Z885" s="3"/>
     </row>
     <row r="886">
       <c r="A886" s="3"/>
@@ -25276,7 +24363,6 @@
       <c r="W886" s="3"/>
       <c r="X886" s="3"/>
       <c r="Y886" s="3"/>
-      <c r="Z886" s="3"/>
     </row>
     <row r="887">
       <c r="A887" s="3"/>
@@ -25304,7 +24390,6 @@
       <c r="W887" s="3"/>
       <c r="X887" s="3"/>
       <c r="Y887" s="3"/>
-      <c r="Z887" s="3"/>
     </row>
     <row r="888">
       <c r="A888" s="3"/>
@@ -25332,7 +24417,6 @@
       <c r="W888" s="3"/>
       <c r="X888" s="3"/>
       <c r="Y888" s="3"/>
-      <c r="Z888" s="3"/>
     </row>
     <row r="889">
       <c r="A889" s="3"/>
@@ -25360,7 +24444,6 @@
       <c r="W889" s="3"/>
       <c r="X889" s="3"/>
       <c r="Y889" s="3"/>
-      <c r="Z889" s="3"/>
     </row>
     <row r="890">
       <c r="A890" s="3"/>
@@ -25388,7 +24471,6 @@
       <c r="W890" s="3"/>
       <c r="X890" s="3"/>
       <c r="Y890" s="3"/>
-      <c r="Z890" s="3"/>
     </row>
     <row r="891">
       <c r="A891" s="3"/>
@@ -25416,7 +24498,6 @@
       <c r="W891" s="3"/>
       <c r="X891" s="3"/>
       <c r="Y891" s="3"/>
-      <c r="Z891" s="3"/>
     </row>
     <row r="892">
       <c r="A892" s="3"/>
@@ -25444,7 +24525,6 @@
       <c r="W892" s="3"/>
       <c r="X892" s="3"/>
       <c r="Y892" s="3"/>
-      <c r="Z892" s="3"/>
     </row>
     <row r="893">
       <c r="A893" s="3"/>
@@ -25472,7 +24552,6 @@
       <c r="W893" s="3"/>
       <c r="X893" s="3"/>
       <c r="Y893" s="3"/>
-      <c r="Z893" s="3"/>
     </row>
     <row r="894">
       <c r="A894" s="3"/>
@@ -25500,7 +24579,6 @@
       <c r="W894" s="3"/>
       <c r="X894" s="3"/>
       <c r="Y894" s="3"/>
-      <c r="Z894" s="3"/>
     </row>
     <row r="895">
       <c r="A895" s="3"/>
@@ -25528,7 +24606,6 @@
       <c r="W895" s="3"/>
       <c r="X895" s="3"/>
       <c r="Y895" s="3"/>
-      <c r="Z895" s="3"/>
     </row>
     <row r="896">
       <c r="A896" s="3"/>
@@ -25556,7 +24633,6 @@
       <c r="W896" s="3"/>
       <c r="X896" s="3"/>
       <c r="Y896" s="3"/>
-      <c r="Z896" s="3"/>
     </row>
     <row r="897">
       <c r="A897" s="3"/>
@@ -25584,7 +24660,6 @@
       <c r="W897" s="3"/>
       <c r="X897" s="3"/>
       <c r="Y897" s="3"/>
-      <c r="Z897" s="3"/>
     </row>
     <row r="898">
       <c r="A898" s="3"/>
@@ -25612,7 +24687,6 @@
       <c r="W898" s="3"/>
       <c r="X898" s="3"/>
       <c r="Y898" s="3"/>
-      <c r="Z898" s="3"/>
     </row>
     <row r="899">
       <c r="A899" s="3"/>
@@ -25640,7 +24714,6 @@
       <c r="W899" s="3"/>
       <c r="X899" s="3"/>
       <c r="Y899" s="3"/>
-      <c r="Z899" s="3"/>
     </row>
     <row r="900">
       <c r="A900" s="3"/>
@@ -25668,7 +24741,6 @@
       <c r="W900" s="3"/>
       <c r="X900" s="3"/>
       <c r="Y900" s="3"/>
-      <c r="Z900" s="3"/>
     </row>
     <row r="901">
       <c r="A901" s="3"/>
@@ -25696,7 +24768,6 @@
       <c r="W901" s="3"/>
       <c r="X901" s="3"/>
       <c r="Y901" s="3"/>
-      <c r="Z901" s="3"/>
     </row>
     <row r="902">
       <c r="A902" s="3"/>
@@ -25724,7 +24795,6 @@
       <c r="W902" s="3"/>
       <c r="X902" s="3"/>
       <c r="Y902" s="3"/>
-      <c r="Z902" s="3"/>
     </row>
     <row r="903">
       <c r="A903" s="3"/>
@@ -25752,7 +24822,6 @@
       <c r="W903" s="3"/>
       <c r="X903" s="3"/>
       <c r="Y903" s="3"/>
-      <c r="Z903" s="3"/>
     </row>
     <row r="904">
       <c r="A904" s="3"/>
@@ -25780,7 +24849,6 @@
       <c r="W904" s="3"/>
       <c r="X904" s="3"/>
       <c r="Y904" s="3"/>
-      <c r="Z904" s="3"/>
     </row>
     <row r="905">
       <c r="A905" s="3"/>
@@ -25808,7 +24876,6 @@
       <c r="W905" s="3"/>
       <c r="X905" s="3"/>
       <c r="Y905" s="3"/>
-      <c r="Z905" s="3"/>
     </row>
     <row r="906">
       <c r="A906" s="3"/>
@@ -25836,7 +24903,6 @@
       <c r="W906" s="3"/>
       <c r="X906" s="3"/>
       <c r="Y906" s="3"/>
-      <c r="Z906" s="3"/>
     </row>
     <row r="907">
       <c r="A907" s="3"/>
@@ -25864,7 +24930,6 @@
       <c r="W907" s="3"/>
       <c r="X907" s="3"/>
       <c r="Y907" s="3"/>
-      <c r="Z907" s="3"/>
     </row>
     <row r="908">
       <c r="A908" s="3"/>
@@ -25892,7 +24957,6 @@
       <c r="W908" s="3"/>
       <c r="X908" s="3"/>
       <c r="Y908" s="3"/>
-      <c r="Z908" s="3"/>
     </row>
     <row r="909">
       <c r="A909" s="3"/>
@@ -25920,7 +24984,6 @@
       <c r="W909" s="3"/>
       <c r="X909" s="3"/>
       <c r="Y909" s="3"/>
-      <c r="Z909" s="3"/>
     </row>
     <row r="910">
       <c r="A910" s="3"/>
@@ -25948,7 +25011,6 @@
       <c r="W910" s="3"/>
       <c r="X910" s="3"/>
       <c r="Y910" s="3"/>
-      <c r="Z910" s="3"/>
     </row>
     <row r="911">
       <c r="A911" s="3"/>
@@ -25976,7 +25038,6 @@
       <c r="W911" s="3"/>
       <c r="X911" s="3"/>
       <c r="Y911" s="3"/>
-      <c r="Z911" s="3"/>
     </row>
     <row r="912">
       <c r="A912" s="3"/>
@@ -26004,7 +25065,6 @@
       <c r="W912" s="3"/>
       <c r="X912" s="3"/>
       <c r="Y912" s="3"/>
-      <c r="Z912" s="3"/>
     </row>
     <row r="913">
       <c r="A913" s="3"/>
@@ -26032,7 +25092,6 @@
       <c r="W913" s="3"/>
       <c r="X913" s="3"/>
       <c r="Y913" s="3"/>
-      <c r="Z913" s="3"/>
     </row>
     <row r="914">
       <c r="A914" s="3"/>
@@ -26060,7 +25119,6 @@
       <c r="W914" s="3"/>
       <c r="X914" s="3"/>
       <c r="Y914" s="3"/>
-      <c r="Z914" s="3"/>
     </row>
     <row r="915">
       <c r="A915" s="3"/>
@@ -26088,7 +25146,6 @@
       <c r="W915" s="3"/>
       <c r="X915" s="3"/>
       <c r="Y915" s="3"/>
-      <c r="Z915" s="3"/>
     </row>
     <row r="916">
       <c r="A916" s="3"/>
@@ -26116,7 +25173,6 @@
       <c r="W916" s="3"/>
       <c r="X916" s="3"/>
       <c r="Y916" s="3"/>
-      <c r="Z916" s="3"/>
     </row>
     <row r="917">
       <c r="A917" s="3"/>
@@ -26144,7 +25200,6 @@
       <c r="W917" s="3"/>
       <c r="X917" s="3"/>
       <c r="Y917" s="3"/>
-      <c r="Z917" s="3"/>
     </row>
     <row r="918">
       <c r="A918" s="3"/>
@@ -26172,7 +25227,6 @@
       <c r="W918" s="3"/>
       <c r="X918" s="3"/>
       <c r="Y918" s="3"/>
-      <c r="Z918" s="3"/>
     </row>
     <row r="919">
       <c r="A919" s="3"/>
@@ -26200,7 +25254,6 @@
       <c r="W919" s="3"/>
       <c r="X919" s="3"/>
       <c r="Y919" s="3"/>
-      <c r="Z919" s="3"/>
     </row>
     <row r="920">
       <c r="A920" s="3"/>
@@ -26228,7 +25281,6 @@
       <c r="W920" s="3"/>
       <c r="X920" s="3"/>
       <c r="Y920" s="3"/>
-      <c r="Z920" s="3"/>
     </row>
     <row r="921">
       <c r="A921" s="3"/>
@@ -26256,7 +25308,6 @@
       <c r="W921" s="3"/>
       <c r="X921" s="3"/>
       <c r="Y921" s="3"/>
-      <c r="Z921" s="3"/>
     </row>
     <row r="922">
       <c r="A922" s="3"/>
@@ -26284,7 +25335,6 @@
       <c r="W922" s="3"/>
       <c r="X922" s="3"/>
       <c r="Y922" s="3"/>
-      <c r="Z922" s="3"/>
     </row>
     <row r="923">
       <c r="A923" s="3"/>
@@ -26312,7 +25362,6 @@
       <c r="W923" s="3"/>
       <c r="X923" s="3"/>
       <c r="Y923" s="3"/>
-      <c r="Z923" s="3"/>
     </row>
     <row r="924">
       <c r="A924" s="3"/>
@@ -26340,7 +25389,6 @@
       <c r="W924" s="3"/>
       <c r="X924" s="3"/>
       <c r="Y924" s="3"/>
-      <c r="Z924" s="3"/>
     </row>
     <row r="925">
       <c r="A925" s="3"/>
@@ -26368,7 +25416,6 @@
       <c r="W925" s="3"/>
       <c r="X925" s="3"/>
       <c r="Y925" s="3"/>
-      <c r="Z925" s="3"/>
     </row>
     <row r="926">
       <c r="A926" s="3"/>
@@ -26396,7 +25443,6 @@
       <c r="W926" s="3"/>
       <c r="X926" s="3"/>
       <c r="Y926" s="3"/>
-      <c r="Z926" s="3"/>
     </row>
     <row r="927">
       <c r="A927" s="3"/>
@@ -26424,7 +25470,6 @@
       <c r="W927" s="3"/>
       <c r="X927" s="3"/>
       <c r="Y927" s="3"/>
-      <c r="Z927" s="3"/>
     </row>
     <row r="928">
       <c r="A928" s="3"/>
@@ -26452,7 +25497,6 @@
       <c r="W928" s="3"/>
       <c r="X928" s="3"/>
       <c r="Y928" s="3"/>
-      <c r="Z928" s="3"/>
     </row>
     <row r="929">
       <c r="A929" s="3"/>
@@ -26480,7 +25524,6 @@
       <c r="W929" s="3"/>
       <c r="X929" s="3"/>
       <c r="Y929" s="3"/>
-      <c r="Z929" s="3"/>
     </row>
     <row r="930">
       <c r="A930" s="3"/>
@@ -26508,7 +25551,6 @@
       <c r="W930" s="3"/>
       <c r="X930" s="3"/>
       <c r="Y930" s="3"/>
-      <c r="Z930" s="3"/>
     </row>
     <row r="931">
       <c r="A931" s="3"/>
@@ -26536,7 +25578,6 @@
       <c r="W931" s="3"/>
       <c r="X931" s="3"/>
       <c r="Y931" s="3"/>
-      <c r="Z931" s="3"/>
     </row>
     <row r="932">
       <c r="A932" s="3"/>
@@ -26564,7 +25605,6 @@
       <c r="W932" s="3"/>
       <c r="X932" s="3"/>
       <c r="Y932" s="3"/>
-      <c r="Z932" s="3"/>
     </row>
     <row r="933">
       <c r="A933" s="3"/>
@@ -26592,7 +25632,6 @@
       <c r="W933" s="3"/>
       <c r="X933" s="3"/>
       <c r="Y933" s="3"/>
-      <c r="Z933" s="3"/>
     </row>
     <row r="934">
       <c r="A934" s="3"/>
@@ -26620,7 +25659,6 @@
       <c r="W934" s="3"/>
       <c r="X934" s="3"/>
       <c r="Y934" s="3"/>
-      <c r="Z934" s="3"/>
     </row>
     <row r="935">
       <c r="A935" s="3"/>
@@ -26648,7 +25686,6 @@
       <c r="W935" s="3"/>
       <c r="X935" s="3"/>
       <c r="Y935" s="3"/>
-      <c r="Z935" s="3"/>
     </row>
     <row r="936">
       <c r="A936" s="3"/>
@@ -26676,7 +25713,6 @@
       <c r="W936" s="3"/>
       <c r="X936" s="3"/>
       <c r="Y936" s="3"/>
-      <c r="Z936" s="3"/>
     </row>
     <row r="937">
       <c r="A937" s="3"/>
@@ -26704,7 +25740,6 @@
       <c r="W937" s="3"/>
       <c r="X937" s="3"/>
       <c r="Y937" s="3"/>
-      <c r="Z937" s="3"/>
     </row>
     <row r="938">
       <c r="A938" s="3"/>
@@ -26732,7 +25767,6 @@
       <c r="W938" s="3"/>
       <c r="X938" s="3"/>
       <c r="Y938" s="3"/>
-      <c r="Z938" s="3"/>
     </row>
     <row r="939">
       <c r="A939" s="3"/>
@@ -26760,7 +25794,6 @@
       <c r="W939" s="3"/>
       <c r="X939" s="3"/>
       <c r="Y939" s="3"/>
-      <c r="Z939" s="3"/>
     </row>
     <row r="940">
       <c r="A940" s="3"/>
@@ -26788,7 +25821,6 @@
       <c r="W940" s="3"/>
       <c r="X940" s="3"/>
       <c r="Y940" s="3"/>
-      <c r="Z940" s="3"/>
     </row>
     <row r="941">
       <c r="A941" s="3"/>
@@ -26816,7 +25848,6 @@
       <c r="W941" s="3"/>
       <c r="X941" s="3"/>
       <c r="Y941" s="3"/>
-      <c r="Z941" s="3"/>
     </row>
     <row r="942">
       <c r="A942" s="3"/>
@@ -26844,7 +25875,6 @@
       <c r="W942" s="3"/>
       <c r="X942" s="3"/>
       <c r="Y942" s="3"/>
-      <c r="Z942" s="3"/>
     </row>
     <row r="943">
       <c r="A943" s="3"/>
@@ -26872,7 +25902,6 @@
       <c r="W943" s="3"/>
       <c r="X943" s="3"/>
       <c r="Y943" s="3"/>
-      <c r="Z943" s="3"/>
     </row>
     <row r="944">
       <c r="A944" s="3"/>
@@ -26900,7 +25929,6 @@
       <c r="W944" s="3"/>
       <c r="X944" s="3"/>
       <c r="Y944" s="3"/>
-      <c r="Z944" s="3"/>
     </row>
     <row r="945">
       <c r="A945" s="3"/>
@@ -26928,7 +25956,6 @@
       <c r="W945" s="3"/>
       <c r="X945" s="3"/>
       <c r="Y945" s="3"/>
-      <c r="Z945" s="3"/>
     </row>
     <row r="946">
       <c r="A946" s="3"/>
@@ -26956,7 +25983,6 @@
       <c r="W946" s="3"/>
       <c r="X946" s="3"/>
       <c r="Y946" s="3"/>
-      <c r="Z946" s="3"/>
     </row>
     <row r="947">
       <c r="A947" s="3"/>
@@ -26984,7 +26010,6 @@
       <c r="W947" s="3"/>
       <c r="X947" s="3"/>
       <c r="Y947" s="3"/>
-      <c r="Z947" s="3"/>
     </row>
     <row r="948">
       <c r="A948" s="3"/>
@@ -27012,7 +26037,6 @@
       <c r="W948" s="3"/>
       <c r="X948" s="3"/>
       <c r="Y948" s="3"/>
-      <c r="Z948" s="3"/>
     </row>
     <row r="949">
       <c r="A949" s="3"/>
@@ -27040,7 +26064,6 @@
       <c r="W949" s="3"/>
       <c r="X949" s="3"/>
       <c r="Y949" s="3"/>
-      <c r="Z949" s="3"/>
     </row>
     <row r="950">
       <c r="A950" s="3"/>
@@ -27068,7 +26091,6 @@
       <c r="W950" s="3"/>
       <c r="X950" s="3"/>
       <c r="Y950" s="3"/>
-      <c r="Z950" s="3"/>
     </row>
     <row r="951">
       <c r="A951" s="3"/>
@@ -27096,7 +26118,6 @@
       <c r="W951" s="3"/>
       <c r="X951" s="3"/>
       <c r="Y951" s="3"/>
-      <c r="Z951" s="3"/>
     </row>
     <row r="952">
       <c r="A952" s="3"/>
@@ -27124,7 +26145,6 @@
       <c r="W952" s="3"/>
       <c r="X952" s="3"/>
       <c r="Y952" s="3"/>
-      <c r="Z952" s="3"/>
     </row>
     <row r="953">
       <c r="A953" s="3"/>
@@ -27152,7 +26172,6 @@
       <c r="W953" s="3"/>
       <c r="X953" s="3"/>
       <c r="Y953" s="3"/>
-      <c r="Z953" s="3"/>
     </row>
     <row r="954">
       <c r="A954" s="3"/>
@@ -27180,7 +26199,6 @@
       <c r="W954" s="3"/>
       <c r="X954" s="3"/>
       <c r="Y954" s="3"/>
-      <c r="Z954" s="3"/>
     </row>
     <row r="955">
       <c r="A955" s="3"/>
@@ -27208,7 +26226,6 @@
       <c r="W955" s="3"/>
       <c r="X955" s="3"/>
       <c r="Y955" s="3"/>
-      <c r="Z955" s="3"/>
     </row>
     <row r="956">
       <c r="A956" s="3"/>
@@ -27236,7 +26253,6 @@
       <c r="W956" s="3"/>
       <c r="X956" s="3"/>
       <c r="Y956" s="3"/>
-      <c r="Z956" s="3"/>
     </row>
     <row r="957">
       <c r="A957" s="3"/>
@@ -27264,7 +26280,6 @@
       <c r="W957" s="3"/>
       <c r="X957" s="3"/>
       <c r="Y957" s="3"/>
-      <c r="Z957" s="3"/>
     </row>
     <row r="958">
       <c r="A958" s="3"/>
@@ -27292,7 +26307,6 @@
       <c r="W958" s="3"/>
       <c r="X958" s="3"/>
       <c r="Y958" s="3"/>
-      <c r="Z958" s="3"/>
     </row>
     <row r="959">
       <c r="A959" s="3"/>
@@ -27320,7 +26334,6 @@
       <c r="W959" s="3"/>
       <c r="X959" s="3"/>
       <c r="Y959" s="3"/>
-      <c r="Z959" s="3"/>
     </row>
     <row r="960">
       <c r="A960" s="3"/>
@@ -27348,7 +26361,6 @@
       <c r="W960" s="3"/>
       <c r="X960" s="3"/>
       <c r="Y960" s="3"/>
-      <c r="Z960" s="3"/>
     </row>
     <row r="961">
       <c r="A961" s="3"/>
@@ -27376,7 +26388,6 @@
       <c r="W961" s="3"/>
       <c r="X961" s="3"/>
       <c r="Y961" s="3"/>
-      <c r="Z961" s="3"/>
     </row>
     <row r="962">
       <c r="A962" s="3"/>
@@ -27404,7 +26415,6 @@
       <c r="W962" s="3"/>
       <c r="X962" s="3"/>
       <c r="Y962" s="3"/>
-      <c r="Z962" s="3"/>
     </row>
     <row r="963">
       <c r="A963" s="3"/>
@@ -27432,7 +26442,6 @@
       <c r="W963" s="3"/>
       <c r="X963" s="3"/>
       <c r="Y963" s="3"/>
-      <c r="Z963" s="3"/>
     </row>
     <row r="964">
       <c r="A964" s="3"/>
@@ -27460,7 +26469,6 @@
       <c r="W964" s="3"/>
       <c r="X964" s="3"/>
       <c r="Y964" s="3"/>
-      <c r="Z964" s="3"/>
     </row>
     <row r="965">
       <c r="A965" s="3"/>
@@ -27488,7 +26496,6 @@
       <c r="W965" s="3"/>
       <c r="X965" s="3"/>
       <c r="Y965" s="3"/>
-      <c r="Z965" s="3"/>
     </row>
     <row r="966">
       <c r="A966" s="3"/>
@@ -27516,7 +26523,6 @@
       <c r="W966" s="3"/>
       <c r="X966" s="3"/>
       <c r="Y966" s="3"/>
-      <c r="Z966" s="3"/>
     </row>
     <row r="967">
       <c r="A967" s="3"/>
@@ -27544,7 +26550,6 @@
       <c r="W967" s="3"/>
       <c r="X967" s="3"/>
       <c r="Y967" s="3"/>
-      <c r="Z967" s="3"/>
     </row>
     <row r="968">
       <c r="A968" s="3"/>
@@ -27572,7 +26577,6 @@
       <c r="W968" s="3"/>
       <c r="X968" s="3"/>
       <c r="Y968" s="3"/>
-      <c r="Z968" s="3"/>
     </row>
     <row r="969">
       <c r="A969" s="3"/>
@@ -27600,7 +26604,6 @@
       <c r="W969" s="3"/>
       <c r="X969" s="3"/>
       <c r="Y969" s="3"/>
-      <c r="Z969" s="3"/>
     </row>
     <row r="970">
       <c r="A970" s="3"/>
@@ -27628,7 +26631,6 @@
       <c r="W970" s="3"/>
       <c r="X970" s="3"/>
       <c r="Y970" s="3"/>
-      <c r="Z970" s="3"/>
     </row>
     <row r="971">
       <c r="A971" s="3"/>
@@ -27656,7 +26658,6 @@
       <c r="W971" s="3"/>
       <c r="X971" s="3"/>
       <c r="Y971" s="3"/>
-      <c r="Z971" s="3"/>
     </row>
     <row r="972">
       <c r="A972" s="3"/>
@@ -27684,7 +26685,6 @@
       <c r="W972" s="3"/>
       <c r="X972" s="3"/>
       <c r="Y972" s="3"/>
-      <c r="Z972" s="3"/>
     </row>
     <row r="973">
       <c r="A973" s="3"/>
@@ -27712,7 +26712,6 @@
       <c r="W973" s="3"/>
       <c r="X973" s="3"/>
       <c r="Y973" s="3"/>
-      <c r="Z973" s="3"/>
     </row>
     <row r="974">
       <c r="A974" s="3"/>
@@ -27740,7 +26739,6 @@
       <c r="W974" s="3"/>
       <c r="X974" s="3"/>
       <c r="Y974" s="3"/>
-      <c r="Z974" s="3"/>
     </row>
     <row r="975">
       <c r="A975" s="3"/>
@@ -27768,7 +26766,6 @@
       <c r="W975" s="3"/>
       <c r="X975" s="3"/>
       <c r="Y975" s="3"/>
-      <c r="Z975" s="3"/>
     </row>
     <row r="976">
       <c r="A976" s="3"/>
@@ -27796,7 +26793,6 @@
       <c r="W976" s="3"/>
       <c r="X976" s="3"/>
       <c r="Y976" s="3"/>
-      <c r="Z976" s="3"/>
     </row>
     <row r="977">
       <c r="A977" s="3"/>
@@ -27824,7 +26820,6 @@
       <c r="W977" s="3"/>
       <c r="X977" s="3"/>
       <c r="Y977" s="3"/>
-      <c r="Z977" s="3"/>
     </row>
     <row r="978">
       <c r="A978" s="3"/>
@@ -27852,7 +26847,6 @@
       <c r="W978" s="3"/>
       <c r="X978" s="3"/>
       <c r="Y978" s="3"/>
-      <c r="Z978" s="3"/>
     </row>
     <row r="979">
       <c r="A979" s="3"/>
@@ -27880,15 +26874,14 @@
       <c r="W979" s="3"/>
       <c r="X979" s="3"/>
       <c r="Y979" s="3"/>
-      <c r="Z979" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2"/>
-    <hyperlink r:id="rId2" ref="B4"/>
-    <hyperlink r:id="rId3" ref="B6"/>
-    <hyperlink r:id="rId4" ref="B8"/>
-    <hyperlink r:id="rId5" ref="B10"/>
+    <hyperlink r:id="rId1" ref="A2"/>
+    <hyperlink r:id="rId2" ref="A4"/>
+    <hyperlink r:id="rId3" ref="A6"/>
+    <hyperlink r:id="rId4" ref="A8"/>
+    <hyperlink r:id="rId5" ref="A10"/>
   </hyperlinks>
   <drawing r:id="rId6"/>
 </worksheet>
